--- a/BackTest/2020-01-24 BackTest XEM.xlsx
+++ b/BackTest/2020-01-24 BackTest XEM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M237"/>
+  <dimension ref="A1:M238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>49.62</v>
+        <v>49.76</v>
       </c>
       <c r="C2" t="n">
-        <v>49.62</v>
+        <v>49.76</v>
       </c>
       <c r="D2" t="n">
-        <v>49.62</v>
+        <v>49.77</v>
       </c>
       <c r="E2" t="n">
-        <v>49.62</v>
+        <v>49.64</v>
       </c>
       <c r="F2" t="n">
-        <v>4458.3875</v>
+        <v>45527.9547</v>
       </c>
       <c r="G2" t="n">
-        <v>48.51933333333336</v>
+        <v>48.47450000000002</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>49.61</v>
+        <v>49.62</v>
       </c>
       <c r="C3" t="n">
-        <v>49.61</v>
+        <v>49.62</v>
       </c>
       <c r="D3" t="n">
-        <v>49.61</v>
+        <v>49.62</v>
       </c>
       <c r="E3" t="n">
-        <v>49.61</v>
+        <v>49.62</v>
       </c>
       <c r="F3" t="n">
-        <v>9166.6322</v>
+        <v>4458.3875</v>
       </c>
       <c r="G3" t="n">
-        <v>48.57450000000002</v>
+        <v>48.51933333333336</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -506,19 +506,19 @@
         <v>49.61</v>
       </c>
       <c r="C4" t="n">
-        <v>49.63</v>
+        <v>49.61</v>
       </c>
       <c r="D4" t="n">
-        <v>49.63</v>
+        <v>49.61</v>
       </c>
       <c r="E4" t="n">
         <v>49.61</v>
       </c>
       <c r="F4" t="n">
-        <v>102497.8579</v>
+        <v>9166.6322</v>
       </c>
       <c r="G4" t="n">
-        <v>48.63000000000002</v>
+        <v>48.57450000000002</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>49.8</v>
+        <v>49.61</v>
       </c>
       <c r="C5" t="n">
-        <v>50.07</v>
+        <v>49.63</v>
       </c>
       <c r="D5" t="n">
-        <v>50.07</v>
+        <v>49.63</v>
       </c>
       <c r="E5" t="n">
-        <v>49.8</v>
+        <v>49.61</v>
       </c>
       <c r="F5" t="n">
-        <v>669.1202</v>
+        <v>102497.8579</v>
       </c>
       <c r="G5" t="n">
-        <v>48.69283333333335</v>
+        <v>48.63000000000002</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>49.98</v>
+        <v>49.8</v>
       </c>
       <c r="C6" t="n">
-        <v>49.98</v>
+        <v>50.07</v>
       </c>
       <c r="D6" t="n">
-        <v>49.98</v>
+        <v>50.07</v>
       </c>
       <c r="E6" t="n">
-        <v>49.98</v>
+        <v>49.8</v>
       </c>
       <c r="F6" t="n">
-        <v>10000</v>
+        <v>669.1202</v>
       </c>
       <c r="G6" t="n">
-        <v>48.75700000000002</v>
+        <v>48.69283333333335</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,28 +608,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>49.75</v>
+        <v>49.98</v>
       </c>
       <c r="C7" t="n">
-        <v>49.66</v>
+        <v>49.98</v>
       </c>
       <c r="D7" t="n">
-        <v>49.75</v>
+        <v>49.98</v>
       </c>
       <c r="E7" t="n">
-        <v>49.66</v>
+        <v>49.98</v>
       </c>
       <c r="F7" t="n">
-        <v>3333.55676097</v>
+        <v>10000</v>
       </c>
       <c r="G7" t="n">
-        <v>48.80800000000001</v>
+        <v>48.75700000000002</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="C8" t="n">
         <v>49.66</v>
       </c>
-      <c r="C8" t="n">
-        <v>49.58</v>
-      </c>
       <c r="D8" t="n">
+        <v>49.75</v>
+      </c>
+      <c r="E8" t="n">
         <v>49.66</v>
       </c>
-      <c r="E8" t="n">
-        <v>49.58</v>
-      </c>
       <c r="F8" t="n">
-        <v>3099.02161735</v>
+        <v>3333.55676097</v>
       </c>
       <c r="G8" t="n">
-        <v>48.85483333333335</v>
+        <v>48.80800000000001</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>49.6</v>
+        <v>49.66</v>
       </c>
       <c r="C9" t="n">
-        <v>49.6</v>
+        <v>49.58</v>
       </c>
       <c r="D9" t="n">
-        <v>49.6</v>
+        <v>49.66</v>
       </c>
       <c r="E9" t="n">
-        <v>49.6</v>
+        <v>49.58</v>
       </c>
       <c r="F9" t="n">
-        <v>18</v>
+        <v>3099.02161735</v>
       </c>
       <c r="G9" t="n">
-        <v>48.89550000000001</v>
+        <v>48.85483333333335</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>49.6</v>
       </c>
       <c r="F10" t="n">
-        <v>10001.6655</v>
+        <v>18</v>
       </c>
       <c r="G10" t="n">
-        <v>48.93833333333335</v>
+        <v>48.89550000000001</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>49.59</v>
+        <v>49.6</v>
       </c>
       <c r="C11" t="n">
-        <v>49.59</v>
+        <v>49.6</v>
       </c>
       <c r="D11" t="n">
-        <v>49.59</v>
+        <v>49.6</v>
       </c>
       <c r="E11" t="n">
-        <v>49.59</v>
+        <v>49.6</v>
       </c>
       <c r="F11" t="n">
-        <v>10809.7076</v>
+        <v>10001.6655</v>
       </c>
       <c r="G11" t="n">
-        <v>48.97900000000001</v>
+        <v>48.93833333333335</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>49.62</v>
+        <v>49.59</v>
       </c>
       <c r="C12" t="n">
-        <v>49.81</v>
+        <v>49.59</v>
       </c>
       <c r="D12" t="n">
-        <v>49.81</v>
+        <v>49.59</v>
       </c>
       <c r="E12" t="n">
-        <v>49.62</v>
+        <v>49.59</v>
       </c>
       <c r="F12" t="n">
-        <v>9091.6391</v>
+        <v>10809.7076</v>
       </c>
       <c r="G12" t="n">
-        <v>49.02333333333334</v>
+        <v>48.97900000000001</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>49.82</v>
+        <v>49.62</v>
       </c>
       <c r="C13" t="n">
-        <v>50.08</v>
+        <v>49.81</v>
       </c>
       <c r="D13" t="n">
-        <v>50.08</v>
+        <v>49.81</v>
       </c>
       <c r="E13" t="n">
-        <v>49.82</v>
+        <v>49.62</v>
       </c>
       <c r="F13" t="n">
-        <v>52091.2972</v>
+        <v>9091.6391</v>
       </c>
       <c r="G13" t="n">
-        <v>49.07366666666667</v>
+        <v>49.02333333333334</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
+        <v>49.82</v>
+      </c>
+      <c r="C14" t="n">
         <v>50.08</v>
       </c>
-      <c r="C14" t="n">
-        <v>50.2</v>
-      </c>
       <c r="D14" t="n">
-        <v>50.2</v>
+        <v>50.08</v>
       </c>
       <c r="E14" t="n">
-        <v>50.08</v>
+        <v>49.82</v>
       </c>
       <c r="F14" t="n">
-        <v>9941.342199999999</v>
+        <v>52091.2972</v>
       </c>
       <c r="G14" t="n">
-        <v>49.12616666666667</v>
+        <v>49.07366666666667</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,7 +888,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>50.2</v>
+        <v>50.08</v>
       </c>
       <c r="C15" t="n">
         <v>50.2</v>
@@ -897,13 +897,13 @@
         <v>50.2</v>
       </c>
       <c r="E15" t="n">
-        <v>50.2</v>
+        <v>50.08</v>
       </c>
       <c r="F15" t="n">
-        <v>1457.1437</v>
+        <v>9941.342199999999</v>
       </c>
       <c r="G15" t="n">
-        <v>49.17716666666667</v>
+        <v>49.12616666666667</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>50.2</v>
       </c>
       <c r="F16" t="n">
-        <v>2790.2514</v>
+        <v>1457.1437</v>
       </c>
       <c r="G16" t="n">
-        <v>49.22783333333334</v>
+        <v>49.17716666666667</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -970,16 +970,16 @@
         <v>50.2</v>
       </c>
       <c r="F17" t="n">
-        <v>10000</v>
+        <v>2790.2514</v>
       </c>
       <c r="G17" t="n">
-        <v>49.27833333333333</v>
+        <v>49.22783333333334</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -996,19 +996,19 @@
         <v>50.2</v>
       </c>
       <c r="C18" t="n">
-        <v>50.25</v>
+        <v>50.2</v>
       </c>
       <c r="D18" t="n">
-        <v>50.25</v>
+        <v>50.2</v>
       </c>
       <c r="E18" t="n">
         <v>50.2</v>
       </c>
       <c r="F18" t="n">
-        <v>199.02248756</v>
+        <v>10000</v>
       </c>
       <c r="G18" t="n">
-        <v>49.32749999999999</v>
+        <v>49.27833333333333</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>50.24</v>
+        <v>50.2</v>
       </c>
       <c r="C19" t="n">
-        <v>50.24</v>
+        <v>50.25</v>
       </c>
       <c r="D19" t="n">
-        <v>50.24</v>
+        <v>50.25</v>
       </c>
       <c r="E19" t="n">
-        <v>50.24</v>
+        <v>50.2</v>
       </c>
       <c r="F19" t="n">
-        <v>15883.8554</v>
+        <v>199.02248756</v>
       </c>
       <c r="G19" t="n">
-        <v>49.37249999999999</v>
+        <v>49.32749999999999</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>50.2</v>
+        <v>50.24</v>
       </c>
       <c r="C20" t="n">
-        <v>50.3</v>
+        <v>50.24</v>
       </c>
       <c r="D20" t="n">
-        <v>50.3</v>
+        <v>50.24</v>
       </c>
       <c r="E20" t="n">
-        <v>50.2</v>
+        <v>50.24</v>
       </c>
       <c r="F20" t="n">
-        <v>6482.7083</v>
+        <v>15883.8554</v>
       </c>
       <c r="G20" t="n">
-        <v>49.41833333333332</v>
+        <v>49.37249999999999</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="C21" t="n">
         <v>50.3</v>
       </c>
-      <c r="C21" t="n">
-        <v>50.35</v>
-      </c>
       <c r="D21" t="n">
-        <v>50.35</v>
+        <v>50.3</v>
       </c>
       <c r="E21" t="n">
-        <v>50.3</v>
+        <v>50.2</v>
       </c>
       <c r="F21" t="n">
-        <v>4632.19291244</v>
+        <v>6482.7083</v>
       </c>
       <c r="G21" t="n">
-        <v>49.46216666666666</v>
+        <v>49.41833333333332</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
+        <v>50.3</v>
+      </c>
+      <c r="C22" t="n">
         <v>50.35</v>
-      </c>
-      <c r="C22" t="n">
-        <v>50.3</v>
       </c>
       <c r="D22" t="n">
         <v>50.35</v>
@@ -1145,10 +1145,10 @@
         <v>50.3</v>
       </c>
       <c r="F22" t="n">
-        <v>15297.6679</v>
+        <v>4632.19291244</v>
       </c>
       <c r="G22" t="n">
-        <v>49.50216666666666</v>
+        <v>49.46216666666666</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>50.37</v>
+        <v>50.35</v>
       </c>
       <c r="C23" t="n">
-        <v>50.43</v>
+        <v>50.3</v>
       </c>
       <c r="D23" t="n">
-        <v>50.43</v>
+        <v>50.35</v>
       </c>
       <c r="E23" t="n">
-        <v>50.37</v>
+        <v>50.3</v>
       </c>
       <c r="F23" t="n">
-        <v>43507.2694</v>
+        <v>15297.6679</v>
       </c>
       <c r="G23" t="n">
-        <v>49.54266666666665</v>
+        <v>49.50216666666666</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1203,22 +1203,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>50.42</v>
+        <v>50.37</v>
       </c>
       <c r="C24" t="n">
-        <v>50.44</v>
+        <v>50.43</v>
       </c>
       <c r="D24" t="n">
-        <v>50.44</v>
+        <v>50.43</v>
       </c>
       <c r="E24" t="n">
-        <v>50.42</v>
+        <v>50.37</v>
       </c>
       <c r="F24" t="n">
-        <v>68707.76640911</v>
+        <v>43507.2694</v>
       </c>
       <c r="G24" t="n">
-        <v>49.5855</v>
+        <v>49.54266666666665</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,7 +1238,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>50.44</v>
+        <v>50.42</v>
       </c>
       <c r="C25" t="n">
         <v>50.44</v>
@@ -1247,19 +1247,19 @@
         <v>50.44</v>
       </c>
       <c r="E25" t="n">
-        <v>50.44</v>
+        <v>50.42</v>
       </c>
       <c r="F25" t="n">
-        <v>56392.0065</v>
+        <v>68707.76640911</v>
       </c>
       <c r="G25" t="n">
-        <v>49.62183333333333</v>
+        <v>49.5855</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1273,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>50.45</v>
+        <v>50.44</v>
       </c>
       <c r="C26" t="n">
-        <v>50.1</v>
+        <v>50.44</v>
       </c>
       <c r="D26" t="n">
-        <v>50.54</v>
+        <v>50.44</v>
       </c>
       <c r="E26" t="n">
-        <v>50.1</v>
+        <v>50.44</v>
       </c>
       <c r="F26" t="n">
-        <v>59648.28</v>
+        <v>56392.0065</v>
       </c>
       <c r="G26" t="n">
-        <v>49.65683333333332</v>
+        <v>49.62183333333333</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,28 +1308,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>50.15</v>
+        <v>50.45</v>
       </c>
       <c r="C27" t="n">
-        <v>50.5</v>
+        <v>50.1</v>
       </c>
       <c r="D27" t="n">
-        <v>50.5</v>
+        <v>50.54</v>
       </c>
       <c r="E27" t="n">
-        <v>50.12</v>
+        <v>50.1</v>
       </c>
       <c r="F27" t="n">
-        <v>19647.7126</v>
+        <v>59648.28</v>
       </c>
       <c r="G27" t="n">
-        <v>49.69849999999999</v>
+        <v>49.65683333333332</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>50.4</v>
+        <v>50.15</v>
       </c>
       <c r="C28" t="n">
-        <v>50.45</v>
+        <v>50.5</v>
       </c>
       <c r="D28" t="n">
-        <v>50.45</v>
+        <v>50.5</v>
       </c>
       <c r="E28" t="n">
-        <v>50.4</v>
+        <v>50.12</v>
       </c>
       <c r="F28" t="n">
-        <v>2305.1884</v>
+        <v>19647.7126</v>
       </c>
       <c r="G28" t="n">
-        <v>49.74049999999999</v>
+        <v>49.69849999999999</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>50.45</v>
+        <v>50.4</v>
       </c>
       <c r="C29" t="n">
         <v>50.45</v>
@@ -1387,13 +1387,13 @@
         <v>50.45</v>
       </c>
       <c r="E29" t="n">
-        <v>50.45</v>
+        <v>50.4</v>
       </c>
       <c r="F29" t="n">
-        <v>1705.9529</v>
+        <v>2305.1884</v>
       </c>
       <c r="G29" t="n">
-        <v>49.77633333333332</v>
+        <v>49.74049999999999</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1413,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>50.17</v>
+        <v>50.45</v>
       </c>
       <c r="C30" t="n">
-        <v>50.17</v>
+        <v>50.45</v>
       </c>
       <c r="D30" t="n">
-        <v>50.17</v>
+        <v>50.45</v>
       </c>
       <c r="E30" t="n">
-        <v>50.17</v>
+        <v>50.45</v>
       </c>
       <c r="F30" t="n">
-        <v>99968.8977</v>
+        <v>1705.9529</v>
       </c>
       <c r="G30" t="n">
-        <v>49.80799999999999</v>
+        <v>49.77633333333332</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1451,19 +1451,19 @@
         <v>50.17</v>
       </c>
       <c r="C31" t="n">
-        <v>50.2</v>
+        <v>50.17</v>
       </c>
       <c r="D31" t="n">
-        <v>50.2</v>
+        <v>50.17</v>
       </c>
       <c r="E31" t="n">
         <v>50.17</v>
       </c>
       <c r="F31" t="n">
-        <v>27082.729</v>
+        <v>99968.8977</v>
       </c>
       <c r="G31" t="n">
-        <v>49.83783333333331</v>
+        <v>49.80799999999999</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1483,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>50.15</v>
+        <v>50.17</v>
       </c>
       <c r="C32" t="n">
-        <v>50.15</v>
+        <v>50.2</v>
       </c>
       <c r="D32" t="n">
-        <v>50.15</v>
+        <v>50.2</v>
       </c>
       <c r="E32" t="n">
-        <v>50.15</v>
+        <v>50.17</v>
       </c>
       <c r="F32" t="n">
-        <v>1158.8685</v>
+        <v>27082.729</v>
       </c>
       <c r="G32" t="n">
-        <v>49.86533333333332</v>
+        <v>49.83783333333331</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1521,19 +1521,19 @@
         <v>50.15</v>
       </c>
       <c r="C33" t="n">
-        <v>49.96</v>
+        <v>50.15</v>
       </c>
       <c r="D33" t="n">
         <v>50.15</v>
       </c>
       <c r="E33" t="n">
-        <v>49.96</v>
+        <v>50.15</v>
       </c>
       <c r="F33" t="n">
-        <v>212931.7559</v>
+        <v>1158.8685</v>
       </c>
       <c r="G33" t="n">
-        <v>49.88799999999999</v>
+        <v>49.86533333333332</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,22 +1553,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
+        <v>50.15</v>
+      </c>
+      <c r="C34" t="n">
         <v>49.96</v>
       </c>
-      <c r="C34" t="n">
-        <v>49.91</v>
-      </c>
       <c r="D34" t="n">
+        <v>50.15</v>
+      </c>
+      <c r="E34" t="n">
         <v>49.96</v>
       </c>
-      <c r="E34" t="n">
-        <v>49.91</v>
-      </c>
       <c r="F34" t="n">
-        <v>137124.6717</v>
+        <v>212931.7559</v>
       </c>
       <c r="G34" t="n">
-        <v>49.90316666666665</v>
+        <v>49.88799999999999</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1588,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>49.82</v>
+        <v>49.96</v>
       </c>
       <c r="C35" t="n">
-        <v>49.82</v>
+        <v>49.91</v>
       </c>
       <c r="D35" t="n">
-        <v>49.82</v>
+        <v>49.96</v>
       </c>
       <c r="E35" t="n">
-        <v>49.81</v>
+        <v>49.91</v>
       </c>
       <c r="F35" t="n">
-        <v>46453.3894</v>
+        <v>137124.6717</v>
       </c>
       <c r="G35" t="n">
-        <v>49.92166666666665</v>
+        <v>49.90316666666665</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1623,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
+        <v>49.82</v>
+      </c>
+      <c r="C36" t="n">
+        <v>49.82</v>
+      </c>
+      <c r="D36" t="n">
+        <v>49.82</v>
+      </c>
+      <c r="E36" t="n">
         <v>49.81</v>
       </c>
-      <c r="C36" t="n">
-        <v>49.71</v>
-      </c>
-      <c r="D36" t="n">
-        <v>49.81</v>
-      </c>
-      <c r="E36" t="n">
-        <v>49.71</v>
-      </c>
       <c r="F36" t="n">
-        <v>132402.2778</v>
+        <v>46453.3894</v>
       </c>
       <c r="G36" t="n">
-        <v>49.92533333333333</v>
+        <v>49.92166666666665</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1658,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>49.7</v>
+        <v>49.81</v>
       </c>
       <c r="C37" t="n">
-        <v>49.7</v>
+        <v>49.71</v>
       </c>
       <c r="D37" t="n">
-        <v>49.7</v>
+        <v>49.81</v>
       </c>
       <c r="E37" t="n">
-        <v>49.7</v>
+        <v>49.71</v>
       </c>
       <c r="F37" t="n">
-        <v>722.2132</v>
+        <v>132402.2778</v>
       </c>
       <c r="G37" t="n">
-        <v>49.93033333333332</v>
+        <v>49.92533333333333</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1693,7 +1693,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>49.59</v>
+        <v>49.7</v>
       </c>
       <c r="C38" t="n">
         <v>49.7</v>
@@ -1702,13 +1702,13 @@
         <v>49.7</v>
       </c>
       <c r="E38" t="n">
-        <v>49.59</v>
+        <v>49.7</v>
       </c>
       <c r="F38" t="n">
-        <v>49396.3302</v>
+        <v>722.2132</v>
       </c>
       <c r="G38" t="n">
-        <v>49.93349999999998</v>
+        <v>49.93033333333332</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>49.7</v>
+        <v>49.59</v>
       </c>
       <c r="C39" t="n">
         <v>49.7</v>
@@ -1737,13 +1737,13 @@
         <v>49.7</v>
       </c>
       <c r="E39" t="n">
-        <v>49.7</v>
+        <v>49.59</v>
       </c>
       <c r="F39" t="n">
-        <v>100</v>
+        <v>49396.3302</v>
       </c>
       <c r="G39" t="n">
-        <v>49.94016666666664</v>
+        <v>49.93349999999998</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1763,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>49.6</v>
+        <v>49.7</v>
       </c>
       <c r="C40" t="n">
-        <v>49.6</v>
+        <v>49.7</v>
       </c>
       <c r="D40" t="n">
         <v>49.7</v>
       </c>
       <c r="E40" t="n">
-        <v>49.45</v>
+        <v>49.7</v>
       </c>
       <c r="F40" t="n">
-        <v>19154.0149</v>
+        <v>100</v>
       </c>
       <c r="G40" t="n">
-        <v>49.94683333333331</v>
+        <v>49.94016666666664</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1798,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>49.7</v>
+        <v>49.6</v>
       </c>
       <c r="C41" t="n">
-        <v>49.69</v>
+        <v>49.6</v>
       </c>
       <c r="D41" t="n">
         <v>49.7</v>
       </c>
       <c r="E41" t="n">
-        <v>49.69</v>
+        <v>49.45</v>
       </c>
       <c r="F41" t="n">
-        <v>8799.468000000001</v>
+        <v>19154.0149</v>
       </c>
       <c r="G41" t="n">
-        <v>49.95466666666665</v>
+        <v>49.94683333333331</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1833,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>49.6</v>
+        <v>49.7</v>
       </c>
       <c r="C42" t="n">
-        <v>49.58</v>
+        <v>49.69</v>
       </c>
       <c r="D42" t="n">
         <v>49.7</v>
       </c>
       <c r="E42" t="n">
-        <v>49.58</v>
+        <v>49.69</v>
       </c>
       <c r="F42" t="n">
-        <v>13143.8201</v>
+        <v>8799.468000000001</v>
       </c>
       <c r="G42" t="n">
-        <v>49.95699999999998</v>
+        <v>49.95466666666665</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1868,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>49.59</v>
+        <v>49.6</v>
       </c>
       <c r="C43" t="n">
-        <v>49.59</v>
+        <v>49.58</v>
       </c>
       <c r="D43" t="n">
-        <v>49.59</v>
+        <v>49.7</v>
       </c>
       <c r="E43" t="n">
-        <v>49.59</v>
+        <v>49.58</v>
       </c>
       <c r="F43" t="n">
-        <v>43940</v>
+        <v>13143.8201</v>
       </c>
       <c r="G43" t="n">
-        <v>49.96466666666664</v>
+        <v>49.95699999999998</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1903,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>49.5</v>
+        <v>49.59</v>
       </c>
       <c r="C44" t="n">
-        <v>49.5</v>
+        <v>49.59</v>
       </c>
       <c r="D44" t="n">
-        <v>49.5</v>
+        <v>49.59</v>
       </c>
       <c r="E44" t="n">
-        <v>49.5</v>
+        <v>49.59</v>
       </c>
       <c r="F44" t="n">
-        <v>2000</v>
+        <v>43940</v>
       </c>
       <c r="G44" t="n">
-        <v>49.96649999999998</v>
+        <v>49.96466666666664</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1938,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>49.41</v>
+        <v>49.5</v>
       </c>
       <c r="C45" t="n">
-        <v>49.7</v>
+        <v>49.5</v>
       </c>
       <c r="D45" t="n">
-        <v>49.7</v>
+        <v>49.5</v>
       </c>
       <c r="E45" t="n">
-        <v>49.41</v>
+        <v>49.5</v>
       </c>
       <c r="F45" t="n">
-        <v>4082.0616</v>
+        <v>2000</v>
       </c>
       <c r="G45" t="n">
-        <v>49.96983333333331</v>
+        <v>49.96649999999998</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1976,19 +1976,19 @@
         <v>49.41</v>
       </c>
       <c r="C46" t="n">
-        <v>49.41</v>
+        <v>49.7</v>
       </c>
       <c r="D46" t="n">
-        <v>49.41</v>
+        <v>49.7</v>
       </c>
       <c r="E46" t="n">
         <v>49.41</v>
       </c>
       <c r="F46" t="n">
-        <v>1022.0805</v>
+        <v>4082.0616</v>
       </c>
       <c r="G46" t="n">
-        <v>49.96583333333331</v>
+        <v>49.96983333333331</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2011,19 +2011,19 @@
         <v>49.41</v>
       </c>
       <c r="C47" t="n">
-        <v>49.12</v>
+        <v>49.41</v>
       </c>
       <c r="D47" t="n">
         <v>49.41</v>
       </c>
       <c r="E47" t="n">
-        <v>49.12</v>
+        <v>49.41</v>
       </c>
       <c r="F47" t="n">
-        <v>24105.5864</v>
+        <v>1022.0805</v>
       </c>
       <c r="G47" t="n">
-        <v>49.95499999999997</v>
+        <v>49.96583333333331</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2043,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>49.13</v>
+        <v>49.41</v>
       </c>
       <c r="C48" t="n">
         <v>49.12</v>
       </c>
       <c r="D48" t="n">
-        <v>49.13</v>
+        <v>49.41</v>
       </c>
       <c r="E48" t="n">
-        <v>49.1</v>
+        <v>49.12</v>
       </c>
       <c r="F48" t="n">
-        <v>62527.4374</v>
+        <v>24105.5864</v>
       </c>
       <c r="G48" t="n">
-        <v>49.94416666666664</v>
+        <v>49.95499999999997</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2081,19 +2081,19 @@
         <v>49.13</v>
       </c>
       <c r="C49" t="n">
-        <v>49.3</v>
+        <v>49.12</v>
       </c>
       <c r="D49" t="n">
-        <v>49.3</v>
+        <v>49.13</v>
       </c>
       <c r="E49" t="n">
         <v>49.1</v>
       </c>
       <c r="F49" t="n">
-        <v>13597.514</v>
+        <v>62527.4374</v>
       </c>
       <c r="G49" t="n">
-        <v>49.93549999999997</v>
+        <v>49.94416666666664</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2113,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>49.1</v>
+        <v>49.13</v>
       </c>
       <c r="C50" t="n">
-        <v>49.1</v>
+        <v>49.3</v>
       </c>
       <c r="D50" t="n">
-        <v>49.1</v>
+        <v>49.3</v>
       </c>
       <c r="E50" t="n">
         <v>49.1</v>
       </c>
       <c r="F50" t="n">
-        <v>516.0033</v>
+        <v>13597.514</v>
       </c>
       <c r="G50" t="n">
-        <v>49.92166666666664</v>
+        <v>49.93549999999997</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2151,19 +2151,19 @@
         <v>49.1</v>
       </c>
       <c r="C51" t="n">
-        <v>48.96</v>
+        <v>49.1</v>
       </c>
       <c r="D51" t="n">
         <v>49.1</v>
       </c>
       <c r="E51" t="n">
-        <v>48.96</v>
+        <v>49.1</v>
       </c>
       <c r="F51" t="n">
-        <v>25736.096</v>
+        <v>516.0033</v>
       </c>
       <c r="G51" t="n">
-        <v>49.89366666666664</v>
+        <v>49.92166666666664</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2183,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>48.98</v>
+        <v>49.1</v>
       </c>
       <c r="C52" t="n">
-        <v>48.98</v>
+        <v>48.96</v>
       </c>
       <c r="D52" t="n">
-        <v>48.98</v>
+        <v>49.1</v>
       </c>
       <c r="E52" t="n">
-        <v>48.97</v>
+        <v>48.96</v>
       </c>
       <c r="F52" t="n">
-        <v>6717.2871</v>
+        <v>25736.096</v>
       </c>
       <c r="G52" t="n">
-        <v>49.87116666666665</v>
+        <v>49.89366666666664</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2221,19 +2221,19 @@
         <v>48.98</v>
       </c>
       <c r="C53" t="n">
-        <v>49.41</v>
+        <v>48.98</v>
       </c>
       <c r="D53" t="n">
-        <v>49.41</v>
+        <v>48.98</v>
       </c>
       <c r="E53" t="n">
-        <v>48.98</v>
+        <v>48.97</v>
       </c>
       <c r="F53" t="n">
-        <v>21657</v>
+        <v>6717.2871</v>
       </c>
       <c r="G53" t="n">
-        <v>49.85416666666664</v>
+        <v>49.87116666666665</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2253,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>48.95</v>
+        <v>48.98</v>
       </c>
       <c r="C54" t="n">
-        <v>48.95</v>
+        <v>49.41</v>
       </c>
       <c r="D54" t="n">
-        <v>48.95</v>
+        <v>49.41</v>
       </c>
       <c r="E54" t="n">
-        <v>48.95</v>
+        <v>48.98</v>
       </c>
       <c r="F54" t="n">
-        <v>111</v>
+        <v>21657</v>
       </c>
       <c r="G54" t="n">
-        <v>49.82966666666664</v>
+        <v>49.85416666666664</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2288,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>48.9</v>
+        <v>48.95</v>
       </c>
       <c r="C55" t="n">
-        <v>48.9</v>
+        <v>48.95</v>
       </c>
       <c r="D55" t="n">
-        <v>48.9</v>
+        <v>48.95</v>
       </c>
       <c r="E55" t="n">
-        <v>48.9</v>
+        <v>48.95</v>
       </c>
       <c r="F55" t="n">
         <v>111</v>
       </c>
       <c r="G55" t="n">
-        <v>49.81116666666664</v>
+        <v>49.82966666666664</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2323,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>48.85</v>
+        <v>48.9</v>
       </c>
       <c r="C56" t="n">
-        <v>48.81</v>
+        <v>48.9</v>
       </c>
       <c r="D56" t="n">
-        <v>48.85</v>
+        <v>48.9</v>
       </c>
       <c r="E56" t="n">
-        <v>48.81</v>
+        <v>48.9</v>
       </c>
       <c r="F56" t="n">
-        <v>515</v>
+        <v>111</v>
       </c>
       <c r="G56" t="n">
-        <v>49.79283333333331</v>
+        <v>49.81116666666664</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2358,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
+        <v>48.85</v>
+      </c>
+      <c r="C57" t="n">
         <v>48.81</v>
       </c>
-      <c r="C57" t="n">
-        <v>48.97</v>
-      </c>
       <c r="D57" t="n">
-        <v>48.97</v>
+        <v>48.85</v>
       </c>
       <c r="E57" t="n">
-        <v>48.52</v>
+        <v>48.81</v>
       </c>
       <c r="F57" t="n">
-        <v>38711.41067586</v>
+        <v>515</v>
       </c>
       <c r="G57" t="n">
-        <v>49.77949999999997</v>
+        <v>49.79283333333331</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2393,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
+        <v>48.81</v>
+      </c>
+      <c r="C58" t="n">
         <v>48.97</v>
       </c>
-      <c r="C58" t="n">
-        <v>48.6</v>
-      </c>
       <c r="D58" t="n">
-        <v>49.05</v>
+        <v>48.97</v>
       </c>
       <c r="E58" t="n">
-        <v>48.6</v>
+        <v>48.52</v>
       </c>
       <c r="F58" t="n">
-        <v>38202.9062</v>
+        <v>38711.41067586</v>
       </c>
       <c r="G58" t="n">
-        <v>49.7578333333333</v>
+        <v>49.77949999999997</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2428,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
+        <v>48.97</v>
+      </c>
+      <c r="C59" t="n">
         <v>48.6</v>
       </c>
-      <c r="C59" t="n">
-        <v>48.41</v>
-      </c>
       <c r="D59" t="n">
+        <v>49.05</v>
+      </c>
+      <c r="E59" t="n">
         <v>48.6</v>
       </c>
-      <c r="E59" t="n">
-        <v>48.41</v>
-      </c>
       <c r="F59" t="n">
-        <v>15406.7919</v>
+        <v>38202.9062</v>
       </c>
       <c r="G59" t="n">
-        <v>49.73533333333329</v>
+        <v>49.7578333333333</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2463,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>48.4</v>
+        <v>48.6</v>
       </c>
       <c r="C60" t="n">
-        <v>48.4</v>
+        <v>48.41</v>
       </c>
       <c r="D60" t="n">
-        <v>48.4</v>
+        <v>48.6</v>
       </c>
       <c r="E60" t="n">
-        <v>48.4</v>
+        <v>48.41</v>
       </c>
       <c r="F60" t="n">
-        <v>406.4844</v>
+        <v>15406.7919</v>
       </c>
       <c r="G60" t="n">
-        <v>49.71266666666663</v>
+        <v>49.73533333333329</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2498,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>48.31</v>
+        <v>48.4</v>
       </c>
       <c r="C61" t="n">
-        <v>48.31</v>
+        <v>48.4</v>
       </c>
       <c r="D61" t="n">
-        <v>48.31</v>
+        <v>48.4</v>
       </c>
       <c r="E61" t="n">
-        <v>48.31</v>
+        <v>48.4</v>
       </c>
       <c r="F61" t="n">
-        <v>7024.84</v>
+        <v>406.4844</v>
       </c>
       <c r="G61" t="n">
-        <v>49.68849999999996</v>
+        <v>49.71266666666663</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2533,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>48.3</v>
+        <v>48.31</v>
       </c>
       <c r="C62" t="n">
-        <v>48.38</v>
+        <v>48.31</v>
       </c>
       <c r="D62" t="n">
-        <v>48.38</v>
+        <v>48.31</v>
       </c>
       <c r="E62" t="n">
-        <v>48.01</v>
+        <v>48.31</v>
       </c>
       <c r="F62" t="n">
-        <v>42223.7383</v>
+        <v>7024.84</v>
       </c>
       <c r="G62" t="n">
-        <v>49.66783333333329</v>
+        <v>49.68849999999996</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2568,22 +2568,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>48.1</v>
+        <v>48.3</v>
       </c>
       <c r="C63" t="n">
+        <v>48.38</v>
+      </c>
+      <c r="D63" t="n">
+        <v>48.38</v>
+      </c>
+      <c r="E63" t="n">
         <v>48.01</v>
       </c>
-      <c r="D63" t="n">
-        <v>48.1</v>
-      </c>
-      <c r="E63" t="n">
-        <v>48</v>
-      </c>
       <c r="F63" t="n">
-        <v>52199.3645</v>
+        <v>42223.7383</v>
       </c>
       <c r="G63" t="n">
-        <v>49.64116666666663</v>
+        <v>49.66783333333329</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>48.01</v>
+        <v>48.1</v>
       </c>
       <c r="C64" t="n">
         <v>48.01</v>
       </c>
       <c r="D64" t="n">
-        <v>48.01</v>
+        <v>48.1</v>
       </c>
       <c r="E64" t="n">
-        <v>48.01</v>
+        <v>48</v>
       </c>
       <c r="F64" t="n">
-        <v>669.8071</v>
+        <v>52199.3645</v>
       </c>
       <c r="G64" t="n">
-        <v>49.61416666666663</v>
+        <v>49.64116666666663</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2650,10 +2650,10 @@
         <v>48.01</v>
       </c>
       <c r="F65" t="n">
-        <v>2578.8416</v>
+        <v>669.8071</v>
       </c>
       <c r="G65" t="n">
-        <v>49.5798333333333</v>
+        <v>49.61416666666663</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2673,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>48</v>
+        <v>48.01</v>
       </c>
       <c r="C66" t="n">
-        <v>48</v>
+        <v>48.01</v>
       </c>
       <c r="D66" t="n">
-        <v>48</v>
+        <v>48.01</v>
       </c>
       <c r="E66" t="n">
-        <v>48</v>
+        <v>48.01</v>
       </c>
       <c r="F66" t="n">
-        <v>17605.7705</v>
+        <v>2578.8416</v>
       </c>
       <c r="G66" t="n">
-        <v>49.5468333333333</v>
+        <v>49.5798333333333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2708,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>48.02</v>
+        <v>48</v>
       </c>
       <c r="C67" t="n">
-        <v>48.02</v>
+        <v>48</v>
       </c>
       <c r="D67" t="n">
-        <v>48.02</v>
+        <v>48</v>
       </c>
       <c r="E67" t="n">
-        <v>48.02</v>
+        <v>48</v>
       </c>
       <c r="F67" t="n">
-        <v>276</v>
+        <v>17605.7705</v>
       </c>
       <c r="G67" t="n">
-        <v>49.51949999999997</v>
+        <v>49.5468333333333</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2743,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>48</v>
+        <v>48.02</v>
       </c>
       <c r="C68" t="n">
-        <v>47.6</v>
+        <v>48.02</v>
       </c>
       <c r="D68" t="n">
-        <v>48</v>
+        <v>48.02</v>
       </c>
       <c r="E68" t="n">
-        <v>47.6</v>
+        <v>48.02</v>
       </c>
       <c r="F68" t="n">
-        <v>43029.4891</v>
+        <v>276</v>
       </c>
       <c r="G68" t="n">
-        <v>49.48649999999996</v>
+        <v>49.51949999999997</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
+        <v>48</v>
+      </c>
+      <c r="C69" t="n">
         <v>47.6</v>
       </c>
-      <c r="C69" t="n">
-        <v>47.61</v>
-      </c>
       <c r="D69" t="n">
-        <v>47.99</v>
+        <v>48</v>
       </c>
       <c r="E69" t="n">
         <v>47.6</v>
       </c>
       <c r="F69" t="n">
-        <v>8447.291300000001</v>
+        <v>43029.4891</v>
       </c>
       <c r="G69" t="n">
-        <v>49.4533333333333</v>
+        <v>49.48649999999996</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2813,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>47.7</v>
+        <v>47.6</v>
       </c>
       <c r="C70" t="n">
         <v>47.61</v>
       </c>
       <c r="D70" t="n">
-        <v>47.7</v>
+        <v>47.99</v>
       </c>
       <c r="E70" t="n">
-        <v>47.61</v>
+        <v>47.6</v>
       </c>
       <c r="F70" t="n">
-        <v>2688.3066</v>
+        <v>8447.291300000001</v>
       </c>
       <c r="G70" t="n">
-        <v>49.42016666666664</v>
+        <v>49.4533333333333</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2848,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>47.61</v>
+        <v>47.7</v>
       </c>
       <c r="C71" t="n">
         <v>47.61</v>
       </c>
       <c r="D71" t="n">
-        <v>47.61</v>
+        <v>47.7</v>
       </c>
       <c r="E71" t="n">
         <v>47.61</v>
       </c>
       <c r="F71" t="n">
-        <v>5205.531</v>
+        <v>2688.3066</v>
       </c>
       <c r="G71" t="n">
-        <v>49.38716666666664</v>
+        <v>49.42016666666664</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2886,19 +2886,19 @@
         <v>47.61</v>
       </c>
       <c r="C72" t="n">
-        <v>47.5</v>
+        <v>47.61</v>
       </c>
       <c r="D72" t="n">
         <v>47.61</v>
       </c>
       <c r="E72" t="n">
-        <v>47.5</v>
+        <v>47.61</v>
       </c>
       <c r="F72" t="n">
-        <v>42686.7325</v>
+        <v>5205.531</v>
       </c>
       <c r="G72" t="n">
-        <v>49.34866666666664</v>
+        <v>49.38716666666664</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>47.89</v>
+        <v>47.61</v>
       </c>
       <c r="C73" t="n">
-        <v>47.89</v>
+        <v>47.5</v>
       </c>
       <c r="D73" t="n">
-        <v>47.89</v>
+        <v>47.61</v>
       </c>
       <c r="E73" t="n">
-        <v>47.89</v>
+        <v>47.5</v>
       </c>
       <c r="F73" t="n">
-        <v>3050.8146</v>
+        <v>42686.7325</v>
       </c>
       <c r="G73" t="n">
-        <v>49.31216666666663</v>
+        <v>49.34866666666664</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>47.89</v>
       </c>
       <c r="F74" t="n">
-        <v>315</v>
+        <v>3050.8146</v>
       </c>
       <c r="G74" t="n">
-        <v>49.27366666666664</v>
+        <v>49.31216666666663</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>47.89</v>
       </c>
       <c r="E75" t="n">
-        <v>47.7</v>
+        <v>47.89</v>
       </c>
       <c r="F75" t="n">
-        <v>35248.2825</v>
+        <v>315</v>
       </c>
       <c r="G75" t="n">
-        <v>49.23516666666664</v>
+        <v>49.27366666666664</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3023,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>47.8</v>
+        <v>47.89</v>
       </c>
       <c r="C76" t="n">
-        <v>47.7</v>
+        <v>47.89</v>
       </c>
       <c r="D76" t="n">
-        <v>47.8</v>
+        <v>47.89</v>
       </c>
       <c r="E76" t="n">
         <v>47.7</v>
       </c>
       <c r="F76" t="n">
-        <v>6592.6354</v>
+        <v>35248.2825</v>
       </c>
       <c r="G76" t="n">
-        <v>49.19349999999997</v>
+        <v>49.23516666666664</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3058,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
+        <v>47.8</v>
+      </c>
+      <c r="C77" t="n">
         <v>47.7</v>
-      </c>
-      <c r="C77" t="n">
-        <v>47.8</v>
       </c>
       <c r="D77" t="n">
         <v>47.8</v>
       </c>
       <c r="E77" t="n">
-        <v>47.5</v>
+        <v>47.7</v>
       </c>
       <c r="F77" t="n">
-        <v>19317.6077</v>
+        <v>6592.6354</v>
       </c>
       <c r="G77" t="n">
-        <v>49.15349999999998</v>
+        <v>49.19349999999997</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3093,7 +3093,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>47.8</v>
+        <v>47.7</v>
       </c>
       <c r="C78" t="n">
         <v>47.8</v>
@@ -3102,13 +3102,13 @@
         <v>47.8</v>
       </c>
       <c r="E78" t="n">
-        <v>47.8</v>
+        <v>47.5</v>
       </c>
       <c r="F78" t="n">
-        <v>160.4551</v>
+        <v>19317.6077</v>
       </c>
       <c r="G78" t="n">
-        <v>49.11266666666665</v>
+        <v>49.15349999999998</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3128,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>47.6</v>
+        <v>47.8</v>
       </c>
       <c r="C79" t="n">
-        <v>47.88</v>
+        <v>47.8</v>
       </c>
       <c r="D79" t="n">
-        <v>47.88</v>
+        <v>47.8</v>
       </c>
       <c r="E79" t="n">
-        <v>47.6</v>
+        <v>47.8</v>
       </c>
       <c r="F79" t="n">
-        <v>524.43374294</v>
+        <v>160.4551</v>
       </c>
       <c r="G79" t="n">
-        <v>49.07333333333332</v>
+        <v>49.11266666666665</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3163,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>47.8</v>
+        <v>47.6</v>
       </c>
       <c r="C80" t="n">
-        <v>47.8</v>
+        <v>47.88</v>
       </c>
       <c r="D80" t="n">
-        <v>47.8</v>
+        <v>47.88</v>
       </c>
       <c r="E80" t="n">
-        <v>47.8</v>
+        <v>47.6</v>
       </c>
       <c r="F80" t="n">
-        <v>343.5025</v>
+        <v>524.43374294</v>
       </c>
       <c r="G80" t="n">
-        <v>49.03166666666665</v>
+        <v>49.07333333333332</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3201,19 +3201,19 @@
         <v>47.8</v>
       </c>
       <c r="C81" t="n">
-        <v>47.89</v>
+        <v>47.8</v>
       </c>
       <c r="D81" t="n">
-        <v>47.89</v>
+        <v>47.8</v>
       </c>
       <c r="E81" t="n">
         <v>47.8</v>
       </c>
       <c r="F81" t="n">
-        <v>10000</v>
+        <v>343.5025</v>
       </c>
       <c r="G81" t="n">
-        <v>48.99066666666666</v>
+        <v>49.03166666666665</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3233,7 +3233,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>47.61</v>
+        <v>47.8</v>
       </c>
       <c r="C82" t="n">
         <v>47.89</v>
@@ -3242,13 +3242,13 @@
         <v>47.89</v>
       </c>
       <c r="E82" t="n">
-        <v>47.6</v>
+        <v>47.8</v>
       </c>
       <c r="F82" t="n">
-        <v>23653.3979954</v>
+        <v>10000</v>
       </c>
       <c r="G82" t="n">
-        <v>48.95049999999998</v>
+        <v>48.99066666666666</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>47.89</v>
+        <v>47.61</v>
       </c>
       <c r="C83" t="n">
         <v>47.89</v>
@@ -3277,13 +3277,13 @@
         <v>47.89</v>
       </c>
       <c r="E83" t="n">
-        <v>47.89</v>
+        <v>47.6</v>
       </c>
       <c r="F83" t="n">
-        <v>472.2708</v>
+        <v>23653.3979954</v>
       </c>
       <c r="G83" t="n">
-        <v>48.90816666666665</v>
+        <v>48.95049999999998</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3303,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>47.52</v>
+        <v>47.89</v>
       </c>
       <c r="C84" t="n">
-        <v>47.52</v>
+        <v>47.89</v>
       </c>
       <c r="D84" t="n">
-        <v>47.52</v>
+        <v>47.89</v>
       </c>
       <c r="E84" t="n">
-        <v>47.52</v>
+        <v>47.89</v>
       </c>
       <c r="F84" t="n">
-        <v>1367.2891</v>
+        <v>472.2708</v>
       </c>
       <c r="G84" t="n">
-        <v>48.85949999999998</v>
+        <v>48.90816666666665</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3350,10 +3350,10 @@
         <v>47.52</v>
       </c>
       <c r="F85" t="n">
-        <v>134</v>
+        <v>1367.2891</v>
       </c>
       <c r="G85" t="n">
-        <v>48.81083333333331</v>
+        <v>48.85949999999998</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3385,10 +3385,10 @@
         <v>47.52</v>
       </c>
       <c r="F86" t="n">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="G86" t="n">
-        <v>48.76783333333331</v>
+        <v>48.81083333333331</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3408,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>47.89</v>
+        <v>47.52</v>
       </c>
       <c r="C87" t="n">
-        <v>47.85</v>
+        <v>47.52</v>
       </c>
       <c r="D87" t="n">
-        <v>48.36</v>
+        <v>47.52</v>
       </c>
       <c r="E87" t="n">
-        <v>47.63</v>
+        <v>47.52</v>
       </c>
       <c r="F87" t="n">
-        <v>19212.2867</v>
+        <v>109</v>
       </c>
       <c r="G87" t="n">
-        <v>48.72366666666665</v>
+        <v>48.76783333333331</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3443,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>48.27</v>
+        <v>47.89</v>
       </c>
       <c r="C88" t="n">
-        <v>48.21</v>
+        <v>47.85</v>
       </c>
       <c r="D88" t="n">
-        <v>48.27</v>
+        <v>48.36</v>
       </c>
       <c r="E88" t="n">
-        <v>48.21</v>
+        <v>47.63</v>
       </c>
       <c r="F88" t="n">
-        <v>53715.1257</v>
+        <v>19212.2867</v>
       </c>
       <c r="G88" t="n">
-        <v>48.68633333333332</v>
+        <v>48.72366666666665</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3478,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>48.44</v>
+        <v>48.27</v>
       </c>
       <c r="C89" t="n">
-        <v>48.44</v>
+        <v>48.21</v>
       </c>
       <c r="D89" t="n">
-        <v>48.44</v>
+        <v>48.27</v>
       </c>
       <c r="E89" t="n">
-        <v>48.44</v>
+        <v>48.21</v>
       </c>
       <c r="F89" t="n">
-        <v>222</v>
+        <v>53715.1257</v>
       </c>
       <c r="G89" t="n">
-        <v>48.65283333333332</v>
+        <v>48.68633333333332</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3513,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>48.2</v>
+        <v>48.44</v>
       </c>
       <c r="C90" t="n">
-        <v>48.11</v>
+        <v>48.44</v>
       </c>
       <c r="D90" t="n">
-        <v>48.2</v>
+        <v>48.44</v>
       </c>
       <c r="E90" t="n">
-        <v>48.11</v>
+        <v>48.44</v>
       </c>
       <c r="F90" t="n">
-        <v>7573.0315</v>
+        <v>222</v>
       </c>
       <c r="G90" t="n">
-        <v>48.61849999999999</v>
+        <v>48.65283333333332</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3548,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="C91" t="n">
-        <v>48.1</v>
+        <v>48.11</v>
       </c>
       <c r="D91" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="E91" t="n">
-        <v>48.1</v>
+        <v>48.11</v>
       </c>
       <c r="F91" t="n">
-        <v>3333</v>
+        <v>7573.0315</v>
       </c>
       <c r="G91" t="n">
-        <v>48.58349999999999</v>
+        <v>48.61849999999999</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3583,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>47.63</v>
+        <v>48.1</v>
       </c>
       <c r="C92" t="n">
-        <v>47.63</v>
+        <v>48.1</v>
       </c>
       <c r="D92" t="n">
-        <v>47.63</v>
+        <v>48.1</v>
       </c>
       <c r="E92" t="n">
-        <v>47.63</v>
+        <v>48.1</v>
       </c>
       <c r="F92" t="n">
-        <v>15458.3388</v>
+        <v>3333</v>
       </c>
       <c r="G92" t="n">
-        <v>48.54149999999999</v>
+        <v>48.58349999999999</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3618,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>47.7</v>
+        <v>47.63</v>
       </c>
       <c r="C93" t="n">
-        <v>47.7</v>
+        <v>47.63</v>
       </c>
       <c r="D93" t="n">
-        <v>47.7</v>
+        <v>47.63</v>
       </c>
       <c r="E93" t="n">
-        <v>47.7</v>
+        <v>47.63</v>
       </c>
       <c r="F93" t="n">
-        <v>101.6211</v>
+        <v>15458.3388</v>
       </c>
       <c r="G93" t="n">
-        <v>48.50383333333332</v>
+        <v>48.54149999999999</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3656,19 +3656,19 @@
         <v>47.7</v>
       </c>
       <c r="C94" t="n">
-        <v>47.63</v>
+        <v>47.7</v>
       </c>
       <c r="D94" t="n">
         <v>47.7</v>
       </c>
       <c r="E94" t="n">
-        <v>47.63</v>
+        <v>47.7</v>
       </c>
       <c r="F94" t="n">
-        <v>11202.2821</v>
+        <v>101.6211</v>
       </c>
       <c r="G94" t="n">
-        <v>48.46583333333332</v>
+        <v>48.50383333333332</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3688,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="C95" t="n">
         <v>47.63</v>
       </c>
-      <c r="C95" t="n">
-        <v>47.5</v>
-      </c>
       <c r="D95" t="n">
+        <v>47.7</v>
+      </c>
+      <c r="E95" t="n">
         <v>47.63</v>
       </c>
-      <c r="E95" t="n">
-        <v>47.5</v>
-      </c>
       <c r="F95" t="n">
-        <v>3455.7916</v>
+        <v>11202.2821</v>
       </c>
       <c r="G95" t="n">
-        <v>48.42716666666665</v>
+        <v>48.46583333333332</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3723,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>47.7</v>
+        <v>47.63</v>
       </c>
       <c r="C96" t="n">
-        <v>47.7</v>
+        <v>47.5</v>
       </c>
       <c r="D96" t="n">
-        <v>47.7</v>
+        <v>47.63</v>
       </c>
       <c r="E96" t="n">
-        <v>47.7</v>
+        <v>47.5</v>
       </c>
       <c r="F96" t="n">
-        <v>10054.8122</v>
+        <v>3455.7916</v>
       </c>
       <c r="G96" t="n">
-        <v>48.39366666666665</v>
+        <v>48.42716666666665</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3761,19 +3761,19 @@
         <v>47.7</v>
       </c>
       <c r="C97" t="n">
-        <v>47.57</v>
+        <v>47.7</v>
       </c>
       <c r="D97" t="n">
         <v>47.7</v>
       </c>
       <c r="E97" t="n">
-        <v>47.57</v>
+        <v>47.7</v>
       </c>
       <c r="F97" t="n">
-        <v>85308.1648</v>
+        <v>10054.8122</v>
       </c>
       <c r="G97" t="n">
-        <v>48.35816666666665</v>
+        <v>48.39366666666665</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>47.57</v>
       </c>
       <c r="F98" t="n">
-        <v>9205.933999999999</v>
+        <v>85308.1648</v>
       </c>
       <c r="G98" t="n">
-        <v>48.32266666666666</v>
+        <v>48.35816666666665</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3828,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>48.35</v>
+        <v>47.7</v>
       </c>
       <c r="C99" t="n">
-        <v>48.03</v>
+        <v>47.57</v>
       </c>
       <c r="D99" t="n">
-        <v>48.35</v>
+        <v>47.7</v>
       </c>
       <c r="E99" t="n">
-        <v>48.01</v>
+        <v>47.57</v>
       </c>
       <c r="F99" t="n">
-        <v>59367.8691</v>
+        <v>9205.933999999999</v>
       </c>
       <c r="G99" t="n">
-        <v>48.29483333333334</v>
+        <v>48.32266666666666</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3863,22 +3863,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>48.4</v>
+        <v>48.35</v>
       </c>
       <c r="C100" t="n">
-        <v>48.45</v>
+        <v>48.03</v>
       </c>
       <c r="D100" t="n">
-        <v>48.45</v>
+        <v>48.35</v>
       </c>
       <c r="E100" t="n">
-        <v>48.4</v>
+        <v>48.01</v>
       </c>
       <c r="F100" t="n">
-        <v>2149.203</v>
+        <v>59367.8691</v>
       </c>
       <c r="G100" t="n">
-        <v>48.27566666666667</v>
+        <v>48.29483333333334</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>48.38</v>
+        <v>48.4</v>
       </c>
       <c r="C101" t="n">
-        <v>48.38</v>
+        <v>48.45</v>
       </c>
       <c r="D101" t="n">
-        <v>48.38</v>
+        <v>48.45</v>
       </c>
       <c r="E101" t="n">
-        <v>48.38</v>
+        <v>48.4</v>
       </c>
       <c r="F101" t="n">
-        <v>158.3706</v>
+        <v>2149.203</v>
       </c>
       <c r="G101" t="n">
-        <v>48.25383333333333</v>
+        <v>48.27566666666667</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3933,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>48.45</v>
+        <v>48.38</v>
       </c>
       <c r="C102" t="n">
-        <v>48.55</v>
+        <v>48.38</v>
       </c>
       <c r="D102" t="n">
-        <v>48.55</v>
+        <v>48.38</v>
       </c>
       <c r="E102" t="n">
-        <v>48.45</v>
+        <v>48.38</v>
       </c>
       <c r="F102" t="n">
-        <v>5524.6573</v>
+        <v>158.3706</v>
       </c>
       <c r="G102" t="n">
-        <v>48.23666666666667</v>
+        <v>48.25383333333333</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3968,22 +3968,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>48.39</v>
+        <v>48.45</v>
       </c>
       <c r="C103" t="n">
-        <v>48.5</v>
+        <v>48.55</v>
       </c>
       <c r="D103" t="n">
-        <v>48.51</v>
+        <v>48.55</v>
       </c>
       <c r="E103" t="n">
-        <v>48.39</v>
+        <v>48.45</v>
       </c>
       <c r="F103" t="n">
-        <v>4468.8102</v>
+        <v>5524.6573</v>
       </c>
       <c r="G103" t="n">
-        <v>48.2185</v>
+        <v>48.23666666666667</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4003,22 +4003,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>48.5</v>
+        <v>48.39</v>
       </c>
       <c r="C104" t="n">
         <v>48.5</v>
       </c>
       <c r="D104" t="n">
-        <v>48.7</v>
+        <v>48.51</v>
       </c>
       <c r="E104" t="n">
         <v>48.39</v>
       </c>
       <c r="F104" t="n">
-        <v>10103.7829</v>
+        <v>4468.8102</v>
       </c>
       <c r="G104" t="n">
-        <v>48.20183333333333</v>
+        <v>48.2185</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4038,22 +4038,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>48.39</v>
+        <v>48.5</v>
       </c>
       <c r="C105" t="n">
-        <v>48.73</v>
+        <v>48.5</v>
       </c>
       <c r="D105" t="n">
-        <v>48.73</v>
+        <v>48.7</v>
       </c>
       <c r="E105" t="n">
         <v>48.39</v>
       </c>
       <c r="F105" t="n">
-        <v>20601.02905797</v>
+        <v>10103.7829</v>
       </c>
       <c r="G105" t="n">
-        <v>48.18566666666667</v>
+        <v>48.20183333333333</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4073,22 +4073,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>48.5</v>
+        <v>48.39</v>
       </c>
       <c r="C106" t="n">
-        <v>48.31</v>
+        <v>48.73</v>
       </c>
       <c r="D106" t="n">
-        <v>48.5</v>
+        <v>48.73</v>
       </c>
       <c r="E106" t="n">
-        <v>48.31</v>
+        <v>48.39</v>
       </c>
       <c r="F106" t="n">
-        <v>17874.9317</v>
+        <v>20601.02905797</v>
       </c>
       <c r="G106" t="n">
-        <v>48.16733333333334</v>
+        <v>48.18566666666667</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4111,19 +4111,19 @@
         <v>48.5</v>
       </c>
       <c r="C107" t="n">
-        <v>48.59</v>
+        <v>48.31</v>
       </c>
       <c r="D107" t="n">
-        <v>48.59</v>
+        <v>48.5</v>
       </c>
       <c r="E107" t="n">
-        <v>48.5</v>
+        <v>48.31</v>
       </c>
       <c r="F107" t="n">
-        <v>1853.27788604</v>
+        <v>17874.9317</v>
       </c>
       <c r="G107" t="n">
-        <v>48.15850000000001</v>
+        <v>48.16733333333334</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4143,7 +4143,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>48.59</v>
+        <v>48.5</v>
       </c>
       <c r="C108" t="n">
         <v>48.59</v>
@@ -4152,13 +4152,13 @@
         <v>48.59</v>
       </c>
       <c r="E108" t="n">
-        <v>48.59</v>
+        <v>48.5</v>
       </c>
       <c r="F108" t="n">
-        <v>4498.5065</v>
+        <v>1853.27788604</v>
       </c>
       <c r="G108" t="n">
-        <v>48.14966666666668</v>
+        <v>48.15850000000001</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4190,10 +4190,10 @@
         <v>48.59</v>
       </c>
       <c r="F109" t="n">
-        <v>6735.7781</v>
+        <v>4498.5065</v>
       </c>
       <c r="G109" t="n">
-        <v>48.13783333333335</v>
+        <v>48.14966666666668</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4213,22 +4213,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>48.24</v>
+        <v>48.59</v>
       </c>
       <c r="C110" t="n">
-        <v>48.24</v>
+        <v>48.59</v>
       </c>
       <c r="D110" t="n">
-        <v>48.24</v>
+        <v>48.59</v>
       </c>
       <c r="E110" t="n">
-        <v>48.24</v>
+        <v>48.59</v>
       </c>
       <c r="F110" t="n">
-        <v>5772.2051</v>
+        <v>6735.7781</v>
       </c>
       <c r="G110" t="n">
-        <v>48.12350000000001</v>
+        <v>48.13783333333335</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4248,22 +4248,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>48.59</v>
+        <v>48.24</v>
       </c>
       <c r="C111" t="n">
-        <v>48.6</v>
+        <v>48.24</v>
       </c>
       <c r="D111" t="n">
-        <v>48.6</v>
+        <v>48.24</v>
       </c>
       <c r="E111" t="n">
-        <v>48.59</v>
+        <v>48.24</v>
       </c>
       <c r="F111" t="n">
-        <v>19912.9184</v>
+        <v>5772.2051</v>
       </c>
       <c r="G111" t="n">
-        <v>48.11750000000001</v>
+        <v>48.12350000000001</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4283,22 +4283,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>48.7</v>
+        <v>48.59</v>
       </c>
       <c r="C112" t="n">
-        <v>48.73</v>
+        <v>48.6</v>
       </c>
       <c r="D112" t="n">
-        <v>48.73</v>
+        <v>48.6</v>
       </c>
       <c r="E112" t="n">
-        <v>48.7</v>
+        <v>48.59</v>
       </c>
       <c r="F112" t="n">
-        <v>55018.72504203</v>
+        <v>19912.9184</v>
       </c>
       <c r="G112" t="n">
-        <v>48.11333333333334</v>
+        <v>48.11750000000001</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4321,19 +4321,19 @@
         <v>48.7</v>
       </c>
       <c r="C113" t="n">
-        <v>48.7</v>
+        <v>48.73</v>
       </c>
       <c r="D113" t="n">
-        <v>48.7</v>
+        <v>48.73</v>
       </c>
       <c r="E113" t="n">
         <v>48.7</v>
       </c>
       <c r="F113" t="n">
-        <v>732.9675</v>
+        <v>55018.72504203</v>
       </c>
       <c r="G113" t="n">
-        <v>48.10150000000001</v>
+        <v>48.11333333333334</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4353,22 +4353,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>48.65</v>
+        <v>48.7</v>
       </c>
       <c r="C114" t="n">
-        <v>48.65</v>
+        <v>48.7</v>
       </c>
       <c r="D114" t="n">
-        <v>48.65</v>
+        <v>48.7</v>
       </c>
       <c r="E114" t="n">
-        <v>48.65</v>
+        <v>48.7</v>
       </c>
       <c r="F114" t="n">
-        <v>11</v>
+        <v>732.9675</v>
       </c>
       <c r="G114" t="n">
-        <v>48.09650000000001</v>
+        <v>48.10150000000001</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4388,22 +4388,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>48.6</v>
+        <v>48.65</v>
       </c>
       <c r="C115" t="n">
-        <v>48.4</v>
+        <v>48.65</v>
       </c>
       <c r="D115" t="n">
-        <v>48.6</v>
+        <v>48.65</v>
       </c>
       <c r="E115" t="n">
-        <v>48.4</v>
+        <v>48.65</v>
       </c>
       <c r="F115" t="n">
-        <v>1842.2778</v>
+        <v>11</v>
       </c>
       <c r="G115" t="n">
-        <v>48.08816666666668</v>
+        <v>48.09650000000001</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4423,22 +4423,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>48.8</v>
+        <v>48.6</v>
       </c>
       <c r="C116" t="n">
-        <v>48.8</v>
+        <v>48.4</v>
       </c>
       <c r="D116" t="n">
-        <v>48.8</v>
+        <v>48.6</v>
       </c>
       <c r="E116" t="n">
-        <v>48.8</v>
+        <v>48.4</v>
       </c>
       <c r="F116" t="n">
-        <v>972.9675</v>
+        <v>1842.2778</v>
       </c>
       <c r="G116" t="n">
-        <v>48.08800000000002</v>
+        <v>48.08816666666668</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4461,19 +4461,19 @@
         <v>48.8</v>
       </c>
       <c r="C117" t="n">
-        <v>48.5</v>
+        <v>48.8</v>
       </c>
       <c r="D117" t="n">
         <v>48.8</v>
       </c>
       <c r="E117" t="n">
-        <v>48.5</v>
+        <v>48.8</v>
       </c>
       <c r="F117" t="n">
-        <v>748.7671</v>
+        <v>972.9675</v>
       </c>
       <c r="G117" t="n">
-        <v>48.08016666666669</v>
+        <v>48.08800000000002</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4493,22 +4493,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>48.5</v>
+        <v>48.8</v>
       </c>
       <c r="C118" t="n">
         <v>48.5</v>
       </c>
       <c r="D118" t="n">
-        <v>48.5</v>
+        <v>48.8</v>
       </c>
       <c r="E118" t="n">
         <v>48.5</v>
       </c>
       <c r="F118" t="n">
-        <v>748.1219</v>
+        <v>748.7671</v>
       </c>
       <c r="G118" t="n">
-        <v>48.07850000000003</v>
+        <v>48.08016666666669</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4528,22 +4528,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>48.43</v>
+        <v>48.5</v>
       </c>
       <c r="C119" t="n">
-        <v>48.43</v>
+        <v>48.5</v>
       </c>
       <c r="D119" t="n">
-        <v>48.43</v>
+        <v>48.5</v>
       </c>
       <c r="E119" t="n">
-        <v>48.43</v>
+        <v>48.5</v>
       </c>
       <c r="F119" t="n">
-        <v>1231.5456</v>
+        <v>748.1219</v>
       </c>
       <c r="G119" t="n">
-        <v>48.07883333333336</v>
+        <v>48.07850000000003</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4563,22 +4563,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>48.5</v>
+        <v>48.43</v>
       </c>
       <c r="C120" t="n">
-        <v>48.39</v>
+        <v>48.43</v>
       </c>
       <c r="D120" t="n">
-        <v>48.5</v>
+        <v>48.43</v>
       </c>
       <c r="E120" t="n">
-        <v>48.39</v>
+        <v>48.43</v>
       </c>
       <c r="F120" t="n">
-        <v>2204.8301</v>
+        <v>1231.5456</v>
       </c>
       <c r="G120" t="n">
-        <v>48.07866666666668</v>
+        <v>48.07883333333336</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4598,22 +4598,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>48.39</v>
+        <v>48.5</v>
       </c>
       <c r="C121" t="n">
         <v>48.39</v>
       </c>
       <c r="D121" t="n">
-        <v>48.39</v>
+        <v>48.5</v>
       </c>
       <c r="E121" t="n">
         <v>48.39</v>
       </c>
       <c r="F121" t="n">
-        <v>3100.1733</v>
+        <v>2204.8301</v>
       </c>
       <c r="G121" t="n">
-        <v>48.08000000000002</v>
+        <v>48.07866666666668</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4633,22 +4633,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>48.38</v>
+        <v>48.39</v>
       </c>
       <c r="C122" t="n">
-        <v>48.24</v>
+        <v>48.39</v>
       </c>
       <c r="D122" t="n">
-        <v>48.38</v>
+        <v>48.39</v>
       </c>
       <c r="E122" t="n">
-        <v>48.24</v>
+        <v>48.39</v>
       </c>
       <c r="F122" t="n">
-        <v>659.5367</v>
+        <v>3100.1733</v>
       </c>
       <c r="G122" t="n">
-        <v>48.07766666666668</v>
+        <v>48.08000000000002</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4668,22 +4668,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
+        <v>48.38</v>
+      </c>
+      <c r="C123" t="n">
         <v>48.24</v>
       </c>
-      <c r="C123" t="n">
-        <v>48.2</v>
-      </c>
       <c r="D123" t="n">
+        <v>48.38</v>
+      </c>
+      <c r="E123" t="n">
         <v>48.24</v>
       </c>
-      <c r="E123" t="n">
-        <v>48.2</v>
-      </c>
       <c r="F123" t="n">
-        <v>964.6585</v>
+        <v>659.5367</v>
       </c>
       <c r="G123" t="n">
-        <v>48.08083333333334</v>
+        <v>48.07766666666668</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4703,22 +4703,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>48.19</v>
+        <v>48.24</v>
       </c>
       <c r="C124" t="n">
-        <v>47.67</v>
+        <v>48.2</v>
       </c>
       <c r="D124" t="n">
-        <v>48.19</v>
+        <v>48.24</v>
       </c>
       <c r="E124" t="n">
-        <v>47.67</v>
+        <v>48.2</v>
       </c>
       <c r="F124" t="n">
-        <v>14864.3499</v>
+        <v>964.6585</v>
       </c>
       <c r="G124" t="n">
-        <v>48.07516666666667</v>
+        <v>48.08083333333334</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4738,22 +4738,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>47.68</v>
+        <v>48.19</v>
       </c>
       <c r="C125" t="n">
-        <v>47.68</v>
+        <v>47.67</v>
       </c>
       <c r="D125" t="n">
-        <v>47.68</v>
+        <v>48.19</v>
       </c>
       <c r="E125" t="n">
-        <v>47.68</v>
+        <v>47.67</v>
       </c>
       <c r="F125" t="n">
-        <v>154.8553</v>
+        <v>14864.3499</v>
       </c>
       <c r="G125" t="n">
-        <v>48.06966666666666</v>
+        <v>48.07516666666667</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4773,22 +4773,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>47.67</v>
+        <v>47.68</v>
       </c>
       <c r="C126" t="n">
-        <v>47.5</v>
+        <v>47.68</v>
       </c>
       <c r="D126" t="n">
-        <v>47.67</v>
+        <v>47.68</v>
       </c>
       <c r="E126" t="n">
-        <v>47.5</v>
+        <v>47.68</v>
       </c>
       <c r="F126" t="n">
-        <v>3603.1236</v>
+        <v>154.8553</v>
       </c>
       <c r="G126" t="n">
-        <v>48.06133333333333</v>
+        <v>48.06966666666666</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4808,22 +4808,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
+        <v>47.67</v>
+      </c>
+      <c r="C127" t="n">
         <v>47.5</v>
       </c>
-      <c r="C127" t="n">
-        <v>47.44</v>
-      </c>
       <c r="D127" t="n">
+        <v>47.67</v>
+      </c>
+      <c r="E127" t="n">
         <v>47.5</v>
       </c>
-      <c r="E127" t="n">
-        <v>47.44</v>
-      </c>
       <c r="F127" t="n">
-        <v>8173.778</v>
+        <v>3603.1236</v>
       </c>
       <c r="G127" t="n">
-        <v>48.05166666666666</v>
+        <v>48.06133333333333</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4843,22 +4843,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="C128" t="n">
         <v>47.44</v>
       </c>
-      <c r="C128" t="n">
-        <v>47.3</v>
-      </c>
       <c r="D128" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="E128" t="n">
         <v>47.44</v>
       </c>
-      <c r="E128" t="n">
-        <v>47.3</v>
-      </c>
       <c r="F128" t="n">
-        <v>22327.8385</v>
+        <v>8173.778</v>
       </c>
       <c r="G128" t="n">
-        <v>48.04666666666667</v>
+        <v>48.05166666666666</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4878,22 +4878,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>47.25</v>
+        <v>47.44</v>
       </c>
       <c r="C129" t="n">
-        <v>47</v>
+        <v>47.3</v>
       </c>
       <c r="D129" t="n">
-        <v>47.25</v>
+        <v>47.44</v>
       </c>
       <c r="E129" t="n">
-        <v>47</v>
+        <v>47.3</v>
       </c>
       <c r="F129" t="n">
-        <v>3245.4788</v>
+        <v>22327.8385</v>
       </c>
       <c r="G129" t="n">
-        <v>48.0365</v>
+        <v>48.04666666666667</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4913,22 +4913,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>46.95</v>
+        <v>47.25</v>
       </c>
       <c r="C130" t="n">
-        <v>46.85</v>
+        <v>47</v>
       </c>
       <c r="D130" t="n">
-        <v>46.95</v>
+        <v>47.25</v>
       </c>
       <c r="E130" t="n">
-        <v>46.85</v>
+        <v>47</v>
       </c>
       <c r="F130" t="n">
-        <v>28237.2026</v>
+        <v>3245.4788</v>
       </c>
       <c r="G130" t="n">
-        <v>48.02383333333333</v>
+        <v>48.0365</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4948,22 +4948,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>46.9</v>
+        <v>46.95</v>
       </c>
       <c r="C131" t="n">
-        <v>46.77</v>
+        <v>46.85</v>
       </c>
       <c r="D131" t="n">
-        <v>46.9</v>
+        <v>46.95</v>
       </c>
       <c r="E131" t="n">
-        <v>46.77</v>
+        <v>46.85</v>
       </c>
       <c r="F131" t="n">
-        <v>27082.729</v>
+        <v>28237.2026</v>
       </c>
       <c r="G131" t="n">
-        <v>48.00983333333333</v>
+        <v>48.02383333333333</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4986,19 +4986,19 @@
         <v>46.9</v>
       </c>
       <c r="C132" t="n">
-        <v>46.47</v>
+        <v>46.77</v>
       </c>
       <c r="D132" t="n">
         <v>46.9</v>
       </c>
       <c r="E132" t="n">
-        <v>46.47</v>
+        <v>46.77</v>
       </c>
       <c r="F132" t="n">
-        <v>21800</v>
+        <v>27082.729</v>
       </c>
       <c r="G132" t="n">
-        <v>47.99266666666666</v>
+        <v>48.00983333333333</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5018,22 +5018,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>46.8</v>
+        <v>46.9</v>
       </c>
       <c r="C133" t="n">
-        <v>46.8</v>
+        <v>46.47</v>
       </c>
       <c r="D133" t="n">
-        <v>46.8</v>
+        <v>46.9</v>
       </c>
       <c r="E133" t="n">
-        <v>46.8</v>
+        <v>46.47</v>
       </c>
       <c r="F133" t="n">
-        <v>600.6704</v>
+        <v>21800</v>
       </c>
       <c r="G133" t="n">
-        <v>47.9745</v>
+        <v>47.99266666666666</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5053,22 +5053,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>46.61</v>
+        <v>46.8</v>
       </c>
       <c r="C134" t="n">
-        <v>46.9</v>
+        <v>46.8</v>
       </c>
       <c r="D134" t="n">
-        <v>46.9</v>
+        <v>46.8</v>
       </c>
       <c r="E134" t="n">
-        <v>46.48</v>
+        <v>46.8</v>
       </c>
       <c r="F134" t="n">
-        <v>51588.8034</v>
+        <v>600.6704</v>
       </c>
       <c r="G134" t="n">
-        <v>47.958</v>
+        <v>47.9745</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5088,22 +5088,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>47</v>
+        <v>46.61</v>
       </c>
       <c r="C135" t="n">
-        <v>47.02</v>
+        <v>46.9</v>
       </c>
       <c r="D135" t="n">
-        <v>47.02</v>
+        <v>46.9</v>
       </c>
       <c r="E135" t="n">
-        <v>47</v>
+        <v>46.48</v>
       </c>
       <c r="F135" t="n">
-        <v>9196.2107</v>
+        <v>51588.8034</v>
       </c>
       <c r="G135" t="n">
-        <v>47.9435</v>
+        <v>47.958</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5123,22 +5123,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
+        <v>47</v>
+      </c>
+      <c r="C136" t="n">
         <v>47.02</v>
-      </c>
-      <c r="C136" t="n">
-        <v>47.01</v>
       </c>
       <c r="D136" t="n">
         <v>47.02</v>
       </c>
       <c r="E136" t="n">
-        <v>47.01</v>
+        <v>47</v>
       </c>
       <c r="F136" t="n">
-        <v>8908.611000000001</v>
+        <v>9196.2107</v>
       </c>
       <c r="G136" t="n">
-        <v>47.93200000000001</v>
+        <v>47.9435</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5158,22 +5158,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>47.4</v>
+        <v>47.02</v>
       </c>
       <c r="C137" t="n">
-        <v>47.4</v>
+        <v>47.01</v>
       </c>
       <c r="D137" t="n">
-        <v>47.4</v>
+        <v>47.02</v>
       </c>
       <c r="E137" t="n">
-        <v>47.4</v>
+        <v>47.01</v>
       </c>
       <c r="F137" t="n">
-        <v>753.091</v>
+        <v>8908.611000000001</v>
       </c>
       <c r="G137" t="n">
-        <v>47.92533333333334</v>
+        <v>47.93200000000001</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5193,35 +5193,31 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>47.46</v>
+        <v>47.4</v>
       </c>
       <c r="C138" t="n">
-        <v>47.46</v>
+        <v>47.4</v>
       </c>
       <c r="D138" t="n">
-        <v>47.46</v>
+        <v>47.4</v>
       </c>
       <c r="E138" t="n">
-        <v>47.46</v>
+        <v>47.4</v>
       </c>
       <c r="F138" t="n">
-        <v>9846.3259</v>
+        <v>753.091</v>
       </c>
       <c r="G138" t="n">
-        <v>47.91966666666667</v>
+        <v>47.92533333333334</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="K138" t="n">
-        <v>47.4</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
@@ -5235,37 +5231,29 @@
         <v>47.46</v>
       </c>
       <c r="C139" t="n">
-        <v>47.99</v>
+        <v>47.46</v>
       </c>
       <c r="D139" t="n">
-        <v>47.99</v>
+        <v>47.46</v>
       </c>
       <c r="E139" t="n">
         <v>47.46</v>
       </c>
       <c r="F139" t="n">
-        <v>197931.4205</v>
+        <v>9846.3259</v>
       </c>
       <c r="G139" t="n">
-        <v>47.9215</v>
+        <v>47.91966666666667</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>47.46</v>
-      </c>
-      <c r="K139" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5275,19 +5263,19 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>47.8</v>
+        <v>47.46</v>
       </c>
       <c r="C140" t="n">
-        <v>47.8</v>
+        <v>47.99</v>
       </c>
       <c r="D140" t="n">
-        <v>47.8</v>
+        <v>47.99</v>
       </c>
       <c r="E140" t="n">
-        <v>47.8</v>
+        <v>47.46</v>
       </c>
       <c r="F140" t="n">
-        <v>101.6211</v>
+        <v>197931.4205</v>
       </c>
       <c r="G140" t="n">
         <v>47.9215</v>
@@ -5299,14 +5287,8 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>47.4</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5316,22 +5298,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>47.61</v>
+        <v>47.8</v>
       </c>
       <c r="C141" t="n">
-        <v>47.61</v>
+        <v>47.8</v>
       </c>
       <c r="D141" t="n">
-        <v>47.61</v>
+        <v>47.8</v>
       </c>
       <c r="E141" t="n">
-        <v>47.61</v>
+        <v>47.8</v>
       </c>
       <c r="F141" t="n">
-        <v>5004</v>
+        <v>101.6211</v>
       </c>
       <c r="G141" t="n">
-        <v>47.91683333333334</v>
+        <v>47.9215</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5351,22 +5333,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>47.75</v>
+        <v>47.61</v>
       </c>
       <c r="C142" t="n">
-        <v>47.75</v>
+        <v>47.61</v>
       </c>
       <c r="D142" t="n">
-        <v>47.75</v>
+        <v>47.61</v>
       </c>
       <c r="E142" t="n">
-        <v>47.75</v>
+        <v>47.61</v>
       </c>
       <c r="F142" t="n">
-        <v>11</v>
+        <v>5004</v>
       </c>
       <c r="G142" t="n">
-        <v>47.9145</v>
+        <v>47.91683333333334</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5386,22 +5368,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>47.78</v>
+        <v>47.75</v>
       </c>
       <c r="C143" t="n">
-        <v>47.87</v>
+        <v>47.75</v>
       </c>
       <c r="D143" t="n">
-        <v>47.89</v>
+        <v>47.75</v>
       </c>
       <c r="E143" t="n">
-        <v>47.78</v>
+        <v>47.75</v>
       </c>
       <c r="F143" t="n">
-        <v>929.621</v>
+        <v>11</v>
       </c>
       <c r="G143" t="n">
-        <v>47.91416666666667</v>
+        <v>47.9145</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5421,22 +5403,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>47.87</v>
+        <v>47.78</v>
       </c>
       <c r="C144" t="n">
         <v>47.87</v>
       </c>
       <c r="D144" t="n">
-        <v>47.87</v>
+        <v>47.89</v>
       </c>
       <c r="E144" t="n">
-        <v>47.87</v>
+        <v>47.78</v>
       </c>
       <c r="F144" t="n">
-        <v>783.9999</v>
+        <v>929.621</v>
       </c>
       <c r="G144" t="n">
-        <v>47.92</v>
+        <v>47.91416666666667</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5456,22 +5438,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>47.88</v>
+        <v>47.87</v>
       </c>
       <c r="C145" t="n">
-        <v>47.89</v>
+        <v>47.87</v>
       </c>
       <c r="D145" t="n">
-        <v>47.89</v>
+        <v>47.87</v>
       </c>
       <c r="E145" t="n">
-        <v>47.88</v>
+        <v>47.87</v>
       </c>
       <c r="F145" t="n">
-        <v>880.4998000000001</v>
+        <v>783.9999</v>
       </c>
       <c r="G145" t="n">
-        <v>47.92616666666667</v>
+        <v>47.92</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5491,7 +5473,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>47.89</v>
+        <v>47.88</v>
       </c>
       <c r="C146" t="n">
         <v>47.89</v>
@@ -5500,13 +5482,13 @@
         <v>47.89</v>
       </c>
       <c r="E146" t="n">
-        <v>47.89</v>
+        <v>47.88</v>
       </c>
       <c r="F146" t="n">
-        <v>1696.5089</v>
+        <v>880.4998000000001</v>
       </c>
       <c r="G146" t="n">
-        <v>47.93233333333333</v>
+        <v>47.92616666666667</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5538,10 +5520,10 @@
         <v>47.89</v>
       </c>
       <c r="F147" t="n">
-        <v>11989.7539</v>
+        <v>1696.5089</v>
       </c>
       <c r="G147" t="n">
-        <v>47.933</v>
+        <v>47.93233333333333</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5564,19 +5546,19 @@
         <v>47.89</v>
       </c>
       <c r="C148" t="n">
-        <v>48.09</v>
+        <v>47.89</v>
       </c>
       <c r="D148" t="n">
-        <v>48.09</v>
+        <v>47.89</v>
       </c>
       <c r="E148" t="n">
         <v>47.89</v>
       </c>
       <c r="F148" t="n">
-        <v>5532.2374</v>
+        <v>11989.7539</v>
       </c>
       <c r="G148" t="n">
-        <v>47.931</v>
+        <v>47.933</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5596,22 +5578,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>48.1</v>
+        <v>47.89</v>
       </c>
       <c r="C149" t="n">
-        <v>48.1</v>
+        <v>48.09</v>
       </c>
       <c r="D149" t="n">
-        <v>48.1</v>
+        <v>48.09</v>
       </c>
       <c r="E149" t="n">
-        <v>48.1</v>
+        <v>47.89</v>
       </c>
       <c r="F149" t="n">
-        <v>3568.3091</v>
+        <v>5532.2374</v>
       </c>
       <c r="G149" t="n">
-        <v>47.92533333333333</v>
+        <v>47.931</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5631,22 +5613,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>48.05</v>
+        <v>48.1</v>
       </c>
       <c r="C150" t="n">
-        <v>47.9</v>
+        <v>48.1</v>
       </c>
       <c r="D150" t="n">
-        <v>48.05</v>
+        <v>48.1</v>
       </c>
       <c r="E150" t="n">
-        <v>47.9</v>
+        <v>48.1</v>
       </c>
       <c r="F150" t="n">
-        <v>2504.447</v>
+        <v>3568.3091</v>
       </c>
       <c r="G150" t="n">
-        <v>47.92183333333333</v>
+        <v>47.92533333333333</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5666,22 +5648,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>47.99</v>
+        <v>48.05</v>
       </c>
       <c r="C151" t="n">
-        <v>47.99</v>
+        <v>47.9</v>
       </c>
       <c r="D151" t="n">
-        <v>48.12</v>
+        <v>48.05</v>
       </c>
       <c r="E151" t="n">
-        <v>47.99</v>
+        <v>47.9</v>
       </c>
       <c r="F151" t="n">
-        <v>102504.447</v>
+        <v>2504.447</v>
       </c>
       <c r="G151" t="n">
-        <v>47.91999999999999</v>
+        <v>47.92183333333333</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5701,22 +5683,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>48.1</v>
+        <v>47.99</v>
       </c>
       <c r="C152" t="n">
-        <v>48.13</v>
+        <v>47.99</v>
       </c>
       <c r="D152" t="n">
-        <v>48.13</v>
+        <v>48.12</v>
       </c>
       <c r="E152" t="n">
-        <v>48.1</v>
+        <v>47.99</v>
       </c>
       <c r="F152" t="n">
-        <v>12002.11655931</v>
+        <v>102504.447</v>
       </c>
       <c r="G152" t="n">
-        <v>47.92833333333333</v>
+        <v>47.91999999999999</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5739,19 +5721,19 @@
         <v>48.1</v>
       </c>
       <c r="C153" t="n">
-        <v>48</v>
+        <v>48.13</v>
       </c>
       <c r="D153" t="n">
+        <v>48.13</v>
+      </c>
+      <c r="E153" t="n">
         <v>48.1</v>
       </c>
-      <c r="E153" t="n">
-        <v>48</v>
-      </c>
       <c r="F153" t="n">
-        <v>888</v>
+        <v>12002.11655931</v>
       </c>
       <c r="G153" t="n">
-        <v>47.93333333333333</v>
+        <v>47.92833333333333</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5771,22 +5753,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>48</v>
+        <v>48.1</v>
       </c>
       <c r="C154" t="n">
         <v>48</v>
       </c>
       <c r="D154" t="n">
-        <v>48</v>
+        <v>48.1</v>
       </c>
       <c r="E154" t="n">
         <v>48</v>
       </c>
       <c r="F154" t="n">
-        <v>45</v>
+        <v>888</v>
       </c>
       <c r="G154" t="n">
-        <v>47.9395</v>
+        <v>47.93333333333333</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5806,22 +5788,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>47.99</v>
+        <v>48</v>
       </c>
       <c r="C155" t="n">
-        <v>47.9</v>
+        <v>48</v>
       </c>
       <c r="D155" t="n">
-        <v>47.99</v>
+        <v>48</v>
       </c>
       <c r="E155" t="n">
-        <v>47.9</v>
+        <v>48</v>
       </c>
       <c r="F155" t="n">
-        <v>2050.425</v>
+        <v>45</v>
       </c>
       <c r="G155" t="n">
-        <v>47.94616666666666</v>
+        <v>47.9395</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5841,22 +5823,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>47.9</v>
+        <v>47.99</v>
       </c>
       <c r="C156" t="n">
         <v>47.9</v>
       </c>
       <c r="D156" t="n">
-        <v>47.9</v>
+        <v>47.99</v>
       </c>
       <c r="E156" t="n">
         <v>47.9</v>
       </c>
       <c r="F156" t="n">
-        <v>100</v>
+        <v>2050.425</v>
       </c>
       <c r="G156" t="n">
-        <v>47.94950000000001</v>
+        <v>47.94616666666666</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5876,22 +5858,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>47.85</v>
+        <v>47.9</v>
       </c>
       <c r="C157" t="n">
-        <v>47.85</v>
+        <v>47.9</v>
       </c>
       <c r="D157" t="n">
-        <v>47.85</v>
+        <v>47.9</v>
       </c>
       <c r="E157" t="n">
-        <v>47.85</v>
+        <v>47.9</v>
       </c>
       <c r="F157" t="n">
         <v>100</v>
       </c>
       <c r="G157" t="n">
-        <v>47.95416666666667</v>
+        <v>47.94950000000001</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5914,19 +5896,19 @@
         <v>47.85</v>
       </c>
       <c r="C158" t="n">
-        <v>47.8</v>
+        <v>47.85</v>
       </c>
       <c r="D158" t="n">
         <v>47.85</v>
       </c>
       <c r="E158" t="n">
-        <v>47.8</v>
+        <v>47.85</v>
       </c>
       <c r="F158" t="n">
-        <v>501.3294</v>
+        <v>100</v>
       </c>
       <c r="G158" t="n">
-        <v>47.958</v>
+        <v>47.95416666666667</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5946,22 +5928,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="C159" t="n">
         <v>47.8</v>
       </c>
-      <c r="C159" t="n">
-        <v>47.7</v>
-      </c>
       <c r="D159" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="E159" t="n">
         <v>47.8</v>
       </c>
-      <c r="E159" t="n">
-        <v>47.7</v>
-      </c>
       <c r="F159" t="n">
-        <v>1618.6706</v>
+        <v>501.3294</v>
       </c>
       <c r="G159" t="n">
-        <v>47.95249999999999</v>
+        <v>47.958</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5981,22 +5963,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>47.66</v>
+        <v>47.8</v>
       </c>
       <c r="C160" t="n">
-        <v>47.66</v>
+        <v>47.7</v>
       </c>
       <c r="D160" t="n">
-        <v>47.66</v>
+        <v>47.8</v>
       </c>
       <c r="E160" t="n">
-        <v>47.66</v>
+        <v>47.7</v>
       </c>
       <c r="F160" t="n">
-        <v>167.122</v>
+        <v>1618.6706</v>
       </c>
       <c r="G160" t="n">
-        <v>47.93933333333333</v>
+        <v>47.95249999999999</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6016,22 +5998,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>47.7</v>
+        <v>47.66</v>
       </c>
       <c r="C161" t="n">
-        <v>47.7</v>
+        <v>47.66</v>
       </c>
       <c r="D161" t="n">
-        <v>47.7</v>
+        <v>47.66</v>
       </c>
       <c r="E161" t="n">
-        <v>47.7</v>
+        <v>47.66</v>
       </c>
       <c r="F161" t="n">
-        <v>160.5498</v>
+        <v>167.122</v>
       </c>
       <c r="G161" t="n">
-        <v>47.92799999999999</v>
+        <v>47.93933333333333</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6051,22 +6033,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>47.8</v>
+        <v>47.7</v>
       </c>
       <c r="C162" t="n">
-        <v>47.81</v>
+        <v>47.7</v>
       </c>
       <c r="D162" t="n">
-        <v>47.81</v>
+        <v>47.7</v>
       </c>
       <c r="E162" t="n">
-        <v>47.8</v>
+        <v>47.7</v>
       </c>
       <c r="F162" t="n">
-        <v>6263.9932</v>
+        <v>160.5498</v>
       </c>
       <c r="G162" t="n">
-        <v>47.91566666666665</v>
+        <v>47.92799999999999</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6086,22 +6068,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>47.99</v>
+        <v>47.8</v>
       </c>
       <c r="C163" t="n">
-        <v>47.99</v>
+        <v>47.81</v>
       </c>
       <c r="D163" t="n">
-        <v>47.99</v>
+        <v>47.81</v>
       </c>
       <c r="E163" t="n">
-        <v>47.99</v>
+        <v>47.8</v>
       </c>
       <c r="F163" t="n">
-        <v>34935.9269</v>
+        <v>6263.9932</v>
       </c>
       <c r="G163" t="n">
-        <v>47.90716666666665</v>
+        <v>47.91566666666665</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6121,22 +6103,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>48</v>
+        <v>47.99</v>
       </c>
       <c r="C164" t="n">
-        <v>48.12</v>
+        <v>47.99</v>
       </c>
       <c r="D164" t="n">
-        <v>48.12</v>
+        <v>47.99</v>
       </c>
       <c r="E164" t="n">
-        <v>48</v>
+        <v>47.99</v>
       </c>
       <c r="F164" t="n">
-        <v>94487.3233</v>
+        <v>34935.9269</v>
       </c>
       <c r="G164" t="n">
-        <v>47.90083333333332</v>
+        <v>47.90716666666665</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6156,22 +6138,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
+        <v>48</v>
+      </c>
+      <c r="C165" t="n">
         <v>48.12</v>
       </c>
-      <c r="C165" t="n">
-        <v>48.2</v>
-      </c>
       <c r="D165" t="n">
-        <v>48.2</v>
+        <v>48.12</v>
       </c>
       <c r="E165" t="n">
-        <v>48.12</v>
+        <v>48</v>
       </c>
       <c r="F165" t="n">
-        <v>1818.8734</v>
+        <v>94487.3233</v>
       </c>
       <c r="G165" t="n">
-        <v>47.89199999999997</v>
+        <v>47.90083333333332</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6191,22 +6173,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
+        <v>48.12</v>
+      </c>
+      <c r="C166" t="n">
         <v>48.2</v>
       </c>
-      <c r="C166" t="n">
-        <v>48.21</v>
-      </c>
       <c r="D166" t="n">
-        <v>48.21</v>
+        <v>48.2</v>
       </c>
       <c r="E166" t="n">
-        <v>48.2</v>
+        <v>48.12</v>
       </c>
       <c r="F166" t="n">
-        <v>46.6529</v>
+        <v>1818.8734</v>
       </c>
       <c r="G166" t="n">
-        <v>47.89033333333331</v>
+        <v>47.89199999999997</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6226,22 +6208,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>48.12</v>
+        <v>48.2</v>
       </c>
       <c r="C167" t="n">
-        <v>48.05</v>
+        <v>48.21</v>
       </c>
       <c r="D167" t="n">
-        <v>48.13</v>
+        <v>48.21</v>
       </c>
       <c r="E167" t="n">
-        <v>48.05</v>
+        <v>48.2</v>
       </c>
       <c r="F167" t="n">
-        <v>22258.023</v>
+        <v>46.6529</v>
       </c>
       <c r="G167" t="n">
-        <v>47.88133333333331</v>
+        <v>47.89033333333331</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6261,22 +6243,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>48.05</v>
+        <v>48.12</v>
       </c>
       <c r="C168" t="n">
         <v>48.05</v>
       </c>
       <c r="D168" t="n">
-        <v>48.05</v>
+        <v>48.13</v>
       </c>
       <c r="E168" t="n">
         <v>48.05</v>
       </c>
       <c r="F168" t="n">
-        <v>9600</v>
+        <v>22258.023</v>
       </c>
       <c r="G168" t="n">
-        <v>47.87233333333332</v>
+        <v>47.88133333333331</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6308,10 +6290,10 @@
         <v>48.05</v>
       </c>
       <c r="F169" t="n">
-        <v>2818.0013</v>
+        <v>9600</v>
       </c>
       <c r="G169" t="n">
-        <v>47.86333333333332</v>
+        <v>47.87233333333332</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6331,22 +6313,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>48</v>
+        <v>48.05</v>
       </c>
       <c r="C170" t="n">
-        <v>48</v>
+        <v>48.05</v>
       </c>
       <c r="D170" t="n">
-        <v>48</v>
+        <v>48.05</v>
       </c>
       <c r="E170" t="n">
-        <v>48</v>
+        <v>48.05</v>
       </c>
       <c r="F170" t="n">
-        <v>9100</v>
+        <v>2818.0013</v>
       </c>
       <c r="G170" t="n">
-        <v>47.85933333333332</v>
+        <v>47.86333333333332</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6366,22 +6348,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>48.09</v>
+        <v>48</v>
       </c>
       <c r="C171" t="n">
         <v>48</v>
       </c>
       <c r="D171" t="n">
-        <v>48.09</v>
+        <v>48</v>
       </c>
       <c r="E171" t="n">
         <v>48</v>
       </c>
       <c r="F171" t="n">
-        <v>571.895</v>
+        <v>9100</v>
       </c>
       <c r="G171" t="n">
-        <v>47.84933333333332</v>
+        <v>47.85933333333332</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6401,22 +6383,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
+        <v>48.09</v>
+      </c>
+      <c r="C172" t="n">
         <v>48</v>
       </c>
-      <c r="C172" t="n">
-        <v>47.95</v>
-      </c>
       <c r="D172" t="n">
+        <v>48.09</v>
+      </c>
+      <c r="E172" t="n">
         <v>48</v>
       </c>
-      <c r="E172" t="n">
-        <v>47.95</v>
-      </c>
       <c r="F172" t="n">
-        <v>1100</v>
+        <v>571.895</v>
       </c>
       <c r="G172" t="n">
-        <v>47.83633333333331</v>
+        <v>47.84933333333332</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6436,22 +6418,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>47.95</v>
+        <v>48</v>
       </c>
       <c r="C173" t="n">
         <v>47.95</v>
       </c>
       <c r="D173" t="n">
-        <v>47.95</v>
+        <v>48</v>
       </c>
       <c r="E173" t="n">
         <v>47.95</v>
       </c>
       <c r="F173" t="n">
-        <v>600.6704</v>
+        <v>1100</v>
       </c>
       <c r="G173" t="n">
-        <v>47.82383333333332</v>
+        <v>47.83633333333331</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6471,22 +6453,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>48.1</v>
+        <v>47.95</v>
       </c>
       <c r="C174" t="n">
-        <v>48.24</v>
+        <v>47.95</v>
       </c>
       <c r="D174" t="n">
-        <v>48.24</v>
+        <v>47.95</v>
       </c>
       <c r="E174" t="n">
-        <v>48.1</v>
+        <v>47.95</v>
       </c>
       <c r="F174" t="n">
-        <v>33</v>
+        <v>600.6704</v>
       </c>
       <c r="G174" t="n">
-        <v>47.81699999999998</v>
+        <v>47.82383333333332</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6506,22 +6488,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>47.9</v>
+        <v>48.1</v>
       </c>
       <c r="C175" t="n">
-        <v>47.8</v>
+        <v>48.24</v>
       </c>
       <c r="D175" t="n">
-        <v>47.9</v>
+        <v>48.24</v>
       </c>
       <c r="E175" t="n">
-        <v>47.8</v>
+        <v>48.1</v>
       </c>
       <c r="F175" t="n">
-        <v>70643.928</v>
+        <v>33</v>
       </c>
       <c r="G175" t="n">
-        <v>47.80699999999998</v>
+        <v>47.81699999999998</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6541,22 +6523,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>47.58</v>
+        <v>47.9</v>
       </c>
       <c r="C176" t="n">
-        <v>47.58</v>
+        <v>47.8</v>
       </c>
       <c r="D176" t="n">
-        <v>47.58</v>
+        <v>47.9</v>
       </c>
       <c r="E176" t="n">
-        <v>47.58</v>
+        <v>47.8</v>
       </c>
       <c r="F176" t="n">
-        <v>55000</v>
+        <v>70643.928</v>
       </c>
       <c r="G176" t="n">
-        <v>47.78666666666664</v>
+        <v>47.80699999999998</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6576,22 +6558,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>47.42</v>
+        <v>47.58</v>
       </c>
       <c r="C177" t="n">
-        <v>47.41</v>
+        <v>47.58</v>
       </c>
       <c r="D177" t="n">
-        <v>47.42</v>
+        <v>47.58</v>
       </c>
       <c r="E177" t="n">
-        <v>47.41</v>
+        <v>47.58</v>
       </c>
       <c r="F177" t="n">
-        <v>70000</v>
+        <v>55000</v>
       </c>
       <c r="G177" t="n">
-        <v>47.76849999999997</v>
+        <v>47.78666666666664</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6611,22 +6593,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>47.32</v>
+        <v>47.42</v>
       </c>
       <c r="C178" t="n">
-        <v>47.1</v>
+        <v>47.41</v>
       </c>
       <c r="D178" t="n">
-        <v>47.32</v>
+        <v>47.42</v>
       </c>
       <c r="E178" t="n">
-        <v>47.1</v>
+        <v>47.41</v>
       </c>
       <c r="F178" t="n">
-        <v>218909.8147</v>
+        <v>70000</v>
       </c>
       <c r="G178" t="n">
-        <v>47.74516666666663</v>
+        <v>47.76849999999997</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6646,22 +6628,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>47.4</v>
+        <v>47.32</v>
       </c>
       <c r="C179" t="n">
-        <v>47.4</v>
+        <v>47.1</v>
       </c>
       <c r="D179" t="n">
-        <v>47.4</v>
+        <v>47.32</v>
       </c>
       <c r="E179" t="n">
-        <v>47.4</v>
+        <v>47.1</v>
       </c>
       <c r="F179" t="n">
-        <v>327.4438</v>
+        <v>218909.8147</v>
       </c>
       <c r="G179" t="n">
-        <v>47.72799999999997</v>
+        <v>47.74516666666663</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6681,22 +6663,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>47.1</v>
+        <v>47.4</v>
       </c>
       <c r="C180" t="n">
-        <v>47.01</v>
+        <v>47.4</v>
       </c>
       <c r="D180" t="n">
-        <v>47.1</v>
+        <v>47.4</v>
       </c>
       <c r="E180" t="n">
-        <v>47.01</v>
+        <v>47.4</v>
       </c>
       <c r="F180" t="n">
-        <v>62376.0466</v>
+        <v>327.4438</v>
       </c>
       <c r="G180" t="n">
-        <v>47.70499999999998</v>
+        <v>47.72799999999997</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -6716,22 +6698,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="C181" t="n">
         <v>47.01</v>
       </c>
-      <c r="C181" t="n">
-        <v>46.87</v>
-      </c>
       <c r="D181" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="E181" t="n">
         <v>47.01</v>
       </c>
-      <c r="E181" t="n">
-        <v>46.87</v>
-      </c>
       <c r="F181" t="n">
-        <v>6515.7166</v>
+        <v>62376.0466</v>
       </c>
       <c r="G181" t="n">
-        <v>47.67966666666665</v>
+        <v>47.70499999999998</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -6751,22 +6733,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>47</v>
+        <v>47.01</v>
       </c>
       <c r="C182" t="n">
-        <v>47</v>
+        <v>46.87</v>
       </c>
       <c r="D182" t="n">
-        <v>47</v>
+        <v>47.01</v>
       </c>
       <c r="E182" t="n">
-        <v>47</v>
+        <v>46.87</v>
       </c>
       <c r="F182" t="n">
-        <v>193.8036</v>
+        <v>6515.7166</v>
       </c>
       <c r="G182" t="n">
-        <v>47.65899999999998</v>
+        <v>47.67966666666665</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -6786,22 +6768,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>46.9</v>
+        <v>47</v>
       </c>
       <c r="C183" t="n">
-        <v>47.1</v>
+        <v>47</v>
       </c>
       <c r="D183" t="n">
-        <v>47.1</v>
+        <v>47</v>
       </c>
       <c r="E183" t="n">
-        <v>46.89</v>
+        <v>47</v>
       </c>
       <c r="F183" t="n">
-        <v>39360.9445</v>
+        <v>193.8036</v>
       </c>
       <c r="G183" t="n">
-        <v>47.64066666666665</v>
+        <v>47.65899999999998</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -6821,22 +6803,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
+        <v>46.9</v>
+      </c>
+      <c r="C184" t="n">
         <v>47.1</v>
       </c>
-      <c r="C184" t="n">
-        <v>47.16</v>
-      </c>
       <c r="D184" t="n">
-        <v>47.19</v>
+        <v>47.1</v>
       </c>
       <c r="E184" t="n">
-        <v>47.1</v>
+        <v>46.89</v>
       </c>
       <c r="F184" t="n">
-        <v>8633.179</v>
+        <v>39360.9445</v>
       </c>
       <c r="G184" t="n">
-        <v>47.63216666666665</v>
+        <v>47.64066666666665</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -6856,22 +6838,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>47.24</v>
+        <v>47.1</v>
       </c>
       <c r="C185" t="n">
-        <v>47.23</v>
+        <v>47.16</v>
       </c>
       <c r="D185" t="n">
-        <v>47.24</v>
+        <v>47.19</v>
       </c>
       <c r="E185" t="n">
-        <v>47.23</v>
+        <v>47.1</v>
       </c>
       <c r="F185" t="n">
-        <v>5970.2682</v>
+        <v>8633.179</v>
       </c>
       <c r="G185" t="n">
-        <v>47.62466666666665</v>
+        <v>47.63216666666665</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -6891,22 +6873,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>47.1</v>
+        <v>47.24</v>
       </c>
       <c r="C186" t="n">
-        <v>47.1</v>
+        <v>47.23</v>
       </c>
       <c r="D186" t="n">
-        <v>47.1</v>
+        <v>47.24</v>
       </c>
       <c r="E186" t="n">
-        <v>47.1</v>
+        <v>47.23</v>
       </c>
       <c r="F186" t="n">
-        <v>1495.9769</v>
+        <v>5970.2682</v>
       </c>
       <c r="G186" t="n">
-        <v>47.61799999999998</v>
+        <v>47.62466666666665</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -6929,19 +6911,19 @@
         <v>47.1</v>
       </c>
       <c r="C187" t="n">
-        <v>47</v>
+        <v>47.1</v>
       </c>
       <c r="D187" t="n">
         <v>47.1</v>
       </c>
       <c r="E187" t="n">
-        <v>47</v>
+        <v>47.1</v>
       </c>
       <c r="F187" t="n">
-        <v>124.1822</v>
+        <v>1495.9769</v>
       </c>
       <c r="G187" t="n">
-        <v>47.61066666666665</v>
+        <v>47.61799999999998</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -6964,19 +6946,19 @@
         <v>47.1</v>
       </c>
       <c r="C188" t="n">
-        <v>47.1</v>
+        <v>47</v>
       </c>
       <c r="D188" t="n">
         <v>47.1</v>
       </c>
       <c r="E188" t="n">
-        <v>47.1</v>
+        <v>47</v>
       </c>
       <c r="F188" t="n">
-        <v>5084.5339</v>
+        <v>124.1822</v>
       </c>
       <c r="G188" t="n">
-        <v>47.60733333333331</v>
+        <v>47.61066666666665</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -6996,22 +6978,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>47.3</v>
+        <v>47.1</v>
       </c>
       <c r="C189" t="n">
-        <v>47.3</v>
+        <v>47.1</v>
       </c>
       <c r="D189" t="n">
-        <v>47.3</v>
+        <v>47.1</v>
       </c>
       <c r="E189" t="n">
-        <v>47.3</v>
+        <v>47.1</v>
       </c>
       <c r="F189" t="n">
-        <v>11</v>
+        <v>5084.5339</v>
       </c>
       <c r="G189" t="n">
-        <v>47.61233333333332</v>
+        <v>47.60733333333331</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7043,10 +7025,10 @@
         <v>47.3</v>
       </c>
       <c r="F190" t="n">
-        <v>160.4886</v>
+        <v>11</v>
       </c>
       <c r="G190" t="n">
-        <v>47.61983333333332</v>
+        <v>47.61233333333332</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7066,22 +7048,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>47.4</v>
+        <v>47.3</v>
       </c>
       <c r="C191" t="n">
-        <v>47.71</v>
+        <v>47.3</v>
       </c>
       <c r="D191" t="n">
-        <v>47.71</v>
+        <v>47.3</v>
       </c>
       <c r="E191" t="n">
-        <v>47.4</v>
+        <v>47.3</v>
       </c>
       <c r="F191" t="n">
-        <v>3352.7478</v>
+        <v>160.4886</v>
       </c>
       <c r="G191" t="n">
-        <v>47.63549999999999</v>
+        <v>47.61983333333332</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7101,22 +7083,22 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>47.8</v>
+        <v>47.4</v>
       </c>
       <c r="C192" t="n">
-        <v>47.8</v>
+        <v>47.71</v>
       </c>
       <c r="D192" t="n">
-        <v>47.8</v>
+        <v>47.71</v>
       </c>
       <c r="E192" t="n">
-        <v>47.8</v>
+        <v>47.4</v>
       </c>
       <c r="F192" t="n">
-        <v>4508.4856</v>
+        <v>3352.7478</v>
       </c>
       <c r="G192" t="n">
-        <v>47.65766666666666</v>
+        <v>47.63549999999999</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7136,22 +7118,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>47.99</v>
+        <v>47.8</v>
       </c>
       <c r="C193" t="n">
-        <v>48</v>
+        <v>47.8</v>
       </c>
       <c r="D193" t="n">
-        <v>48</v>
+        <v>47.8</v>
       </c>
       <c r="E193" t="n">
-        <v>47.99</v>
+        <v>47.8</v>
       </c>
       <c r="F193" t="n">
-        <v>4519.4856</v>
+        <v>4508.4856</v>
       </c>
       <c r="G193" t="n">
-        <v>47.67766666666666</v>
+        <v>47.65766666666666</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7171,22 +7153,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>47.8</v>
+        <v>47.99</v>
       </c>
       <c r="C194" t="n">
-        <v>47.71</v>
+        <v>48</v>
       </c>
       <c r="D194" t="n">
-        <v>47.8</v>
+        <v>48</v>
       </c>
       <c r="E194" t="n">
-        <v>47.71</v>
+        <v>47.99</v>
       </c>
       <c r="F194" t="n">
-        <v>6969.188</v>
+        <v>4519.4856</v>
       </c>
       <c r="G194" t="n">
-        <v>47.69116666666665</v>
+        <v>47.67766666666666</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7206,22 +7188,22 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>47.66</v>
+        <v>47.8</v>
       </c>
       <c r="C195" t="n">
-        <v>47.66</v>
+        <v>47.71</v>
       </c>
       <c r="D195" t="n">
-        <v>47.66</v>
+        <v>47.8</v>
       </c>
       <c r="E195" t="n">
-        <v>47.66</v>
+        <v>47.71</v>
       </c>
       <c r="F195" t="n">
-        <v>1827.3165</v>
+        <v>6969.188</v>
       </c>
       <c r="G195" t="n">
-        <v>47.70183333333332</v>
+        <v>47.69116666666665</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7241,22 +7223,22 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>47.54</v>
+        <v>47.66</v>
       </c>
       <c r="C196" t="n">
-        <v>47.54</v>
+        <v>47.66</v>
       </c>
       <c r="D196" t="n">
-        <v>47.54</v>
+        <v>47.66</v>
       </c>
       <c r="E196" t="n">
-        <v>47.54</v>
+        <v>47.66</v>
       </c>
       <c r="F196" t="n">
-        <v>61.0104</v>
+        <v>1827.3165</v>
       </c>
       <c r="G196" t="n">
-        <v>47.71066666666665</v>
+        <v>47.70183333333332</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7276,22 +7258,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>47.4</v>
+        <v>47.54</v>
       </c>
       <c r="C197" t="n">
-        <v>47.3</v>
+        <v>47.54</v>
       </c>
       <c r="D197" t="n">
-        <v>47.4</v>
+        <v>47.54</v>
       </c>
       <c r="E197" t="n">
-        <v>47.3</v>
+        <v>47.54</v>
       </c>
       <c r="F197" t="n">
-        <v>12681.3614</v>
+        <v>61.0104</v>
       </c>
       <c r="G197" t="n">
-        <v>47.70899999999998</v>
+        <v>47.71066666666665</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7311,22 +7293,22 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>47.25</v>
+        <v>47.4</v>
       </c>
       <c r="C198" t="n">
-        <v>47.23</v>
+        <v>47.3</v>
       </c>
       <c r="D198" t="n">
-        <v>47.25</v>
+        <v>47.4</v>
       </c>
       <c r="E198" t="n">
-        <v>47.23</v>
+        <v>47.3</v>
       </c>
       <c r="F198" t="n">
-        <v>1928.2866</v>
+        <v>12681.3614</v>
       </c>
       <c r="G198" t="n">
-        <v>47.70516666666665</v>
+        <v>47.70899999999998</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7346,22 +7328,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
+        <v>47.25</v>
+      </c>
+      <c r="C199" t="n">
         <v>47.23</v>
       </c>
-      <c r="C199" t="n">
-        <v>47.2</v>
-      </c>
       <c r="D199" t="n">
+        <v>47.25</v>
+      </c>
+      <c r="E199" t="n">
         <v>47.23</v>
       </c>
-      <c r="E199" t="n">
-        <v>47.2</v>
-      </c>
       <c r="F199" t="n">
-        <v>44</v>
+        <v>1928.2866</v>
       </c>
       <c r="G199" t="n">
-        <v>47.69199999999999</v>
+        <v>47.70516666666665</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7381,22 +7363,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>47.18</v>
+        <v>47.23</v>
       </c>
       <c r="C200" t="n">
-        <v>47.1</v>
+        <v>47.2</v>
       </c>
       <c r="D200" t="n">
-        <v>47.18</v>
+        <v>47.23</v>
       </c>
       <c r="E200" t="n">
-        <v>47.1</v>
+        <v>47.2</v>
       </c>
       <c r="F200" t="n">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="G200" t="n">
-        <v>47.68033333333332</v>
+        <v>47.69199999999999</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7416,22 +7398,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>47.09</v>
+        <v>47.18</v>
       </c>
       <c r="C201" t="n">
-        <v>47.08</v>
+        <v>47.1</v>
       </c>
       <c r="D201" t="n">
-        <v>47.09</v>
+        <v>47.18</v>
       </c>
       <c r="E201" t="n">
-        <v>47.08</v>
+        <v>47.1</v>
       </c>
       <c r="F201" t="n">
-        <v>235.1872</v>
+        <v>99</v>
       </c>
       <c r="G201" t="n">
-        <v>47.67149999999997</v>
+        <v>47.68033333333332</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7451,22 +7433,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>47.07</v>
+        <v>47.09</v>
       </c>
       <c r="C202" t="n">
-        <v>46.82</v>
+        <v>47.08</v>
       </c>
       <c r="D202" t="n">
-        <v>47.07</v>
+        <v>47.09</v>
       </c>
       <c r="E202" t="n">
-        <v>46.82</v>
+        <v>47.08</v>
       </c>
       <c r="F202" t="n">
-        <v>435.8209</v>
+        <v>235.1872</v>
       </c>
       <c r="G202" t="n">
-        <v>47.65599999999998</v>
+        <v>47.67149999999997</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7486,22 +7468,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
+        <v>47.07</v>
+      </c>
+      <c r="C203" t="n">
         <v>46.82</v>
       </c>
-      <c r="C203" t="n">
-        <v>46.77</v>
-      </c>
       <c r="D203" t="n">
+        <v>47.07</v>
+      </c>
+      <c r="E203" t="n">
         <v>46.82</v>
       </c>
-      <c r="E203" t="n">
-        <v>46.77</v>
-      </c>
       <c r="F203" t="n">
-        <v>79.6418</v>
+        <v>435.8209</v>
       </c>
       <c r="G203" t="n">
-        <v>47.63766666666665</v>
+        <v>47.65599999999998</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7521,22 +7503,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
+        <v>46.82</v>
+      </c>
+      <c r="C204" t="n">
         <v>46.77</v>
       </c>
-      <c r="C204" t="n">
-        <v>46.76</v>
-      </c>
       <c r="D204" t="n">
+        <v>46.82</v>
+      </c>
+      <c r="E204" t="n">
         <v>46.77</v>
       </c>
-      <c r="E204" t="n">
-        <v>46.76</v>
-      </c>
       <c r="F204" t="n">
-        <v>44998.2003</v>
+        <v>79.6418</v>
       </c>
       <c r="G204" t="n">
-        <v>47.61916666666665</v>
+        <v>47.63766666666665</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7556,22 +7538,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>46.78</v>
+        <v>46.77</v>
       </c>
       <c r="C205" t="n">
-        <v>46.78</v>
+        <v>46.76</v>
       </c>
       <c r="D205" t="n">
-        <v>46.78</v>
+        <v>46.77</v>
       </c>
       <c r="E205" t="n">
-        <v>46.78</v>
+        <v>46.76</v>
       </c>
       <c r="F205" t="n">
-        <v>2594.0552</v>
+        <v>44998.2003</v>
       </c>
       <c r="G205" t="n">
-        <v>47.60066666666666</v>
+        <v>47.61916666666665</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -7591,22 +7573,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>46.77</v>
+        <v>46.78</v>
       </c>
       <c r="C206" t="n">
-        <v>46.77</v>
+        <v>46.78</v>
       </c>
       <c r="D206" t="n">
-        <v>46.77</v>
+        <v>46.78</v>
       </c>
       <c r="E206" t="n">
-        <v>46.77</v>
+        <v>46.78</v>
       </c>
       <c r="F206" t="n">
-        <v>720.1162</v>
+        <v>2594.0552</v>
       </c>
       <c r="G206" t="n">
-        <v>47.58199999999999</v>
+        <v>47.60066666666666</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -7626,22 +7608,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>46.75</v>
+        <v>46.77</v>
       </c>
       <c r="C207" t="n">
-        <v>46.7</v>
+        <v>46.77</v>
       </c>
       <c r="D207" t="n">
-        <v>46.75</v>
+        <v>46.77</v>
       </c>
       <c r="E207" t="n">
-        <v>46.7</v>
+        <v>46.77</v>
       </c>
       <c r="F207" t="n">
-        <v>66</v>
+        <v>720.1162</v>
       </c>
       <c r="G207" t="n">
-        <v>47.56216666666666</v>
+        <v>47.58199999999999</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -7661,22 +7643,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>46.7</v>
+        <v>46.75</v>
       </c>
       <c r="C208" t="n">
         <v>46.7</v>
       </c>
       <c r="D208" t="n">
-        <v>46.7</v>
+        <v>46.75</v>
       </c>
       <c r="E208" t="n">
         <v>46.7</v>
       </c>
       <c r="F208" t="n">
-        <v>15000</v>
+        <v>66</v>
       </c>
       <c r="G208" t="n">
-        <v>47.53899999999999</v>
+        <v>47.56216666666666</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -7696,22 +7678,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>46.71</v>
+        <v>46.7</v>
       </c>
       <c r="C209" t="n">
-        <v>46.94</v>
+        <v>46.7</v>
       </c>
       <c r="D209" t="n">
-        <v>46.94</v>
+        <v>46.7</v>
       </c>
       <c r="E209" t="n">
-        <v>46.71</v>
+        <v>46.7</v>
       </c>
       <c r="F209" t="n">
-        <v>6742.6387</v>
+        <v>15000</v>
       </c>
       <c r="G209" t="n">
-        <v>47.51966666666666</v>
+        <v>47.53899999999999</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -7731,22 +7713,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>46.89</v>
+        <v>46.71</v>
       </c>
       <c r="C210" t="n">
-        <v>46.89</v>
+        <v>46.94</v>
       </c>
       <c r="D210" t="n">
-        <v>46.89</v>
+        <v>46.94</v>
       </c>
       <c r="E210" t="n">
-        <v>46.89</v>
+        <v>46.71</v>
       </c>
       <c r="F210" t="n">
-        <v>4093.753</v>
+        <v>6742.6387</v>
       </c>
       <c r="G210" t="n">
-        <v>47.50283333333332</v>
+        <v>47.51966666666666</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -7766,22 +7748,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>47</v>
+        <v>46.89</v>
       </c>
       <c r="C211" t="n">
-        <v>47</v>
+        <v>46.89</v>
       </c>
       <c r="D211" t="n">
-        <v>47</v>
+        <v>46.89</v>
       </c>
       <c r="E211" t="n">
-        <v>47</v>
+        <v>46.89</v>
       </c>
       <c r="F211" t="n">
-        <v>118.3582</v>
+        <v>4093.753</v>
       </c>
       <c r="G211" t="n">
-        <v>47.48633333333332</v>
+        <v>47.50283333333332</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -7813,10 +7795,10 @@
         <v>47</v>
       </c>
       <c r="F212" t="n">
-        <v>3787.8888</v>
+        <v>118.3582</v>
       </c>
       <c r="G212" t="n">
-        <v>47.46749999999999</v>
+        <v>47.48633333333332</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -7836,22 +7818,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>46.78</v>
+        <v>47</v>
       </c>
       <c r="C213" t="n">
-        <v>46.71</v>
+        <v>47</v>
       </c>
       <c r="D213" t="n">
-        <v>46.78</v>
+        <v>47</v>
       </c>
       <c r="E213" t="n">
-        <v>46.71</v>
+        <v>47</v>
       </c>
       <c r="F213" t="n">
-        <v>66121.93889999999</v>
+        <v>3787.8888</v>
       </c>
       <c r="G213" t="n">
-        <v>47.44599999999999</v>
+        <v>47.46749999999999</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -7871,22 +7853,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>46.7</v>
+        <v>46.78</v>
       </c>
       <c r="C214" t="n">
-        <v>46.7</v>
+        <v>46.71</v>
       </c>
       <c r="D214" t="n">
-        <v>46.7</v>
+        <v>46.78</v>
       </c>
       <c r="E214" t="n">
-        <v>46.7</v>
+        <v>46.71</v>
       </c>
       <c r="F214" t="n">
-        <v>20382.7925</v>
+        <v>66121.93889999999</v>
       </c>
       <c r="G214" t="n">
-        <v>47.42433333333332</v>
+        <v>47.44599999999999</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -7918,10 +7900,10 @@
         <v>46.7</v>
       </c>
       <c r="F215" t="n">
-        <v>868.8561</v>
+        <v>20382.7925</v>
       </c>
       <c r="G215" t="n">
-        <v>47.40433333333331</v>
+        <v>47.42433333333332</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -7953,10 +7935,10 @@
         <v>46.7</v>
       </c>
       <c r="F216" t="n">
-        <v>697.1906</v>
+        <v>868.8561</v>
       </c>
       <c r="G216" t="n">
-        <v>47.38433333333331</v>
+        <v>47.40433333333331</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -7976,22 +7958,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>46.69</v>
+        <v>46.7</v>
       </c>
       <c r="C217" t="n">
-        <v>46.6</v>
+        <v>46.7</v>
       </c>
       <c r="D217" t="n">
-        <v>46.69</v>
+        <v>46.7</v>
       </c>
       <c r="E217" t="n">
-        <v>46.6</v>
+        <v>46.7</v>
       </c>
       <c r="F217" t="n">
-        <v>6147.7012</v>
+        <v>697.1906</v>
       </c>
       <c r="G217" t="n">
-        <v>47.36349999999997</v>
+        <v>47.38433333333331</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8011,22 +7993,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
+        <v>46.69</v>
+      </c>
+      <c r="C218" t="n">
         <v>46.6</v>
       </c>
-      <c r="C218" t="n">
-        <v>46.7</v>
-      </c>
       <c r="D218" t="n">
-        <v>46.7</v>
+        <v>46.69</v>
       </c>
       <c r="E218" t="n">
         <v>46.6</v>
       </c>
       <c r="F218" t="n">
-        <v>42606.1147</v>
+        <v>6147.7012</v>
       </c>
       <c r="G218" t="n">
-        <v>47.34516666666664</v>
+        <v>47.36349999999997</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8049,19 +8031,19 @@
         <v>46.6</v>
       </c>
       <c r="C219" t="n">
-        <v>46.6</v>
+        <v>46.7</v>
       </c>
       <c r="D219" t="n">
-        <v>46.6</v>
+        <v>46.7</v>
       </c>
       <c r="E219" t="n">
         <v>46.6</v>
       </c>
       <c r="F219" t="n">
-        <v>14600</v>
+        <v>42606.1147</v>
       </c>
       <c r="G219" t="n">
-        <v>47.3268333333333</v>
+        <v>47.34516666666664</v>
       </c>
       <c r="H219" t="n">
         <v>1</v>
@@ -8070,12 +8052,14 @@
         <v>0</v>
       </c>
       <c r="J219" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="K219" t="n">
-        <v>46.7</v>
-      </c>
-      <c r="L219" t="inlineStr"/>
+        <v>46.6</v>
+      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8097,10 +8081,10 @@
         <v>46.6</v>
       </c>
       <c r="F220" t="n">
-        <v>257249.0776</v>
+        <v>14600</v>
       </c>
       <c r="G220" t="n">
-        <v>47.30916666666664</v>
+        <v>47.3268333333333</v>
       </c>
       <c r="H220" t="n">
         <v>1</v>
@@ -8109,14 +8093,12 @@
         <v>0</v>
       </c>
       <c r="J220" t="n">
-        <v>46.6</v>
-      </c>
-      <c r="K220" t="n">
         <v>46.7</v>
       </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M220" t="n">
@@ -8128,22 +8110,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>46.55</v>
+        <v>46.6</v>
       </c>
       <c r="C221" t="n">
-        <v>46.25</v>
+        <v>46.6</v>
       </c>
       <c r="D221" t="n">
-        <v>46.55</v>
+        <v>46.6</v>
       </c>
       <c r="E221" t="n">
-        <v>45.73</v>
+        <v>46.6</v>
       </c>
       <c r="F221" t="n">
-        <v>3277</v>
+        <v>257249.0776</v>
       </c>
       <c r="G221" t="n">
-        <v>47.28499999999998</v>
+        <v>47.30916666666664</v>
       </c>
       <c r="H221" t="n">
         <v>1</v>
@@ -8154,12 +8136,10 @@
       <c r="J221" t="n">
         <v>46.6</v>
       </c>
-      <c r="K221" t="n">
-        <v>46.7</v>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M221" t="n">
@@ -8171,22 +8151,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>46.2</v>
+        <v>46.55</v>
       </c>
       <c r="C222" t="n">
-        <v>46.15</v>
+        <v>46.25</v>
       </c>
       <c r="D222" t="n">
-        <v>46.2</v>
+        <v>46.55</v>
       </c>
       <c r="E222" t="n">
-        <v>46.15</v>
+        <v>45.73</v>
       </c>
       <c r="F222" t="n">
-        <v>8894.838599999999</v>
+        <v>3277</v>
       </c>
       <c r="G222" t="n">
-        <v>47.25733333333331</v>
+        <v>47.28499999999998</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8195,9 +8175,7 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>46.7</v>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8212,22 +8190,22 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="C223" t="n">
         <v>46.15</v>
       </c>
-      <c r="C223" t="n">
-        <v>45.8</v>
-      </c>
       <c r="D223" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="E223" t="n">
         <v>46.15</v>
       </c>
-      <c r="E223" t="n">
-        <v>45.8</v>
-      </c>
       <c r="F223" t="n">
-        <v>528</v>
+        <v>8894.838599999999</v>
       </c>
       <c r="G223" t="n">
-        <v>47.22083333333332</v>
+        <v>47.25733333333331</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8236,9 +8214,7 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>46.7</v>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8253,22 +8229,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>46.09</v>
+        <v>46.15</v>
       </c>
       <c r="C224" t="n">
-        <v>46.16</v>
+        <v>45.8</v>
       </c>
       <c r="D224" t="n">
-        <v>46.19</v>
+        <v>46.15</v>
       </c>
       <c r="E224" t="n">
-        <v>46.08</v>
+        <v>45.8</v>
       </c>
       <c r="F224" t="n">
-        <v>13365.3147</v>
+        <v>528</v>
       </c>
       <c r="G224" t="n">
-        <v>47.18816666666665</v>
+        <v>47.22083333333332</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8277,9 +8253,7 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>46.7</v>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8294,33 +8268,31 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>46</v>
+        <v>46.09</v>
       </c>
       <c r="C225" t="n">
-        <v>46</v>
+        <v>46.16</v>
       </c>
       <c r="D225" t="n">
-        <v>46</v>
+        <v>46.19</v>
       </c>
       <c r="E225" t="n">
-        <v>46</v>
+        <v>46.08</v>
       </c>
       <c r="F225" t="n">
-        <v>698.4225</v>
+        <v>13365.3147</v>
       </c>
       <c r="G225" t="n">
-        <v>47.15149999999998</v>
+        <v>47.18816666666665</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
       </c>
       <c r="I225" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>46.7</v>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8347,21 +8319,19 @@
         <v>46</v>
       </c>
       <c r="F226" t="n">
-        <v>5599.5111</v>
+        <v>698.4225</v>
       </c>
       <c r="G226" t="n">
-        <v>47.11466666666665</v>
+        <v>47.15149999999998</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
       </c>
       <c r="I226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>46.7</v>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8376,22 +8346,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>46.19</v>
+        <v>46</v>
       </c>
       <c r="C227" t="n">
-        <v>46.19</v>
+        <v>46</v>
       </c>
       <c r="D227" t="n">
-        <v>46.19</v>
+        <v>46</v>
       </c>
       <c r="E227" t="n">
-        <v>46.19</v>
+        <v>46</v>
       </c>
       <c r="F227" t="n">
-        <v>216.1761</v>
+        <v>5599.5111</v>
       </c>
       <c r="G227" t="n">
-        <v>47.08366666666665</v>
+        <v>47.11466666666665</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8400,9 +8370,7 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>46.7</v>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8417,22 +8385,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>46.1</v>
+        <v>46.19</v>
       </c>
       <c r="C228" t="n">
-        <v>46</v>
+        <v>46.19</v>
       </c>
       <c r="D228" t="n">
-        <v>46.1</v>
+        <v>46.19</v>
       </c>
       <c r="E228" t="n">
-        <v>46</v>
+        <v>46.19</v>
       </c>
       <c r="F228" t="n">
-        <v>10000</v>
+        <v>216.1761</v>
       </c>
       <c r="G228" t="n">
-        <v>47.04949999999998</v>
+        <v>47.08366666666665</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8441,9 +8409,7 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>46.7</v>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8458,22 +8424,22 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>46</v>
+        <v>46.1</v>
       </c>
       <c r="C229" t="n">
         <v>46</v>
       </c>
       <c r="D229" t="n">
-        <v>46</v>
+        <v>46.1</v>
       </c>
       <c r="E229" t="n">
         <v>46</v>
       </c>
       <c r="F229" t="n">
-        <v>9800</v>
+        <v>10000</v>
       </c>
       <c r="G229" t="n">
-        <v>47.01533333333331</v>
+        <v>47.04949999999998</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8482,9 +8448,7 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>46.7</v>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8511,10 +8475,10 @@
         <v>46</v>
       </c>
       <c r="F230" t="n">
-        <v>16927.9164</v>
+        <v>9800</v>
       </c>
       <c r="G230" t="n">
-        <v>46.98199999999998</v>
+        <v>47.01533333333331</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8523,9 +8487,7 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>46.7</v>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8552,10 +8514,10 @@
         <v>46</v>
       </c>
       <c r="F231" t="n">
-        <v>16.3618</v>
+        <v>16927.9164</v>
       </c>
       <c r="G231" t="n">
-        <v>46.94866666666665</v>
+        <v>46.98199999999998</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8564,9 +8526,7 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>46.7</v>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8581,22 +8541,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>46.37</v>
+        <v>46</v>
       </c>
       <c r="C232" t="n">
-        <v>46.37</v>
+        <v>46</v>
       </c>
       <c r="D232" t="n">
-        <v>46.37</v>
+        <v>46</v>
       </c>
       <c r="E232" t="n">
-        <v>46.37</v>
+        <v>46</v>
       </c>
       <c r="F232" t="n">
-        <v>3872.1397</v>
+        <v>16.3618</v>
       </c>
       <c r="G232" t="n">
-        <v>46.92233333333331</v>
+        <v>46.94866666666665</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8605,9 +8565,7 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>46.7</v>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8634,10 +8592,10 @@
         <v>46.37</v>
       </c>
       <c r="F233" t="n">
-        <v>18000</v>
+        <v>3872.1397</v>
       </c>
       <c r="G233" t="n">
-        <v>46.89599999999998</v>
+        <v>46.92233333333331</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -8646,9 +8604,7 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>46.7</v>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8663,22 +8619,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>46.35</v>
+        <v>46.37</v>
       </c>
       <c r="C234" t="n">
-        <v>46.35</v>
+        <v>46.37</v>
       </c>
       <c r="D234" t="n">
-        <v>46.35</v>
+        <v>46.37</v>
       </c>
       <c r="E234" t="n">
-        <v>46.35</v>
+        <v>46.37</v>
       </c>
       <c r="F234" t="n">
-        <v>10000</v>
+        <v>18000</v>
       </c>
       <c r="G234" t="n">
-        <v>46.86449999999999</v>
+        <v>46.89599999999998</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -8687,9 +8643,7 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>46.7</v>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8704,35 +8658,31 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>46.1</v>
+        <v>46.35</v>
       </c>
       <c r="C235" t="n">
-        <v>46.1</v>
+        <v>46.35</v>
       </c>
       <c r="D235" t="n">
-        <v>46.1</v>
+        <v>46.35</v>
       </c>
       <c r="E235" t="n">
-        <v>46.1</v>
+        <v>46.35</v>
       </c>
       <c r="F235" t="n">
         <v>10000</v>
       </c>
       <c r="G235" t="n">
-        <v>46.83616666666664</v>
+        <v>46.86449999999999</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="n">
-        <v>46.35</v>
-      </c>
-      <c r="K235" t="n">
-        <v>46.7</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8747,35 +8697,31 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>46.38</v>
+        <v>46.1</v>
       </c>
       <c r="C236" t="n">
-        <v>46.5</v>
+        <v>46.1</v>
       </c>
       <c r="D236" t="n">
-        <v>46.5</v>
+        <v>46.1</v>
       </c>
       <c r="E236" t="n">
-        <v>46.38</v>
+        <v>46.1</v>
       </c>
       <c r="F236" t="n">
-        <v>5500</v>
+        <v>10000</v>
       </c>
       <c r="G236" t="n">
-        <v>46.81816666666665</v>
+        <v>46.83616666666664</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="n">
-        <v>46.1</v>
-      </c>
-      <c r="K236" t="n">
-        <v>46.7</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8790,22 +8736,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
+        <v>46.38</v>
+      </c>
+      <c r="C237" t="n">
         <v>46.5</v>
       </c>
-      <c r="C237" t="n">
-        <v>46.56</v>
-      </c>
       <c r="D237" t="n">
-        <v>46.56</v>
+        <v>46.5</v>
       </c>
       <c r="E237" t="n">
-        <v>46.5</v>
+        <v>46.38</v>
       </c>
       <c r="F237" t="n">
-        <v>2122.074</v>
+        <v>5500</v>
       </c>
       <c r="G237" t="n">
-        <v>46.80399999999998</v>
+        <v>46.81816666666665</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -8814,9 +8760,7 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>46.7</v>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8826,6 +8770,45 @@
         <v>1</v>
       </c>
     </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="C238" t="n">
+        <v>46.56</v>
+      </c>
+      <c r="D238" t="n">
+        <v>46.56</v>
+      </c>
+      <c r="E238" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="F238" t="n">
+        <v>2122.074</v>
+      </c>
+      <c r="G238" t="n">
+        <v>46.80399999999998</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M238" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-24 BackTest XEM.xlsx
+++ b/BackTest/2020-01-24 BackTest XEM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M238"/>
+  <dimension ref="A1:N248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>45527.9547</v>
       </c>
       <c r="G2" t="n">
+        <v>49.99866666666665</v>
+      </c>
+      <c r="H2" t="n">
         <v>48.47450000000002</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>4458.3875</v>
       </c>
       <c r="G3" t="n">
+        <v>49.98866666666665</v>
+      </c>
+      <c r="H3" t="n">
         <v>48.51933333333336</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>9166.6322</v>
       </c>
       <c r="G4" t="n">
+        <v>49.97799999999999</v>
+      </c>
+      <c r="H4" t="n">
         <v>48.57450000000002</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>102497.8579</v>
       </c>
       <c r="G5" t="n">
+        <v>49.96533333333332</v>
+      </c>
+      <c r="H5" t="n">
         <v>48.63000000000002</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>669.1202</v>
       </c>
       <c r="G6" t="n">
+        <v>49.97466666666666</v>
+      </c>
+      <c r="H6" t="n">
         <v>48.69283333333335</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>10000</v>
       </c>
       <c r="G7" t="n">
+        <v>49.93066666666666</v>
+      </c>
+      <c r="H7" t="n">
         <v>48.75700000000002</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>3333.55676097</v>
       </c>
       <c r="G8" t="n">
+        <v>49.88599999999999</v>
+      </c>
+      <c r="H8" t="n">
         <v>48.80800000000001</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>3099.02161735</v>
       </c>
       <c r="G9" t="n">
+        <v>49.82933333333333</v>
+      </c>
+      <c r="H9" t="n">
         <v>48.85483333333335</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>18</v>
       </c>
       <c r="G10" t="n">
+        <v>49.77466666666667</v>
+      </c>
+      <c r="H10" t="n">
         <v>48.89550000000001</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>10001.6655</v>
       </c>
       <c r="G11" t="n">
+        <v>49.74733333333334</v>
+      </c>
+      <c r="H11" t="n">
         <v>48.93833333333335</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>10809.7076</v>
       </c>
       <c r="G12" t="n">
+        <v>49.72600000000001</v>
+      </c>
+      <c r="H12" t="n">
         <v>48.97900000000001</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>9091.6391</v>
       </c>
       <c r="G13" t="n">
+        <v>49.72866666666667</v>
+      </c>
+      <c r="H13" t="n">
         <v>49.02333333333334</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>1</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>52091.2972</v>
       </c>
       <c r="G14" t="n">
+        <v>49.74066666666668</v>
+      </c>
+      <c r="H14" t="n">
         <v>49.07366666666667</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>9941.342199999999</v>
       </c>
       <c r="G15" t="n">
+        <v>49.77000000000001</v>
+      </c>
+      <c r="H15" t="n">
         <v>49.12616666666667</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>1</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>1457.1437</v>
       </c>
       <c r="G16" t="n">
+        <v>49.79933333333335</v>
+      </c>
+      <c r="H16" t="n">
         <v>49.17716666666667</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>2790.2514</v>
       </c>
       <c r="G17" t="n">
+        <v>49.82866666666668</v>
+      </c>
+      <c r="H17" t="n">
         <v>49.22783333333334</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>10000</v>
       </c>
       <c r="G18" t="n">
+        <v>49.86733333333336</v>
+      </c>
+      <c r="H18" t="n">
         <v>49.27833333333333</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>199.02248756</v>
       </c>
       <c r="G19" t="n">
+        <v>49.91000000000002</v>
+      </c>
+      <c r="H19" t="n">
         <v>49.32749999999999</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>15883.8554</v>
       </c>
       <c r="G20" t="n">
+        <v>49.95066666666669</v>
+      </c>
+      <c r="H20" t="n">
         <v>49.37249999999999</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>6482.7083</v>
       </c>
       <c r="G21" t="n">
+        <v>49.96600000000002</v>
+      </c>
+      <c r="H21" t="n">
         <v>49.41833333333332</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>4632.19291244</v>
       </c>
       <c r="G22" t="n">
+        <v>49.99066666666668</v>
+      </c>
+      <c r="H22" t="n">
         <v>49.46216666666666</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>15297.6679</v>
       </c>
       <c r="G23" t="n">
+        <v>50.03333333333335</v>
+      </c>
+      <c r="H23" t="n">
         <v>49.50216666666666</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>43507.2694</v>
       </c>
       <c r="G24" t="n">
+        <v>50.09000000000001</v>
+      </c>
+      <c r="H24" t="n">
         <v>49.54266666666665</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>68707.76640911</v>
       </c>
       <c r="G25" t="n">
+        <v>50.14600000000001</v>
+      </c>
+      <c r="H25" t="n">
         <v>49.5855</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>56392.0065</v>
       </c>
       <c r="G26" t="n">
+        <v>50.20200000000001</v>
+      </c>
+      <c r="H26" t="n">
         <v>49.62183333333333</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>59648.28</v>
       </c>
       <c r="G27" t="n">
+        <v>50.236</v>
+      </c>
+      <c r="H27" t="n">
         <v>49.65683333333332</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>19647.7126</v>
       </c>
       <c r="G28" t="n">
+        <v>50.282</v>
+      </c>
+      <c r="H28" t="n">
         <v>49.69849999999999</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>2305.1884</v>
       </c>
       <c r="G29" t="n">
+        <v>50.30666666666666</v>
+      </c>
+      <c r="H29" t="n">
         <v>49.74049999999999</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>1</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>1705.9529</v>
       </c>
       <c r="G30" t="n">
+        <v>50.32333333333334</v>
+      </c>
+      <c r="H30" t="n">
         <v>49.77633333333332</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>99968.8977</v>
       </c>
       <c r="G31" t="n">
+        <v>50.32133333333333</v>
+      </c>
+      <c r="H31" t="n">
         <v>49.80799999999999</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>1</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>27082.729</v>
       </c>
       <c r="G32" t="n">
+        <v>50.32133333333333</v>
+      </c>
+      <c r="H32" t="n">
         <v>49.83783333333331</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>1</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>1158.8685</v>
       </c>
       <c r="G33" t="n">
+        <v>50.31799999999999</v>
+      </c>
+      <c r="H33" t="n">
         <v>49.86533333333332</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>1</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>212931.7559</v>
       </c>
       <c r="G34" t="n">
+        <v>50.29866666666666</v>
+      </c>
+      <c r="H34" t="n">
         <v>49.88799999999999</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>1</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>137124.6717</v>
       </c>
       <c r="G35" t="n">
+        <v>50.27666666666666</v>
+      </c>
+      <c r="H35" t="n">
         <v>49.90316666666665</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>1</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>46453.3894</v>
       </c>
       <c r="G36" t="n">
+        <v>50.24466666666667</v>
+      </c>
+      <c r="H36" t="n">
         <v>49.92166666666665</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>1</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>132402.2778</v>
       </c>
       <c r="G37" t="n">
+        <v>50.202</v>
+      </c>
+      <c r="H37" t="n">
         <v>49.92533333333333</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>1</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>722.2132</v>
       </c>
       <c r="G38" t="n">
+        <v>50.16200000000001</v>
+      </c>
+      <c r="H38" t="n">
         <v>49.93033333333332</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>49396.3302</v>
       </c>
       <c r="G39" t="n">
+        <v>50.11333333333334</v>
+      </c>
+      <c r="H39" t="n">
         <v>49.93349999999998</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>100</v>
       </c>
       <c r="G40" t="n">
+        <v>50.06400000000001</v>
+      </c>
+      <c r="H40" t="n">
         <v>49.94016666666664</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>19154.0149</v>
       </c>
       <c r="G41" t="n">
+        <v>50.00800000000002</v>
+      </c>
+      <c r="H41" t="n">
         <v>49.94683333333331</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>8799.468000000001</v>
       </c>
       <c r="G42" t="n">
+        <v>49.98066666666669</v>
+      </c>
+      <c r="H42" t="n">
         <v>49.95466666666665</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>13143.8201</v>
       </c>
       <c r="G43" t="n">
+        <v>49.91933333333336</v>
+      </c>
+      <c r="H43" t="n">
         <v>49.95699999999998</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>43940</v>
       </c>
       <c r="G44" t="n">
+        <v>49.86200000000003</v>
+      </c>
+      <c r="H44" t="n">
         <v>49.96466666666664</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>2000</v>
       </c>
       <c r="G45" t="n">
+        <v>49.79866666666669</v>
+      </c>
+      <c r="H45" t="n">
         <v>49.96649999999998</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>4082.0616</v>
       </c>
       <c r="G46" t="n">
+        <v>49.76733333333336</v>
+      </c>
+      <c r="H46" t="n">
         <v>49.96983333333331</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>1022.0805</v>
       </c>
       <c r="G47" t="n">
+        <v>49.71466666666669</v>
+      </c>
+      <c r="H47" t="n">
         <v>49.96583333333331</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>24105.5864</v>
       </c>
       <c r="G48" t="n">
+        <v>49.64600000000003</v>
+      </c>
+      <c r="H48" t="n">
         <v>49.95499999999997</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>62527.4374</v>
       </c>
       <c r="G49" t="n">
+        <v>49.59000000000002</v>
+      </c>
+      <c r="H49" t="n">
         <v>49.94416666666664</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>13597.514</v>
       </c>
       <c r="G50" t="n">
+        <v>49.54933333333336</v>
+      </c>
+      <c r="H50" t="n">
         <v>49.93549999999997</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>516.0033</v>
       </c>
       <c r="G51" t="n">
+        <v>49.50133333333336</v>
+      </c>
+      <c r="H51" t="n">
         <v>49.92166666666664</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>25736.096</v>
       </c>
       <c r="G52" t="n">
+        <v>49.45133333333335</v>
+      </c>
+      <c r="H52" t="n">
         <v>49.89366666666664</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>6717.2871</v>
       </c>
       <c r="G53" t="n">
+        <v>49.40333333333335</v>
+      </c>
+      <c r="H53" t="n">
         <v>49.87116666666665</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>21657</v>
       </c>
       <c r="G54" t="n">
+        <v>49.38400000000001</v>
+      </c>
+      <c r="H54" t="n">
         <v>49.85416666666664</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>111</v>
       </c>
       <c r="G55" t="n">
+        <v>49.33400000000002</v>
+      </c>
+      <c r="H55" t="n">
         <v>49.82966666666664</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>111</v>
       </c>
       <c r="G56" t="n">
+        <v>49.28733333333334</v>
+      </c>
+      <c r="H56" t="n">
         <v>49.81116666666664</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>515</v>
       </c>
       <c r="G57" t="n">
+        <v>49.22866666666667</v>
+      </c>
+      <c r="H57" t="n">
         <v>49.79283333333331</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>38711.41067586</v>
       </c>
       <c r="G58" t="n">
+        <v>49.188</v>
+      </c>
+      <c r="H58" t="n">
         <v>49.77949999999997</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>38202.9062</v>
       </c>
       <c r="G59" t="n">
+        <v>49.122</v>
+      </c>
+      <c r="H59" t="n">
         <v>49.7578333333333</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>15406.7919</v>
       </c>
       <c r="G60" t="n">
+        <v>49.04933333333334</v>
+      </c>
+      <c r="H60" t="n">
         <v>49.73533333333329</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>406.4844</v>
       </c>
       <c r="G61" t="n">
+        <v>48.96266666666666</v>
+      </c>
+      <c r="H61" t="n">
         <v>49.71266666666663</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>7024.84</v>
       </c>
       <c r="G62" t="n">
+        <v>48.88933333333333</v>
+      </c>
+      <c r="H62" t="n">
         <v>49.68849999999996</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>42223.7383</v>
       </c>
       <c r="G63" t="n">
+        <v>48.84</v>
+      </c>
+      <c r="H63" t="n">
         <v>49.66783333333329</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>52199.3645</v>
       </c>
       <c r="G64" t="n">
+        <v>48.766</v>
+      </c>
+      <c r="H64" t="n">
         <v>49.64116666666663</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>669.8071</v>
       </c>
       <c r="G65" t="n">
+        <v>48.68</v>
+      </c>
+      <c r="H65" t="n">
         <v>49.61416666666663</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>2578.8416</v>
       </c>
       <c r="G66" t="n">
+        <v>48.60733333333334</v>
+      </c>
+      <c r="H66" t="n">
         <v>49.5798333333333</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>17605.7705</v>
       </c>
       <c r="G67" t="n">
+        <v>48.54333333333333</v>
+      </c>
+      <c r="H67" t="n">
         <v>49.5468333333333</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>276</v>
       </c>
       <c r="G68" t="n">
+        <v>48.47933333333333</v>
+      </c>
+      <c r="H68" t="n">
         <v>49.51949999999997</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>43029.4891</v>
       </c>
       <c r="G69" t="n">
+        <v>48.35866666666666</v>
+      </c>
+      <c r="H69" t="n">
         <v>49.48649999999996</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>8447.291300000001</v>
       </c>
       <c r="G70" t="n">
+        <v>48.26933333333333</v>
+      </c>
+      <c r="H70" t="n">
         <v>49.4533333333333</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>2688.3066</v>
       </c>
       <c r="G71" t="n">
+        <v>48.18333333333333</v>
+      </c>
+      <c r="H71" t="n">
         <v>49.42016666666664</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>5205.531</v>
       </c>
       <c r="G72" t="n">
+        <v>48.10333333333333</v>
+      </c>
+      <c r="H72" t="n">
         <v>49.38716666666664</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>42686.7325</v>
       </c>
       <c r="G73" t="n">
+        <v>48.00533333333333</v>
+      </c>
+      <c r="H73" t="n">
         <v>49.34866666666664</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>3050.8146</v>
       </c>
       <c r="G74" t="n">
+        <v>47.95799999999999</v>
+      </c>
+      <c r="H74" t="n">
         <v>49.31216666666663</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>315</v>
       </c>
       <c r="G75" t="n">
+        <v>47.92333333333332</v>
+      </c>
+      <c r="H75" t="n">
         <v>49.27366666666664</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>35248.2825</v>
       </c>
       <c r="G76" t="n">
+        <v>47.88933333333333</v>
+      </c>
+      <c r="H76" t="n">
         <v>49.23516666666664</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>6592.6354</v>
       </c>
       <c r="G77" t="n">
+        <v>47.84866666666667</v>
+      </c>
+      <c r="H77" t="n">
         <v>49.19349999999997</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>19317.6077</v>
       </c>
       <c r="G78" t="n">
+        <v>47.81</v>
+      </c>
+      <c r="H78" t="n">
         <v>49.15349999999998</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>160.4551</v>
       </c>
       <c r="G79" t="n">
+        <v>47.796</v>
+      </c>
+      <c r="H79" t="n">
         <v>49.11266666666665</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>524.43374294</v>
       </c>
       <c r="G80" t="n">
+        <v>47.78733333333333</v>
+      </c>
+      <c r="H80" t="n">
         <v>49.07333333333332</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>343.5025</v>
       </c>
       <c r="G81" t="n">
+        <v>47.77333333333333</v>
+      </c>
+      <c r="H81" t="n">
         <v>49.03166666666665</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>10000</v>
       </c>
       <c r="G82" t="n">
+        <v>47.76599999999999</v>
+      </c>
+      <c r="H82" t="n">
         <v>48.99066666666666</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>23653.3979954</v>
       </c>
       <c r="G83" t="n">
+        <v>47.75733333333333</v>
+      </c>
+      <c r="H83" t="n">
         <v>48.95049999999998</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>472.2708</v>
       </c>
       <c r="G84" t="n">
+        <v>47.77666666666666</v>
+      </c>
+      <c r="H84" t="n">
         <v>48.90816666666665</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3607,21 @@
         <v>1367.2891</v>
       </c>
       <c r="G85" t="n">
+        <v>47.77066666666666</v>
+      </c>
+      <c r="H85" t="n">
         <v>48.85949999999998</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3645,21 @@
         <v>134</v>
       </c>
       <c r="G86" t="n">
+        <v>47.76466666666666</v>
+      </c>
+      <c r="H86" t="n">
         <v>48.81083333333331</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3683,21 @@
         <v>109</v>
       </c>
       <c r="G87" t="n">
+        <v>47.75866666666665</v>
+      </c>
+      <c r="H87" t="n">
         <v>48.76783333333331</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3721,21 @@
         <v>19212.2867</v>
       </c>
       <c r="G88" t="n">
+        <v>47.78199999999999</v>
+      </c>
+      <c r="H88" t="n">
         <v>48.72366666666665</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3759,21 @@
         <v>53715.1257</v>
       </c>
       <c r="G89" t="n">
+        <v>47.80333333333332</v>
+      </c>
+      <c r="H89" t="n">
         <v>48.68633333333332</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3797,21 @@
         <v>222</v>
       </c>
       <c r="G90" t="n">
+        <v>47.83999999999999</v>
+      </c>
+      <c r="H90" t="n">
         <v>48.65283333333332</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3835,21 @@
         <v>7573.0315</v>
       </c>
       <c r="G91" t="n">
+        <v>47.85466666666665</v>
+      </c>
+      <c r="H91" t="n">
         <v>48.61849999999999</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3873,21 @@
         <v>3333</v>
       </c>
       <c r="G92" t="n">
+        <v>47.88133333333332</v>
+      </c>
+      <c r="H92" t="n">
         <v>48.58349999999999</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3911,21 @@
         <v>15458.3388</v>
       </c>
       <c r="G93" t="n">
+        <v>47.86999999999999</v>
+      </c>
+      <c r="H93" t="n">
         <v>48.54149999999999</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +3949,21 @@
         <v>101.6211</v>
       </c>
       <c r="G94" t="n">
+        <v>47.86333333333333</v>
+      </c>
+      <c r="H94" t="n">
         <v>48.50383333333332</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +3987,21 @@
         <v>11202.2821</v>
       </c>
       <c r="G95" t="n">
+        <v>47.84666666666666</v>
+      </c>
+      <c r="H95" t="n">
         <v>48.46583333333332</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4025,21 @@
         <v>3455.7916</v>
       </c>
       <c r="G96" t="n">
+        <v>47.82666666666667</v>
+      </c>
+      <c r="H96" t="n">
         <v>48.42716666666665</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4063,21 @@
         <v>10054.8122</v>
       </c>
       <c r="G97" t="n">
+        <v>47.814</v>
+      </c>
+      <c r="H97" t="n">
         <v>48.39366666666665</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4101,21 @@
         <v>85308.1648</v>
       </c>
       <c r="G98" t="n">
+        <v>47.79266666666668</v>
+      </c>
+      <c r="H98" t="n">
         <v>48.35816666666665</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4139,21 @@
         <v>9205.933999999999</v>
       </c>
       <c r="G99" t="n">
+        <v>47.77133333333335</v>
+      </c>
+      <c r="H99" t="n">
         <v>48.32266666666666</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4177,21 @@
         <v>59367.8691</v>
       </c>
       <c r="G100" t="n">
+        <v>47.80533333333334</v>
+      </c>
+      <c r="H100" t="n">
         <v>48.29483333333334</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4215,21 @@
         <v>2149.203</v>
       </c>
       <c r="G101" t="n">
+        <v>47.86733333333335</v>
+      </c>
+      <c r="H101" t="n">
         <v>48.27566666666667</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4253,21 @@
         <v>158.3706</v>
       </c>
       <c r="G102" t="n">
+        <v>47.92466666666668</v>
+      </c>
+      <c r="H102" t="n">
         <v>48.25383333333333</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4291,21 @@
         <v>5524.6573</v>
       </c>
       <c r="G103" t="n">
+        <v>47.97133333333334</v>
+      </c>
+      <c r="H103" t="n">
         <v>48.23666666666667</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4329,21 @@
         <v>4468.8102</v>
       </c>
       <c r="G104" t="n">
+        <v>47.99066666666668</v>
+      </c>
+      <c r="H104" t="n">
         <v>48.2185</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4367,21 @@
         <v>10103.7829</v>
       </c>
       <c r="G105" t="n">
+        <v>47.99466666666667</v>
+      </c>
+      <c r="H105" t="n">
         <v>48.20183333333333</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4405,21 @@
         <v>20601.02905797</v>
       </c>
       <c r="G106" t="n">
+        <v>48.03600000000001</v>
+      </c>
+      <c r="H106" t="n">
         <v>48.18566666666667</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4443,21 @@
         <v>17874.9317</v>
       </c>
       <c r="G107" t="n">
+        <v>48.05</v>
+      </c>
+      <c r="H107" t="n">
         <v>48.16733333333334</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4481,21 @@
         <v>1853.27788604</v>
       </c>
       <c r="G108" t="n">
+        <v>48.11400000000001</v>
+      </c>
+      <c r="H108" t="n">
         <v>48.15850000000001</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4519,21 @@
         <v>4498.5065</v>
       </c>
       <c r="G109" t="n">
+        <v>48.17333333333334</v>
+      </c>
+      <c r="H109" t="n">
         <v>48.14966666666668</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4557,21 @@
         <v>6735.7781</v>
       </c>
       <c r="G110" t="n">
+        <v>48.23733333333335</v>
+      </c>
+      <c r="H110" t="n">
         <v>48.13783333333335</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4595,21 @@
         <v>5772.2051</v>
       </c>
       <c r="G111" t="n">
+        <v>48.28666666666668</v>
+      </c>
+      <c r="H111" t="n">
         <v>48.12350000000001</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4633,21 @@
         <v>19912.9184</v>
       </c>
       <c r="G112" t="n">
+        <v>48.34666666666668</v>
+      </c>
+      <c r="H112" t="n">
         <v>48.11750000000001</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4671,21 @@
         <v>55018.72504203</v>
       </c>
       <c r="G113" t="n">
+        <v>48.42400000000001</v>
+      </c>
+      <c r="H113" t="n">
         <v>48.11333333333334</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +4709,21 @@
         <v>732.9675</v>
       </c>
       <c r="G114" t="n">
+        <v>48.49933333333334</v>
+      </c>
+      <c r="H114" t="n">
         <v>48.10150000000001</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +4747,21 @@
         <v>11</v>
       </c>
       <c r="G115" t="n">
+        <v>48.54066666666667</v>
+      </c>
+      <c r="H115" t="n">
         <v>48.09650000000001</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +4785,21 @@
         <v>1842.2778</v>
       </c>
       <c r="G116" t="n">
+        <v>48.53733333333334</v>
+      </c>
+      <c r="H116" t="n">
         <v>48.08816666666668</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +4823,21 @@
         <v>972.9675</v>
       </c>
       <c r="G117" t="n">
+        <v>48.56533333333334</v>
+      </c>
+      <c r="H117" t="n">
         <v>48.08800000000002</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +4861,21 @@
         <v>748.7671</v>
       </c>
       <c r="G118" t="n">
+        <v>48.562</v>
+      </c>
+      <c r="H118" t="n">
         <v>48.08016666666669</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +4899,21 @@
         <v>748.1219</v>
       </c>
       <c r="G119" t="n">
+        <v>48.562</v>
+      </c>
+      <c r="H119" t="n">
         <v>48.07850000000003</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,18 +4937,21 @@
         <v>1231.5456</v>
       </c>
       <c r="G120" t="n">
+        <v>48.55733333333333</v>
+      </c>
+      <c r="H120" t="n">
         <v>48.07883333333336</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,18 +4975,21 @@
         <v>2204.8301</v>
       </c>
       <c r="G121" t="n">
+        <v>48.53466666666667</v>
+      </c>
+      <c r="H121" t="n">
         <v>48.07866666666668</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,18 +5013,21 @@
         <v>3100.1733</v>
       </c>
       <c r="G122" t="n">
+        <v>48.53999999999999</v>
+      </c>
+      <c r="H122" t="n">
         <v>48.08000000000002</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,18 +5051,21 @@
         <v>659.5367</v>
       </c>
       <c r="G123" t="n">
+        <v>48.51666666666666</v>
+      </c>
+      <c r="H123" t="n">
         <v>48.07766666666668</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,18 +5089,21 @@
         <v>964.6585</v>
       </c>
       <c r="G124" t="n">
+        <v>48.49066666666666</v>
+      </c>
+      <c r="H124" t="n">
         <v>48.08083333333334</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4753,18 +5127,21 @@
         <v>14864.3499</v>
       </c>
       <c r="G125" t="n">
+        <v>48.42933333333333</v>
+      </c>
+      <c r="H125" t="n">
         <v>48.07516666666667</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,18 +5165,21 @@
         <v>154.8553</v>
       </c>
       <c r="G126" t="n">
+        <v>48.39199999999998</v>
+      </c>
+      <c r="H126" t="n">
         <v>48.06966666666666</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4823,18 +5203,21 @@
         <v>3603.1236</v>
       </c>
       <c r="G127" t="n">
+        <v>48.31866666666665</v>
+      </c>
+      <c r="H127" t="n">
         <v>48.06133333333333</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,18 +5241,21 @@
         <v>8173.778</v>
       </c>
       <c r="G128" t="n">
+        <v>48.23266666666665</v>
+      </c>
+      <c r="H128" t="n">
         <v>48.05166666666666</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4893,18 +5279,21 @@
         <v>22327.8385</v>
       </c>
       <c r="G129" t="n">
+        <v>48.13933333333331</v>
+      </c>
+      <c r="H129" t="n">
         <v>48.04666666666667</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4928,18 +5317,27 @@
         <v>3245.4788</v>
       </c>
       <c r="G130" t="n">
+        <v>48.02933333333331</v>
+      </c>
+      <c r="H130" t="n">
         <v>48.0365</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="n">
+        <v>47.3</v>
+      </c>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4963,18 +5361,27 @@
         <v>28237.2026</v>
       </c>
       <c r="G131" t="n">
+        <v>47.92599999999998</v>
+      </c>
+      <c r="H131" t="n">
         <v>48.02383333333333</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="n">
+        <v>47</v>
+      </c>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,18 +5405,27 @@
         <v>27082.729</v>
       </c>
       <c r="G132" t="n">
+        <v>47.79066666666665</v>
+      </c>
+      <c r="H132" t="n">
         <v>48.00983333333333</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="n">
+        <v>46.85</v>
+      </c>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5033,18 +5449,27 @@
         <v>21800</v>
       </c>
       <c r="G133" t="n">
+        <v>47.65533333333332</v>
+      </c>
+      <c r="H133" t="n">
         <v>47.99266666666666</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>46.77</v>
+      </c>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5068,18 +5493,27 @@
         <v>600.6704</v>
       </c>
       <c r="G134" t="n">
+        <v>47.54199999999999</v>
+      </c>
+      <c r="H134" t="n">
         <v>47.9745</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="n">
+        <v>46.47</v>
+      </c>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5103,18 +5537,27 @@
         <v>51588.8034</v>
       </c>
       <c r="G135" t="n">
+        <v>47.43999999999998</v>
+      </c>
+      <c r="H135" t="n">
         <v>47.958</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="n">
+        <v>46.8</v>
+      </c>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5138,18 +5581,27 @@
         <v>9196.2107</v>
       </c>
       <c r="G136" t="n">
+        <v>47.34866666666665</v>
+      </c>
+      <c r="H136" t="n">
         <v>47.9435</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="n">
+        <v>46.9</v>
+      </c>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5173,18 +5625,27 @@
         <v>8908.611000000001</v>
       </c>
       <c r="G137" t="n">
+        <v>47.25666666666665</v>
+      </c>
+      <c r="H137" t="n">
         <v>47.93200000000001</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="n">
+        <v>47.02</v>
+      </c>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5208,18 +5669,27 @@
         <v>753.091</v>
       </c>
       <c r="G138" t="n">
+        <v>47.20066666666665</v>
+      </c>
+      <c r="H138" t="n">
         <v>47.92533333333334</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="n">
+        <v>47.01</v>
+      </c>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5243,18 +5713,25 @@
         <v>9846.3259</v>
       </c>
       <c r="G139" t="n">
+        <v>47.15133333333332</v>
+      </c>
+      <c r="H139" t="n">
         <v>47.91966666666667</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5278,18 +5755,25 @@
         <v>197931.4205</v>
       </c>
       <c r="G140" t="n">
+        <v>47.17266666666665</v>
+      </c>
+      <c r="H140" t="n">
         <v>47.9215</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5313,18 +5797,25 @@
         <v>101.6211</v>
       </c>
       <c r="G141" t="n">
+        <v>47.18066666666665</v>
+      </c>
+      <c r="H141" t="n">
         <v>47.9215</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5348,18 +5839,25 @@
         <v>5004</v>
       </c>
       <c r="G142" t="n">
+        <v>47.18799999999999</v>
+      </c>
+      <c r="H142" t="n">
         <v>47.91683333333334</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5383,18 +5881,25 @@
         <v>11</v>
       </c>
       <c r="G143" t="n">
+        <v>47.20866666666666</v>
+      </c>
+      <c r="H143" t="n">
         <v>47.9145</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5418,18 +5923,25 @@
         <v>929.621</v>
       </c>
       <c r="G144" t="n">
+        <v>47.24666666666666</v>
+      </c>
+      <c r="H144" t="n">
         <v>47.91416666666667</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5453,18 +5965,25 @@
         <v>783.9999</v>
       </c>
       <c r="G145" t="n">
+        <v>47.30466666666666</v>
+      </c>
+      <c r="H145" t="n">
         <v>47.92</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5488,18 +6007,25 @@
         <v>880.4998000000001</v>
       </c>
       <c r="G146" t="n">
+        <v>47.374</v>
+      </c>
+      <c r="H146" t="n">
         <v>47.92616666666667</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5523,18 +6049,25 @@
         <v>1696.5089</v>
       </c>
       <c r="G147" t="n">
+        <v>47.44866666666666</v>
+      </c>
+      <c r="H147" t="n">
         <v>47.93233333333333</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5558,18 +6091,25 @@
         <v>11989.7539</v>
       </c>
       <c r="G148" t="n">
+        <v>47.54333333333332</v>
+      </c>
+      <c r="H148" t="n">
         <v>47.933</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5593,18 +6133,25 @@
         <v>5532.2374</v>
       </c>
       <c r="G149" t="n">
+        <v>47.62933333333333</v>
+      </c>
+      <c r="H149" t="n">
         <v>47.931</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5628,18 +6175,25 @@
         <v>3568.3091</v>
       </c>
       <c r="G150" t="n">
+        <v>47.70933333333333</v>
+      </c>
+      <c r="H150" t="n">
         <v>47.92533333333333</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5663,18 +6217,25 @@
         <v>2504.447</v>
       </c>
       <c r="G151" t="n">
+        <v>47.768</v>
+      </c>
+      <c r="H151" t="n">
         <v>47.92183333333333</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5698,18 +6259,25 @@
         <v>102504.447</v>
       </c>
       <c r="G152" t="n">
+        <v>47.83333333333334</v>
+      </c>
+      <c r="H152" t="n">
         <v>47.91999999999999</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5733,18 +6301,25 @@
         <v>12002.11655931</v>
       </c>
       <c r="G153" t="n">
+        <v>47.882</v>
+      </c>
+      <c r="H153" t="n">
         <v>47.92833333333333</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5768,18 +6343,25 @@
         <v>888</v>
       </c>
       <c r="G154" t="n">
+        <v>47.918</v>
+      </c>
+      <c r="H154" t="n">
         <v>47.93333333333333</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,18 +6385,25 @@
         <v>45</v>
       </c>
       <c r="G155" t="n">
+        <v>47.91866666666667</v>
+      </c>
+      <c r="H155" t="n">
         <v>47.9395</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5838,18 +6427,25 @@
         <v>2050.425</v>
       </c>
       <c r="G156" t="n">
+        <v>47.92533333333333</v>
+      </c>
+      <c r="H156" t="n">
         <v>47.94616666666666</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5873,18 +6469,25 @@
         <v>100</v>
       </c>
       <c r="G157" t="n">
+        <v>47.94466666666666</v>
+      </c>
+      <c r="H157" t="n">
         <v>47.94950000000001</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5908,18 +6511,25 @@
         <v>100</v>
       </c>
       <c r="G158" t="n">
+        <v>47.95133333333333</v>
+      </c>
+      <c r="H158" t="n">
         <v>47.95416666666667</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5943,18 +6553,25 @@
         <v>501.3294</v>
       </c>
       <c r="G159" t="n">
+        <v>47.94666666666667</v>
+      </c>
+      <c r="H159" t="n">
         <v>47.958</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5978,18 +6595,25 @@
         <v>1618.6706</v>
       </c>
       <c r="G160" t="n">
+        <v>47.93533333333333</v>
+      </c>
+      <c r="H160" t="n">
         <v>47.95249999999999</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6013,18 +6637,25 @@
         <v>167.122</v>
       </c>
       <c r="G161" t="n">
+        <v>47.91999999999999</v>
+      </c>
+      <c r="H161" t="n">
         <v>47.93933333333333</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6048,18 +6679,25 @@
         <v>160.5498</v>
       </c>
       <c r="G162" t="n">
+        <v>47.90733333333333</v>
+      </c>
+      <c r="H162" t="n">
         <v>47.92799999999999</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6083,18 +6721,25 @@
         <v>6263.9932</v>
       </c>
       <c r="G163" t="n">
+        <v>47.90200000000001</v>
+      </c>
+      <c r="H163" t="n">
         <v>47.91566666666665</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6118,18 +6763,25 @@
         <v>34935.9269</v>
       </c>
       <c r="G164" t="n">
+        <v>47.89533333333334</v>
+      </c>
+      <c r="H164" t="n">
         <v>47.90716666666665</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6153,18 +6805,25 @@
         <v>94487.3233</v>
       </c>
       <c r="G165" t="n">
+        <v>47.89666666666667</v>
+      </c>
+      <c r="H165" t="n">
         <v>47.90083333333332</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6188,18 +6847,25 @@
         <v>1818.8734</v>
       </c>
       <c r="G166" t="n">
+        <v>47.91666666666667</v>
+      </c>
+      <c r="H166" t="n">
         <v>47.89199999999997</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6223,18 +6889,25 @@
         <v>46.6529</v>
       </c>
       <c r="G167" t="n">
+        <v>47.93133333333334</v>
+      </c>
+      <c r="H167" t="n">
         <v>47.89033333333331</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6258,18 +6931,25 @@
         <v>22258.023</v>
       </c>
       <c r="G168" t="n">
+        <v>47.92600000000001</v>
+      </c>
+      <c r="H168" t="n">
         <v>47.88133333333331</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6293,18 +6973,25 @@
         <v>9600</v>
       </c>
       <c r="G169" t="n">
+        <v>47.92933333333334</v>
+      </c>
+      <c r="H169" t="n">
         <v>47.87233333333332</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6328,18 +7015,25 @@
         <v>2818.0013</v>
       </c>
       <c r="G170" t="n">
+        <v>47.93266666666667</v>
+      </c>
+      <c r="H170" t="n">
         <v>47.86333333333332</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6363,18 +7057,25 @@
         <v>9100</v>
       </c>
       <c r="G171" t="n">
+        <v>47.93933333333334</v>
+      </c>
+      <c r="H171" t="n">
         <v>47.85933333333332</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6398,18 +7099,25 @@
         <v>571.895</v>
       </c>
       <c r="G172" t="n">
+        <v>47.94600000000001</v>
+      </c>
+      <c r="H172" t="n">
         <v>47.84933333333332</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6433,18 +7141,25 @@
         <v>1100</v>
       </c>
       <c r="G173" t="n">
+        <v>47.95266666666667</v>
+      </c>
+      <c r="H173" t="n">
         <v>47.83633333333331</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6468,18 +7183,25 @@
         <v>600.6704</v>
       </c>
       <c r="G174" t="n">
+        <v>47.96266666666668</v>
+      </c>
+      <c r="H174" t="n">
         <v>47.82383333333332</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6503,18 +7225,25 @@
         <v>33</v>
       </c>
       <c r="G175" t="n">
+        <v>47.99866666666667</v>
+      </c>
+      <c r="H175" t="n">
         <v>47.81699999999998</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6538,18 +7267,25 @@
         <v>70643.928</v>
       </c>
       <c r="G176" t="n">
+        <v>48.00800000000001</v>
+      </c>
+      <c r="H176" t="n">
         <v>47.80699999999998</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6573,18 +7309,25 @@
         <v>55000</v>
       </c>
       <c r="G177" t="n">
+        <v>48.00000000000001</v>
+      </c>
+      <c r="H177" t="n">
         <v>47.78666666666664</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6608,18 +7351,25 @@
         <v>70000</v>
       </c>
       <c r="G178" t="n">
+        <v>47.97333333333334</v>
+      </c>
+      <c r="H178" t="n">
         <v>47.76849999999997</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6643,18 +7393,25 @@
         <v>218909.8147</v>
       </c>
       <c r="G179" t="n">
+        <v>47.91400000000001</v>
+      </c>
+      <c r="H179" t="n">
         <v>47.74516666666663</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6678,18 +7435,25 @@
         <v>327.4438</v>
       </c>
       <c r="G180" t="n">
+        <v>47.86600000000001</v>
+      </c>
+      <c r="H180" t="n">
         <v>47.72799999999997</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6713,18 +7477,25 @@
         <v>62376.0466</v>
       </c>
       <c r="G181" t="n">
+        <v>47.78666666666667</v>
+      </c>
+      <c r="H181" t="n">
         <v>47.70499999999998</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6748,18 +7519,25 @@
         <v>6515.7166</v>
       </c>
       <c r="G182" t="n">
+        <v>47.69733333333333</v>
+      </c>
+      <c r="H182" t="n">
         <v>47.67966666666665</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6783,18 +7561,25 @@
         <v>193.8036</v>
       </c>
       <c r="G183" t="n">
+        <v>47.62733333333334</v>
+      </c>
+      <c r="H183" t="n">
         <v>47.65899999999998</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6818,18 +7603,25 @@
         <v>39360.9445</v>
       </c>
       <c r="G184" t="n">
+        <v>47.56400000000001</v>
+      </c>
+      <c r="H184" t="n">
         <v>47.64066666666665</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6853,18 +7645,25 @@
         <v>8633.179</v>
       </c>
       <c r="G185" t="n">
+        <v>47.50466666666668</v>
+      </c>
+      <c r="H185" t="n">
         <v>47.63216666666665</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6888,18 +7687,25 @@
         <v>5970.2682</v>
       </c>
       <c r="G186" t="n">
+        <v>47.45333333333335</v>
+      </c>
+      <c r="H186" t="n">
         <v>47.62466666666665</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6923,18 +7729,25 @@
         <v>1495.9769</v>
       </c>
       <c r="G187" t="n">
+        <v>47.39333333333335</v>
+      </c>
+      <c r="H187" t="n">
         <v>47.61799999999998</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6958,18 +7771,25 @@
         <v>124.1822</v>
       </c>
       <c r="G188" t="n">
+        <v>47.33000000000001</v>
+      </c>
+      <c r="H188" t="n">
         <v>47.61066666666665</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6993,18 +7813,25 @@
         <v>5084.5339</v>
       </c>
       <c r="G189" t="n">
+        <v>47.27333333333334</v>
+      </c>
+      <c r="H189" t="n">
         <v>47.60733333333331</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7028,18 +7855,25 @@
         <v>11</v>
       </c>
       <c r="G190" t="n">
+        <v>47.21066666666668</v>
+      </c>
+      <c r="H190" t="n">
         <v>47.61233333333332</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7063,18 +7897,25 @@
         <v>160.4886</v>
       </c>
       <c r="G191" t="n">
+        <v>47.17733333333334</v>
+      </c>
+      <c r="H191" t="n">
         <v>47.61983333333332</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7098,18 +7939,25 @@
         <v>3352.7478</v>
       </c>
       <c r="G192" t="n">
+        <v>47.18600000000001</v>
+      </c>
+      <c r="H192" t="n">
         <v>47.63549999999999</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7133,18 +7981,25 @@
         <v>4508.4856</v>
       </c>
       <c r="G193" t="n">
+        <v>47.212</v>
+      </c>
+      <c r="H193" t="n">
         <v>47.65766666666666</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7168,18 +8023,25 @@
         <v>4519.4856</v>
       </c>
       <c r="G194" t="n">
+        <v>47.27200000000001</v>
+      </c>
+      <c r="H194" t="n">
         <v>47.67766666666666</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7203,18 +8065,25 @@
         <v>6969.188</v>
       </c>
       <c r="G195" t="n">
+        <v>47.29266666666668</v>
+      </c>
+      <c r="H195" t="n">
         <v>47.69116666666665</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7238,18 +8107,25 @@
         <v>1827.3165</v>
       </c>
       <c r="G196" t="n">
+        <v>47.33600000000001</v>
+      </c>
+      <c r="H196" t="n">
         <v>47.70183333333332</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7273,18 +8149,25 @@
         <v>61.0104</v>
       </c>
       <c r="G197" t="n">
+        <v>47.38066666666667</v>
+      </c>
+      <c r="H197" t="n">
         <v>47.71066666666665</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7308,18 +8191,25 @@
         <v>12681.3614</v>
       </c>
       <c r="G198" t="n">
+        <v>47.40066666666667</v>
+      </c>
+      <c r="H198" t="n">
         <v>47.70899999999998</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7343,18 +8233,25 @@
         <v>1928.2866</v>
       </c>
       <c r="G199" t="n">
+        <v>47.40933333333333</v>
+      </c>
+      <c r="H199" t="n">
         <v>47.70516666666665</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7378,18 +8275,25 @@
         <v>44</v>
       </c>
       <c r="G200" t="n">
+        <v>47.41200000000001</v>
+      </c>
+      <c r="H200" t="n">
         <v>47.69199999999999</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7413,18 +8317,25 @@
         <v>99</v>
       </c>
       <c r="G201" t="n">
+        <v>47.40333333333334</v>
+      </c>
+      <c r="H201" t="n">
         <v>47.68033333333332</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7448,18 +8359,25 @@
         <v>235.1872</v>
       </c>
       <c r="G202" t="n">
+        <v>47.40200000000001</v>
+      </c>
+      <c r="H202" t="n">
         <v>47.67149999999997</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7483,18 +8401,25 @@
         <v>435.8209</v>
       </c>
       <c r="G203" t="n">
+        <v>47.39000000000001</v>
+      </c>
+      <c r="H203" t="n">
         <v>47.65599999999998</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7518,18 +8443,25 @@
         <v>79.6418</v>
       </c>
       <c r="G204" t="n">
+        <v>47.36800000000001</v>
+      </c>
+      <c r="H204" t="n">
         <v>47.63766666666665</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7553,18 +8485,25 @@
         <v>44998.2003</v>
       </c>
       <c r="G205" t="n">
+        <v>47.33200000000001</v>
+      </c>
+      <c r="H205" t="n">
         <v>47.61916666666665</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7588,18 +8527,25 @@
         <v>2594.0552</v>
       </c>
       <c r="G206" t="n">
+        <v>47.29733333333334</v>
+      </c>
+      <c r="H206" t="n">
         <v>47.60066666666666</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7623,18 +8569,25 @@
         <v>720.1162</v>
       </c>
       <c r="G207" t="n">
+        <v>47.23466666666668</v>
+      </c>
+      <c r="H207" t="n">
         <v>47.58199999999999</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7658,18 +8611,25 @@
         <v>66</v>
       </c>
       <c r="G208" t="n">
+        <v>47.16133333333335</v>
+      </c>
+      <c r="H208" t="n">
         <v>47.56216666666666</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7693,18 +8653,25 @@
         <v>15000</v>
       </c>
       <c r="G209" t="n">
+        <v>47.07466666666668</v>
+      </c>
+      <c r="H209" t="n">
         <v>47.53899999999999</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
       <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7728,18 +8695,25 @@
         <v>6742.6387</v>
       </c>
       <c r="G210" t="n">
+        <v>47.02333333333334</v>
+      </c>
+      <c r="H210" t="n">
         <v>47.51966666666666</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7763,18 +8737,25 @@
         <v>4093.753</v>
       </c>
       <c r="G211" t="n">
+        <v>46.97200000000001</v>
+      </c>
+      <c r="H211" t="n">
         <v>47.50283333333332</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7798,18 +8779,25 @@
         <v>118.3582</v>
       </c>
       <c r="G212" t="n">
+        <v>46.93600000000001</v>
+      </c>
+      <c r="H212" t="n">
         <v>47.48633333333332</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
       <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7833,18 +8821,25 @@
         <v>3787.8888</v>
       </c>
       <c r="G213" t="n">
+        <v>46.91600000000002</v>
+      </c>
+      <c r="H213" t="n">
         <v>47.46749999999999</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7868,18 +8863,25 @@
         <v>66121.93889999999</v>
       </c>
       <c r="G214" t="n">
+        <v>46.88133333333335</v>
+      </c>
+      <c r="H214" t="n">
         <v>47.44599999999999</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
       <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7903,18 +8905,25 @@
         <v>20382.7925</v>
       </c>
       <c r="G215" t="n">
+        <v>46.84800000000002</v>
+      </c>
+      <c r="H215" t="n">
         <v>47.42433333333332</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
       <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7938,18 +8947,25 @@
         <v>868.8561</v>
       </c>
       <c r="G216" t="n">
+        <v>46.82133333333335</v>
+      </c>
+      <c r="H216" t="n">
         <v>47.40433333333331</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
       <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7973,18 +8989,25 @@
         <v>697.1906</v>
       </c>
       <c r="G217" t="n">
+        <v>46.79600000000002</v>
+      </c>
+      <c r="H217" t="n">
         <v>47.38433333333331</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
       <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8008,18 +9031,25 @@
         <v>6147.7012</v>
       </c>
       <c r="G218" t="n">
+        <v>46.78133333333335</v>
+      </c>
+      <c r="H218" t="n">
         <v>47.36349999999997</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8043,24 +9073,25 @@
         <v>42606.1147</v>
       </c>
       <c r="G219" t="n">
+        <v>46.77666666666669</v>
+      </c>
+      <c r="H219" t="n">
         <v>47.34516666666664</v>
       </c>
-      <c r="H219" t="n">
-        <v>1</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
       <c r="J219" t="n">
-        <v>46.6</v>
+        <v>0</v>
       </c>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8084,24 +9115,25 @@
         <v>14600</v>
       </c>
       <c r="G220" t="n">
+        <v>46.76600000000003</v>
+      </c>
+      <c r="H220" t="n">
         <v>47.3268333333333</v>
       </c>
-      <c r="H220" t="n">
-        <v>1</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
       <c r="J220" t="n">
-        <v>46.7</v>
+        <v>0</v>
       </c>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8125,24 +9157,25 @@
         <v>257249.0776</v>
       </c>
       <c r="G221" t="n">
+        <v>46.75400000000003</v>
+      </c>
+      <c r="H221" t="n">
         <v>47.30916666666664</v>
       </c>
-      <c r="H221" t="n">
-        <v>1</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
       <c r="J221" t="n">
-        <v>46.6</v>
+        <v>0</v>
       </c>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8166,22 +9199,25 @@
         <v>3277</v>
       </c>
       <c r="G222" t="n">
+        <v>46.71933333333336</v>
+      </c>
+      <c r="H222" t="n">
         <v>47.28499999999998</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8205,22 +9241,25 @@
         <v>8894.838599999999</v>
       </c>
       <c r="G223" t="n">
+        <v>46.68266666666669</v>
+      </c>
+      <c r="H223" t="n">
         <v>47.25733333333331</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8244,22 +9283,25 @@
         <v>528</v>
       </c>
       <c r="G224" t="n">
+        <v>46.62266666666668</v>
+      </c>
+      <c r="H224" t="n">
         <v>47.22083333333332</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8283,22 +9325,25 @@
         <v>13365.3147</v>
       </c>
       <c r="G225" t="n">
+        <v>46.57066666666667</v>
+      </c>
+      <c r="H225" t="n">
         <v>47.18816666666665</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
-        <v>1</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8322,22 +9367,25 @@
         <v>698.4225</v>
       </c>
       <c r="G226" t="n">
+        <v>46.51133333333335</v>
+      </c>
+      <c r="H226" t="n">
         <v>47.15149999999998</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
-        <v>1</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8361,22 +9409,25 @@
         <v>5599.5111</v>
       </c>
       <c r="G227" t="n">
+        <v>46.44466666666668</v>
+      </c>
+      <c r="H227" t="n">
         <v>47.11466666666665</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8400,22 +9451,25 @@
         <v>216.1761</v>
       </c>
       <c r="G228" t="n">
+        <v>46.39066666666668</v>
+      </c>
+      <c r="H228" t="n">
         <v>47.08366666666665</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8439,22 +9493,25 @@
         <v>10000</v>
       </c>
       <c r="G229" t="n">
+        <v>46.34333333333334</v>
+      </c>
+      <c r="H229" t="n">
         <v>47.04949999999998</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8478,22 +9535,25 @@
         <v>9800</v>
       </c>
       <c r="G230" t="n">
+        <v>46.29666666666667</v>
+      </c>
+      <c r="H230" t="n">
         <v>47.01533333333331</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M230" t="n">
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8517,22 +9577,27 @@
         <v>16927.9164</v>
       </c>
       <c r="G231" t="n">
+        <v>46.25</v>
+      </c>
+      <c r="H231" t="n">
         <v>46.98199999999998</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
+      <c r="K231" t="n">
+        <v>46</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8556,22 +9621,27 @@
         <v>16.3618</v>
       </c>
       <c r="G232" t="n">
+        <v>46.20333333333333</v>
+      </c>
+      <c r="H232" t="n">
         <v>46.94866666666665</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
+      <c r="K232" t="n">
+        <v>46</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8595,22 +9665,25 @@
         <v>3872.1397</v>
       </c>
       <c r="G233" t="n">
+        <v>46.188</v>
+      </c>
+      <c r="H233" t="n">
         <v>46.92233333333331</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8634,22 +9707,25 @@
         <v>18000</v>
       </c>
       <c r="G234" t="n">
+        <v>46.16599999999999</v>
+      </c>
+      <c r="H234" t="n">
         <v>46.89599999999998</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M234" t="n">
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8673,22 +9749,25 @@
         <v>10000</v>
       </c>
       <c r="G235" t="n">
+        <v>46.14933333333332</v>
+      </c>
+      <c r="H235" t="n">
         <v>46.86449999999999</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M235" t="n">
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8712,22 +9791,25 @@
         <v>10000</v>
       </c>
       <c r="G236" t="n">
+        <v>46.11599999999999</v>
+      </c>
+      <c r="H236" t="n">
         <v>46.83616666666664</v>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M236" t="n">
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8751,22 +9833,25 @@
         <v>5500</v>
       </c>
       <c r="G237" t="n">
+        <v>46.13266666666666</v>
+      </c>
+      <c r="H237" t="n">
         <v>46.81816666666665</v>
       </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M237" t="n">
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8790,22 +9875,445 @@
         <v>2122.074</v>
       </c>
       <c r="G238" t="n">
+        <v>46.16</v>
+      </c>
+      <c r="H238" t="n">
         <v>46.80399999999998</v>
       </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M238" t="n">
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N238" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>46.56</v>
+      </c>
+      <c r="C239" t="n">
+        <v>46.56</v>
+      </c>
+      <c r="D239" t="n">
+        <v>46.56</v>
+      </c>
+      <c r="E239" t="n">
+        <v>46.56</v>
+      </c>
+      <c r="F239" t="n">
+        <v>413.8171</v>
+      </c>
+      <c r="G239" t="n">
+        <v>46.21066666666668</v>
+      </c>
+      <c r="H239" t="n">
+        <v>46.79499999999998</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N239" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>46.56</v>
+      </c>
+      <c r="C240" t="n">
+        <v>46.56</v>
+      </c>
+      <c r="D240" t="n">
+        <v>46.56</v>
+      </c>
+      <c r="E240" t="n">
+        <v>46.56</v>
+      </c>
+      <c r="F240" t="n">
+        <v>11651.5122</v>
+      </c>
+      <c r="G240" t="n">
+        <v>46.23733333333334</v>
+      </c>
+      <c r="H240" t="n">
+        <v>46.78099999999998</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N240" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>46.56</v>
+      </c>
+      <c r="C241" t="n">
+        <v>46.56</v>
+      </c>
+      <c r="D241" t="n">
+        <v>46.56</v>
+      </c>
+      <c r="E241" t="n">
+        <v>46.56</v>
+      </c>
+      <c r="F241" t="n">
+        <v>66478.7209</v>
+      </c>
+      <c r="G241" t="n">
+        <v>46.27466666666668</v>
+      </c>
+      <c r="H241" t="n">
+        <v>46.77349999999998</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N241" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="C242" t="n">
+        <v>47.59</v>
+      </c>
+      <c r="D242" t="n">
+        <v>47.59</v>
+      </c>
+      <c r="E242" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="F242" t="n">
+        <v>207.6369</v>
+      </c>
+      <c r="G242" t="n">
+        <v>46.38066666666668</v>
+      </c>
+      <c r="H242" t="n">
+        <v>46.78549999999998</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
+      <c r="M242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N242" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>47.78</v>
+      </c>
+      <c r="C243" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="D243" t="n">
+        <v>47.85</v>
+      </c>
+      <c r="E243" t="n">
+        <v>47.78</v>
+      </c>
+      <c r="F243" t="n">
+        <v>69799.48850989999</v>
+      </c>
+      <c r="G243" t="n">
+        <v>46.49133333333334</v>
+      </c>
+      <c r="H243" t="n">
+        <v>46.79966666666665</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
+      <c r="M243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N243" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>47.51</v>
+      </c>
+      <c r="C244" t="n">
+        <v>47.51</v>
+      </c>
+      <c r="D244" t="n">
+        <v>47.51</v>
+      </c>
+      <c r="E244" t="n">
+        <v>47.51</v>
+      </c>
+      <c r="F244" t="n">
+        <v>1110</v>
+      </c>
+      <c r="G244" t="n">
+        <v>46.59200000000001</v>
+      </c>
+      <c r="H244" t="n">
+        <v>46.80649999999999</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N244" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="C245" t="n">
+        <v>47.46</v>
+      </c>
+      <c r="D245" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="E245" t="n">
+        <v>47.46</v>
+      </c>
+      <c r="F245" t="n">
+        <v>1182.9223</v>
+      </c>
+      <c r="G245" t="n">
+        <v>46.68933333333334</v>
+      </c>
+      <c r="H245" t="n">
+        <v>46.81149999999999</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
+      <c r="M245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N245" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="C246" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="D246" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="E246" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="F246" t="n">
+        <v>1110</v>
+      </c>
+      <c r="G246" t="n">
+        <v>46.776</v>
+      </c>
+      <c r="H246" t="n">
+        <v>46.81266666666666</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
+      <c r="M246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N246" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>47.05</v>
+      </c>
+      <c r="C247" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="D247" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="E247" t="n">
+        <v>47.05</v>
+      </c>
+      <c r="F247" t="n">
+        <v>3287.5795</v>
+      </c>
+      <c r="G247" t="n">
+        <v>46.876</v>
+      </c>
+      <c r="H247" t="n">
+        <v>46.81933333333333</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
+      <c r="M247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N247" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>47.49</v>
+      </c>
+      <c r="C248" t="n">
+        <v>47.49</v>
+      </c>
+      <c r="D248" t="n">
+        <v>47.49</v>
+      </c>
+      <c r="E248" t="n">
+        <v>47.49</v>
+      </c>
+      <c r="F248" t="n">
+        <v>1100</v>
+      </c>
+      <c r="G248" t="n">
+        <v>46.95066666666667</v>
+      </c>
+      <c r="H248" t="n">
+        <v>46.82749999999999</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
+      <c r="M248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N248" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-24 BackTest XEM.xlsx
+++ b/BackTest/2020-01-24 BackTest XEM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1243,7 +1243,7 @@
         <v>-112033.25492621</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-93992.96840944001</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-258949.91380944</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-6768.176709440013</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-148126.52535409</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-138126.52535409</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-141006.76125409</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-90087.25405409001</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-119005.59245409</v>
       </c>
       <c r="H42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-24278.73725409001</v>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>6228.48274590999</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>6261.48274590999</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>6261.48274590999</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>17951.01584590999</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>75846.49674591</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>256008.62304396</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>86893.63264395998</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>124958.21524396</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>120583.30846815</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>93650.61048533997</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>87189.63098533997</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>87189.63098533997</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>149507.30340702</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>158598.94250702</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>210690.23970702</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>220631.58190702</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>204946.74899458</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>244271.25170702</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>312979.01811613</v>
       </c>
       <c r="H84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>272978.45071613</v>
       </c>
       <c r="H86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>270673.26231613</v>
       </c>
       <c r="H87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>270673.26231613</v>
       </c>
       <c r="H88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>197787.09361613</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>196628.22511613</v>
       </c>
       <c r="H91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-16303.53078387002</v>
       </c>
       <c r="H92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-153428.20248387</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-199881.59188387</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-332283.86968387</v>
       </c>
       <c r="H95" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-333006.08288387</v>
       </c>
       <c r="H96" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-333006.08288387</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-333006.08288387</v>
       </c>
       <c r="H98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-352160.09778387</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-343360.62978387</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-356504.44988387</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-312564.44988387</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-314564.44988387</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-310482.38828387</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-311504.46878387</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-335610.05518387</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-335610.05518387</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-322012.54118387</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-322528.54448387</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-348264.64048387</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-341547.35338387</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-319890.35338387</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-370538.36190801</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-413291.85100801</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-404844.55970801</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-404844.55970801</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-447531.29220801</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-444480.47760801</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-444480.47760801</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-444480.47760801</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-451073.11300801</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-431755.50530801</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-465814.8545790301</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-414226.0511790302</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-405029.8404790302</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-413185.3604790301</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-403339.0345790301</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-205407.6140790301</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-205509.2351790301</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-210513.2351790301</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-210502.2351790301</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-539977.3932197199</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I287" t="n">
         <v>46.19</v>
@@ -9895,7 +9895,7 @@
         <v>-539977.3932197199</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I288" t="n">
         <v>46</v>
@@ -9934,7 +9934,7 @@
         <v>-539977.3932197199</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I289" t="n">
         <v>46</v>
@@ -9973,7 +9973,7 @@
         <v>-539977.3932197199</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I290" t="n">
         <v>46</v>
@@ -10012,7 +10012,7 @@
         <v>-536105.2535197198</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I291" t="n">
         <v>46</v>
@@ -10051,7 +10051,7 @@
         <v>-536105.2535197198</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I292" t="n">
         <v>46.37</v>
@@ -10090,9 +10090,11 @@
         <v>-546105.2535197198</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>46.37</v>
+      </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr">
         <is>
@@ -10164,9 +10166,11 @@
         <v>-550605.2535197198</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>46.1</v>
+      </c>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr">
         <is>
@@ -10201,9 +10205,11 @@
         <v>-548483.1795197198</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>46.5</v>
+      </c>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr">
         <is>
@@ -10586,6 +10592,6 @@
       <c r="M306" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest XEM.xlsx
+++ b/BackTest/2020-01-24 BackTest XEM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1111,7 +1111,7 @@
         <v>-155600.02982621</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-205844.82172621</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-111866.64322621</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-112033.25492621</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-112033.25492621</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-112480.01482621</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-79346.83492621001</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-143837.05652621</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-106644.92501903</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-103134.16301903</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-102576.75421903</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-93992.96840944001</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-258949.91380944</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-6768.176709440013</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-148126.52535409</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-138126.52535409</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-119005.59245409</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-24278.73725409001</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-1348.14395409001</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>6228.48274590999</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>149507.30340702</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>158598.94250702</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>210690.23970702</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>220631.58190702</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>204946.74899458</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>197787.09361613</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>196628.22511613</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-16303.53078387002</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-153428.20248387</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-199881.59188387</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-332283.86968387</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-333006.08288387</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-333006.08288387</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-333006.08288387</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-352160.09778387</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-343360.62978387</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-356504.44988387</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-312564.44988387</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-314564.44988387</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-310482.38828387</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-311504.46878387</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-335610.05518387</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-335610.05518387</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-322012.54118387</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-322528.54448387</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-348264.64048387</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-341547.35338387</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-319890.35338387</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-389295.5933790301</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-417532.7959790301</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-183270.6298197201</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-402180.44451972</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-401853.00071972</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -9856,366 +9856,356 @@
         <v>-539977.3932197199</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I287" t="n">
-        <v>46.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="n">
+        <v>46</v>
+      </c>
+      <c r="C288" t="n">
+        <v>46</v>
+      </c>
+      <c r="D288" t="n">
+        <v>46</v>
+      </c>
+      <c r="E288" t="n">
+        <v>46</v>
+      </c>
+      <c r="F288" t="n">
+        <v>9800</v>
+      </c>
+      <c r="G288" t="n">
+        <v>-539977.3932197199</v>
+      </c>
+      <c r="H288" t="n">
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="n">
+        <v>46</v>
+      </c>
+      <c r="C289" t="n">
+        <v>46</v>
+      </c>
+      <c r="D289" t="n">
+        <v>46</v>
+      </c>
+      <c r="E289" t="n">
+        <v>46</v>
+      </c>
+      <c r="F289" t="n">
+        <v>16927.9164</v>
+      </c>
+      <c r="G289" t="n">
+        <v>-539977.3932197199</v>
+      </c>
+      <c r="H289" t="n">
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="n">
+        <v>46</v>
+      </c>
+      <c r="C290" t="n">
+        <v>46</v>
+      </c>
+      <c r="D290" t="n">
+        <v>46</v>
+      </c>
+      <c r="E290" t="n">
+        <v>46</v>
+      </c>
+      <c r="F290" t="n">
+        <v>16.3618</v>
+      </c>
+      <c r="G290" t="n">
+        <v>-539977.3932197199</v>
+      </c>
+      <c r="H290" t="n">
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>46</v>
+      </c>
+      <c r="J290" t="n">
+        <v>46</v>
+      </c>
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="n">
+        <v>46.37</v>
+      </c>
+      <c r="C291" t="n">
+        <v>46.37</v>
+      </c>
+      <c r="D291" t="n">
+        <v>46.37</v>
+      </c>
+      <c r="E291" t="n">
+        <v>46.37</v>
+      </c>
+      <c r="F291" t="n">
+        <v>3872.1397</v>
+      </c>
+      <c r="G291" t="n">
+        <v>-536105.2535197198</v>
+      </c>
+      <c r="H291" t="n">
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>46</v>
+      </c>
+      <c r="J291" t="n">
+        <v>46</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="n">
+        <v>46.37</v>
+      </c>
+      <c r="C292" t="n">
+        <v>46.37</v>
+      </c>
+      <c r="D292" t="n">
+        <v>46.37</v>
+      </c>
+      <c r="E292" t="n">
+        <v>46.37</v>
+      </c>
+      <c r="F292" t="n">
+        <v>18000</v>
+      </c>
+      <c r="G292" t="n">
+        <v>-536105.2535197198</v>
+      </c>
+      <c r="H292" t="n">
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>46.37</v>
+      </c>
+      <c r="J292" t="n">
+        <v>46</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="n">
+        <v>46.35</v>
+      </c>
+      <c r="C293" t="n">
+        <v>46.35</v>
+      </c>
+      <c r="D293" t="n">
+        <v>46.35</v>
+      </c>
+      <c r="E293" t="n">
+        <v>46.35</v>
+      </c>
+      <c r="F293" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G293" t="n">
+        <v>-546105.2535197198</v>
+      </c>
+      <c r="H293" t="n">
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>46.37</v>
+      </c>
+      <c r="J293" t="n">
+        <v>46.37</v>
+      </c>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="C294" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="D294" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="E294" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="F294" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G294" t="n">
+        <v>-556105.2535197198</v>
+      </c>
+      <c r="H294" t="n">
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>46.35</v>
+      </c>
+      <c r="J294" t="n">
+        <v>46.37</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="n">
+        <v>46.38</v>
+      </c>
+      <c r="C295" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="D295" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="E295" t="n">
+        <v>46.38</v>
+      </c>
+      <c r="F295" t="n">
+        <v>5500</v>
+      </c>
+      <c r="G295" t="n">
+        <v>-550605.2535197198</v>
+      </c>
+      <c r="H295" t="n">
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>46.1</v>
+      </c>
+      <c r="J295" t="n">
+        <v>46.37</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="C296" t="n">
+        <v>46.56</v>
+      </c>
+      <c r="D296" t="n">
+        <v>46.56</v>
+      </c>
+      <c r="E296" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="F296" t="n">
+        <v>2122.074</v>
+      </c>
+      <c r="G296" t="n">
+        <v>-548483.1795197198</v>
+      </c>
+      <c r="H296" t="n">
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>46.5</v>
+      </c>
+      <c r="J296" t="n">
+        <v>46.37</v>
+      </c>
+      <c r="K296" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
-        <v>286</v>
-      </c>
-      <c r="B288" t="n">
-        <v>46</v>
-      </c>
-      <c r="C288" t="n">
-        <v>46</v>
-      </c>
-      <c r="D288" t="n">
-        <v>46</v>
-      </c>
-      <c r="E288" t="n">
-        <v>46</v>
-      </c>
-      <c r="F288" t="n">
-        <v>9800</v>
-      </c>
-      <c r="G288" t="n">
-        <v>-539977.3932197199</v>
-      </c>
-      <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>46</v>
-      </c>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
-        <v>287</v>
-      </c>
-      <c r="B289" t="n">
-        <v>46</v>
-      </c>
-      <c r="C289" t="n">
-        <v>46</v>
-      </c>
-      <c r="D289" t="n">
-        <v>46</v>
-      </c>
-      <c r="E289" t="n">
-        <v>46</v>
-      </c>
-      <c r="F289" t="n">
-        <v>16927.9164</v>
-      </c>
-      <c r="G289" t="n">
-        <v>-539977.3932197199</v>
-      </c>
-      <c r="H289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I289" t="n">
-        <v>46</v>
-      </c>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
-        <v>288</v>
-      </c>
-      <c r="B290" t="n">
-        <v>46</v>
-      </c>
-      <c r="C290" t="n">
-        <v>46</v>
-      </c>
-      <c r="D290" t="n">
-        <v>46</v>
-      </c>
-      <c r="E290" t="n">
-        <v>46</v>
-      </c>
-      <c r="F290" t="n">
-        <v>16.3618</v>
-      </c>
-      <c r="G290" t="n">
-        <v>-539977.3932197199</v>
-      </c>
-      <c r="H290" t="n">
-        <v>1</v>
-      </c>
-      <c r="I290" t="n">
-        <v>46</v>
-      </c>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
-        <v>289</v>
-      </c>
-      <c r="B291" t="n">
-        <v>46.37</v>
-      </c>
-      <c r="C291" t="n">
-        <v>46.37</v>
-      </c>
-      <c r="D291" t="n">
-        <v>46.37</v>
-      </c>
-      <c r="E291" t="n">
-        <v>46.37</v>
-      </c>
-      <c r="F291" t="n">
-        <v>3872.1397</v>
-      </c>
-      <c r="G291" t="n">
-        <v>-536105.2535197198</v>
-      </c>
-      <c r="H291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I291" t="n">
-        <v>46</v>
-      </c>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
-        <v>290</v>
-      </c>
-      <c r="B292" t="n">
-        <v>46.37</v>
-      </c>
-      <c r="C292" t="n">
-        <v>46.37</v>
-      </c>
-      <c r="D292" t="n">
-        <v>46.37</v>
-      </c>
-      <c r="E292" t="n">
-        <v>46.37</v>
-      </c>
-      <c r="F292" t="n">
-        <v>18000</v>
-      </c>
-      <c r="G292" t="n">
-        <v>-536105.2535197198</v>
-      </c>
-      <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="n">
-        <v>46.37</v>
-      </c>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
-        <v>291</v>
-      </c>
-      <c r="B293" t="n">
-        <v>46.35</v>
-      </c>
-      <c r="C293" t="n">
-        <v>46.35</v>
-      </c>
-      <c r="D293" t="n">
-        <v>46.35</v>
-      </c>
-      <c r="E293" t="n">
-        <v>46.35</v>
-      </c>
-      <c r="F293" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G293" t="n">
-        <v>-546105.2535197198</v>
-      </c>
-      <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
-        <v>46.37</v>
-      </c>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
-        <v>292</v>
-      </c>
-      <c r="B294" t="n">
-        <v>46.1</v>
-      </c>
-      <c r="C294" t="n">
-        <v>46.1</v>
-      </c>
-      <c r="D294" t="n">
-        <v>46.1</v>
-      </c>
-      <c r="E294" t="n">
-        <v>46.1</v>
-      </c>
-      <c r="F294" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G294" t="n">
-        <v>-556105.2535197198</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
-        <v>293</v>
-      </c>
-      <c r="B295" t="n">
-        <v>46.38</v>
-      </c>
-      <c r="C295" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="D295" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="E295" t="n">
-        <v>46.38</v>
-      </c>
-      <c r="F295" t="n">
-        <v>5500</v>
-      </c>
-      <c r="G295" t="n">
-        <v>-550605.2535197198</v>
-      </c>
-      <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="n">
-        <v>46.1</v>
-      </c>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
-        <v>294</v>
-      </c>
-      <c r="B296" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="C296" t="n">
-        <v>46.56</v>
-      </c>
-      <c r="D296" t="n">
-        <v>46.56</v>
-      </c>
-      <c r="E296" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="F296" t="n">
-        <v>2122.074</v>
-      </c>
-      <c r="G296" t="n">
-        <v>-548483.1795197198</v>
-      </c>
-      <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10244,10 +10234,14 @@
         <v>-548483.1795197198</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>46.56</v>
+      </c>
+      <c r="J297" t="n">
+        <v>46.37</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10281,10 +10275,14 @@
         <v>-548483.1795197198</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>46.56</v>
+      </c>
+      <c r="J298" t="n">
+        <v>46.37</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10318,10 +10316,14 @@
         <v>-548483.1795197198</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>46.56</v>
+      </c>
+      <c r="J299" t="n">
+        <v>46.37</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10358,7 +10360,9 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>46.37</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10395,7 +10399,9 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>46.37</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10432,7 +10438,9 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>46.37</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10469,7 +10477,9 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>46.37</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10506,7 +10516,9 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>46.37</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10543,7 +10555,9 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>46.37</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10580,7 +10594,9 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>46.37</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10592,6 +10608,6 @@
       <c r="M306" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest XEM.xlsx
+++ b/BackTest/2020-01-24 BackTest XEM.xlsx
@@ -1111,7 +1111,7 @@
         <v>-155600.02982621</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-205844.82172621</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-111866.64322621</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-112033.25492621</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-112033.25492621</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-112480.01482621</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-79346.83492621001</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-143837.05652621</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-106644.92501903</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-103134.16301903</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-102576.75421903</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-93992.96840944001</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-258949.91380944</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-6768.176709440013</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-148126.52535409</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-138126.52535409</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-119005.59245409</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-24278.73725409001</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-1348.14395409001</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>6228.48274590999</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>86893.63264395998</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>107694.66958534</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>92918.59708533998</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>93650.61048533997</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>87189.63098533997</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>87189.63098533997</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>87189.63098533997</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>82731.24348533998</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>176731.58938534</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>166731.58938534</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>163398.03262437</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>160299.01100702</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>160317.01100702</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>160317.01100702</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>149507.30340702</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>210690.23970702</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>220631.58190702</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>220631.58190702</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>220631.58190702</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>220631.58190702</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>220830.60439458</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>204946.74899458</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>211429.45729458</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>216061.65020702</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>200763.98230702</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>244271.25170702</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>312979.01811613</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>312979.01811613</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>253330.73811613</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>272978.45071613</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>270673.26231613</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>270673.26231613</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>170704.36461613</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>197787.09361613</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>196628.22511613</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-16303.53078387002</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-153428.20248387</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-199881.59188387</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-389295.5933790301</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-417532.7959790301</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-183270.6298197201</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-402180.44451972</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-401853.00071972</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -10357,9 +10357,11 @@
         <v>-548275.5426197198</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>46.56</v>
+      </c>
       <c r="J300" t="n">
         <v>46.37</v>
       </c>
@@ -10396,9 +10398,11 @@
         <v>-478476.0541098198</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>47.59</v>
+      </c>
       <c r="J301" t="n">
         <v>46.37</v>
       </c>

--- a/BackTest/2020-01-24 BackTest XEM.xlsx
+++ b/BackTest/2020-01-24 BackTest XEM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M306"/>
+  <dimension ref="A1:L306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>72881.7412</v>
       </c>
       <c r="G2" t="n">
-        <v>-215325.44162621</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>1100</v>
       </c>
       <c r="G3" t="n">
-        <v>-215325.44162621</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>717.9301</v>
       </c>
       <c r="G4" t="n">
-        <v>-215325.44162621</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>21226.2141</v>
       </c>
       <c r="G5" t="n">
-        <v>-236551.65572621</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>154.0112</v>
       </c>
       <c r="G6" t="n">
-        <v>-236397.64452621</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>13723.903</v>
       </c>
       <c r="G7" t="n">
-        <v>-222673.74152621</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>2112.3925</v>
       </c>
       <c r="G8" t="n">
-        <v>-220561.34902621</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>11928.6837</v>
       </c>
       <c r="G9" t="n">
-        <v>-232490.03272621</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>1370</v>
       </c>
       <c r="G10" t="n">
-        <v>-231120.03272621</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>342</v>
       </c>
       <c r="G11" t="n">
-        <v>-231120.03272621</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>1198</v>
       </c>
       <c r="G12" t="n">
-        <v>-232318.03272621</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>1388</v>
       </c>
       <c r="G13" t="n">
-        <v>-233706.03272621</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>8414</v>
       </c>
       <c r="G14" t="n">
-        <v>-225292.03272621</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>1164.0469</v>
       </c>
       <c r="G15" t="n">
-        <v>-224127.98582621</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>7600</v>
       </c>
       <c r="G16" t="n">
-        <v>-216527.98582621</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>3213.7958</v>
       </c>
       <c r="G17" t="n">
-        <v>-213314.19002621</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>419.6492</v>
       </c>
       <c r="G18" t="n">
-        <v>-212894.54082621</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>2936.6888</v>
       </c>
       <c r="G19" t="n">
-        <v>-209957.85202621</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>3533.0574</v>
       </c>
       <c r="G20" t="n">
-        <v>-206424.79462621</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>20824.7648</v>
       </c>
       <c r="G21" t="n">
-        <v>-185600.02982621</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>30000</v>
       </c>
       <c r="G22" t="n">
-        <v>-155600.02982621</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>50244.7919</v>
       </c>
       <c r="G23" t="n">
-        <v>-205844.82172621</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>93978.17849999999</v>
       </c>
       <c r="G24" t="n">
-        <v>-111866.64322621</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>166.6117</v>
       </c>
       <c r="G25" t="n">
-        <v>-112033.25492621</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>155.603</v>
       </c>
       <c r="G26" t="n">
-        <v>-112033.25492621</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>446.7599</v>
       </c>
       <c r="G27" t="n">
-        <v>-112480.01482621</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>33133.1799</v>
       </c>
       <c r="G28" t="n">
-        <v>-79346.83492621001</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>64490.2216</v>
       </c>
       <c r="G29" t="n">
-        <v>-143837.05652621</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>37192.13150718</v>
       </c>
       <c r="G30" t="n">
-        <v>-106644.92501903</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>3510.762</v>
       </c>
       <c r="G31" t="n">
-        <v>-103134.16301903</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>557.4088</v>
       </c>
       <c r="G32" t="n">
-        <v>-102576.75421903</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>8583.785809589999</v>
       </c>
       <c r="G33" t="n">
-        <v>-93992.96840944001</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>164956.9454</v>
       </c>
       <c r="G34" t="n">
-        <v>-258949.91380944</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>252181.7371</v>
       </c>
       <c r="G35" t="n">
-        <v>-6768.176709440013</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>141358.34864465</v>
       </c>
       <c r="G36" t="n">
-        <v>-148126.52535409</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>10000</v>
       </c>
       <c r="G37" t="n">
-        <v>-138126.52535409</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>2880.2359</v>
       </c>
       <c r="G38" t="n">
-        <v>-141006.76125409</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>11519.7564</v>
       </c>
       <c r="G39" t="n">
-        <v>-152526.51765409</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>10439.9999</v>
       </c>
       <c r="G40" t="n">
-        <v>-142086.51775409</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>51999.2637</v>
       </c>
       <c r="G41" t="n">
-        <v>-90087.25405409001</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>28918.3384</v>
       </c>
       <c r="G42" t="n">
-        <v>-119005.59245409</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>94726.85520000001</v>
       </c>
       <c r="G43" t="n">
-        <v>-24278.73725409001</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>22930.5933</v>
       </c>
       <c r="G44" t="n">
-        <v>-1348.14395409001</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>7576.6267</v>
       </c>
       <c r="G45" t="n">
-        <v>6228.48274590999</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>33</v>
       </c>
       <c r="G46" t="n">
-        <v>6261.48274590999</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>15458.3388</v>
       </c>
       <c r="G47" t="n">
-        <v>6261.48274590999</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>11689.5331</v>
       </c>
       <c r="G48" t="n">
-        <v>17951.01584590999</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>57895.4809</v>
       </c>
       <c r="G49" t="n">
-        <v>75846.49674591</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>180162.12629805</v>
       </c>
       <c r="G50" t="n">
-        <v>256008.62304396</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>169114.9904</v>
       </c>
       <c r="G51" t="n">
-        <v>86893.63264395998</v>
-      </c>
-      <c r="H51" t="n">
         <v>2</v>
       </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>38064.5826</v>
       </c>
       <c r="G52" t="n">
-        <v>124958.21524396</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>196.8094</v>
       </c>
       <c r="G53" t="n">
-        <v>124761.40584396</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>4178.09737581</v>
       </c>
       <c r="G54" t="n">
-        <v>120583.30846815</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>12888.63888281</v>
       </c>
       <c r="G55" t="n">
-        <v>107694.66958534</v>
-      </c>
-      <c r="H55" t="n">
         <v>2</v>
       </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>14776.0725</v>
       </c>
       <c r="G56" t="n">
-        <v>92918.59708533998</v>
-      </c>
-      <c r="H56" t="n">
         <v>2</v>
       </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>732.0134</v>
       </c>
       <c r="G57" t="n">
-        <v>93650.61048533997</v>
-      </c>
-      <c r="H57" t="n">
         <v>2</v>
       </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>6460.9795</v>
       </c>
       <c r="G58" t="n">
-        <v>87189.63098533997</v>
-      </c>
-      <c r="H58" t="n">
         <v>2</v>
       </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>7437.6438</v>
       </c>
       <c r="G59" t="n">
-        <v>87189.63098533997</v>
-      </c>
-      <c r="H59" t="n">
         <v>2</v>
       </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>45527.9547</v>
       </c>
       <c r="G60" t="n">
-        <v>87189.63098533997</v>
-      </c>
-      <c r="H60" t="n">
         <v>2</v>
       </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>4458.3875</v>
       </c>
       <c r="G61" t="n">
-        <v>82731.24348533998</v>
-      </c>
-      <c r="H61" t="n">
         <v>2</v>
       </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>9166.6322</v>
       </c>
       <c r="G62" t="n">
-        <v>73564.61128533998</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>102497.8579</v>
       </c>
       <c r="G63" t="n">
-        <v>176062.46918534</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>669.1202</v>
       </c>
       <c r="G64" t="n">
-        <v>176731.58938534</v>
-      </c>
-      <c r="H64" t="n">
         <v>2</v>
       </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>10000</v>
       </c>
       <c r="G65" t="n">
-        <v>166731.58938534</v>
-      </c>
-      <c r="H65" t="n">
         <v>2</v>
       </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>3333.55676097</v>
       </c>
       <c r="G66" t="n">
-        <v>163398.03262437</v>
-      </c>
-      <c r="H66" t="n">
         <v>2</v>
       </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>3099.02161735</v>
       </c>
       <c r="G67" t="n">
-        <v>160299.01100702</v>
-      </c>
-      <c r="H67" t="n">
         <v>2</v>
       </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>18</v>
       </c>
       <c r="G68" t="n">
-        <v>160317.01100702</v>
-      </c>
-      <c r="H68" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>10001.6655</v>
       </c>
       <c r="G69" t="n">
-        <v>160317.01100702</v>
-      </c>
-      <c r="H69" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>10809.7076</v>
       </c>
       <c r="G70" t="n">
-        <v>149507.30340702</v>
-      </c>
-      <c r="H70" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>9091.6391</v>
       </c>
       <c r="G71" t="n">
-        <v>158598.94250702</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>52091.2972</v>
       </c>
       <c r="G72" t="n">
-        <v>210690.23970702</v>
-      </c>
-      <c r="H72" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>9941.342199999999</v>
       </c>
       <c r="G73" t="n">
-        <v>220631.58190702</v>
-      </c>
-      <c r="H73" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>1457.1437</v>
       </c>
       <c r="G74" t="n">
-        <v>220631.58190702</v>
-      </c>
-      <c r="H74" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>2790.2514</v>
       </c>
       <c r="G75" t="n">
-        <v>220631.58190702</v>
-      </c>
-      <c r="H75" t="n">
         <v>2</v>
       </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>10000</v>
       </c>
       <c r="G76" t="n">
-        <v>220631.58190702</v>
-      </c>
-      <c r="H76" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>199.02248756</v>
       </c>
       <c r="G77" t="n">
-        <v>220830.60439458</v>
-      </c>
-      <c r="H77" t="n">
         <v>2</v>
       </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>15883.8554</v>
       </c>
       <c r="G78" t="n">
-        <v>204946.74899458</v>
-      </c>
-      <c r="H78" t="n">
         <v>2</v>
       </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>6482.7083</v>
       </c>
       <c r="G79" t="n">
-        <v>211429.45729458</v>
-      </c>
-      <c r="H79" t="n">
         <v>2</v>
       </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>4632.19291244</v>
       </c>
       <c r="G80" t="n">
-        <v>216061.65020702</v>
-      </c>
-      <c r="H80" t="n">
         <v>2</v>
       </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>15297.6679</v>
       </c>
       <c r="G81" t="n">
-        <v>200763.98230702</v>
-      </c>
-      <c r="H81" t="n">
         <v>2</v>
       </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>43507.2694</v>
       </c>
       <c r="G82" t="n">
-        <v>244271.25170702</v>
-      </c>
-      <c r="H82" t="n">
         <v>2</v>
       </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>68707.76640911</v>
       </c>
       <c r="G83" t="n">
-        <v>312979.01811613</v>
-      </c>
-      <c r="H83" t="n">
         <v>2</v>
       </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>56392.0065</v>
       </c>
       <c r="G84" t="n">
-        <v>312979.01811613</v>
-      </c>
-      <c r="H84" t="n">
         <v>2</v>
       </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>59648.28</v>
       </c>
       <c r="G85" t="n">
-        <v>253330.73811613</v>
-      </c>
-      <c r="H85" t="n">
         <v>2</v>
       </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>19647.7126</v>
       </c>
       <c r="G86" t="n">
-        <v>272978.45071613</v>
-      </c>
-      <c r="H86" t="n">
         <v>2</v>
       </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>2305.1884</v>
       </c>
       <c r="G87" t="n">
-        <v>270673.26231613</v>
-      </c>
-      <c r="H87" t="n">
         <v>2</v>
       </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>1705.9529</v>
       </c>
       <c r="G88" t="n">
-        <v>270673.26231613</v>
-      </c>
-      <c r="H88" t="n">
         <v>2</v>
       </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>99968.8977</v>
       </c>
       <c r="G89" t="n">
-        <v>170704.36461613</v>
-      </c>
-      <c r="H89" t="n">
         <v>2</v>
       </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>27082.729</v>
       </c>
       <c r="G90" t="n">
-        <v>197787.09361613</v>
-      </c>
-      <c r="H90" t="n">
         <v>2</v>
       </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>1158.8685</v>
       </c>
       <c r="G91" t="n">
-        <v>196628.22511613</v>
-      </c>
-      <c r="H91" t="n">
         <v>2</v>
       </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>212931.7559</v>
       </c>
       <c r="G92" t="n">
-        <v>-16303.53078387002</v>
-      </c>
-      <c r="H92" t="n">
         <v>2</v>
       </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>137124.6717</v>
       </c>
       <c r="G93" t="n">
-        <v>-153428.20248387</v>
-      </c>
-      <c r="H93" t="n">
         <v>2</v>
       </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>46453.3894</v>
       </c>
       <c r="G94" t="n">
-        <v>-199881.59188387</v>
-      </c>
-      <c r="H94" t="n">
         <v>2</v>
       </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>132402.2778</v>
       </c>
       <c r="G95" t="n">
-        <v>-332283.86968387</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>722.2132</v>
       </c>
       <c r="G96" t="n">
-        <v>-333006.08288387</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>49396.3302</v>
       </c>
       <c r="G97" t="n">
-        <v>-333006.08288387</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>100</v>
       </c>
       <c r="G98" t="n">
-        <v>-333006.08288387</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>19154.0149</v>
       </c>
       <c r="G99" t="n">
-        <v>-352160.09778387</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>8799.468000000001</v>
       </c>
       <c r="G100" t="n">
-        <v>-343360.62978387</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>13143.8201</v>
       </c>
       <c r="G101" t="n">
-        <v>-356504.44988387</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>43940</v>
       </c>
       <c r="G102" t="n">
-        <v>-312564.44988387</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>2000</v>
       </c>
       <c r="G103" t="n">
-        <v>-314564.44988387</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>4082.0616</v>
       </c>
       <c r="G104" t="n">
-        <v>-310482.38828387</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>1022.0805</v>
       </c>
       <c r="G105" t="n">
-        <v>-311504.46878387</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>24105.5864</v>
       </c>
       <c r="G106" t="n">
-        <v>-335610.05518387</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>62527.4374</v>
       </c>
       <c r="G107" t="n">
-        <v>-335610.05518387</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>13597.514</v>
       </c>
       <c r="G108" t="n">
-        <v>-322012.54118387</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>516.0033</v>
       </c>
       <c r="G109" t="n">
-        <v>-322528.54448387</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>25736.096</v>
       </c>
       <c r="G110" t="n">
-        <v>-348264.64048387</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>6717.2871</v>
       </c>
       <c r="G111" t="n">
-        <v>-341547.35338387</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>21657</v>
       </c>
       <c r="G112" t="n">
-        <v>-319890.35338387</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>111</v>
       </c>
       <c r="G113" t="n">
-        <v>-320001.35338387</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>111</v>
       </c>
       <c r="G114" t="n">
-        <v>-320112.35338387</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>515</v>
       </c>
       <c r="G115" t="n">
-        <v>-320627.35338387</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>38711.41067586</v>
       </c>
       <c r="G116" t="n">
-        <v>-281915.94270801</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>38202.9062</v>
       </c>
       <c r="G117" t="n">
-        <v>-320118.8489080099</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>15406.7919</v>
       </c>
       <c r="G118" t="n">
-        <v>-335525.6408080099</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>406.4844</v>
       </c>
       <c r="G119" t="n">
-        <v>-335932.12520801</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>7024.84</v>
       </c>
       <c r="G120" t="n">
-        <v>-342956.96520801</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>42223.7383</v>
       </c>
       <c r="G121" t="n">
-        <v>-300733.22690801</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>52199.3645</v>
       </c>
       <c r="G122" t="n">
-        <v>-352932.59140801</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>669.8071</v>
       </c>
       <c r="G123" t="n">
-        <v>-352932.59140801</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>2578.8416</v>
       </c>
       <c r="G124" t="n">
-        <v>-352932.59140801</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>17605.7705</v>
       </c>
       <c r="G125" t="n">
-        <v>-370538.36190801</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>276</v>
       </c>
       <c r="G126" t="n">
-        <v>-370262.36190801</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>43029.4891</v>
       </c>
       <c r="G127" t="n">
-        <v>-413291.85100801</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,15 @@
         <v>8447.291300000001</v>
       </c>
       <c r="G128" t="n">
-        <v>-404844.55970801</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4253,15 @@
         <v>2688.3066</v>
       </c>
       <c r="G129" t="n">
-        <v>-404844.55970801</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4283,15 @@
         <v>5205.531</v>
       </c>
       <c r="G130" t="n">
-        <v>-404844.55970801</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4313,15 @@
         <v>42686.7325</v>
       </c>
       <c r="G131" t="n">
-        <v>-447531.29220801</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4343,15 @@
         <v>3050.8146</v>
       </c>
       <c r="G132" t="n">
-        <v>-444480.47760801</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4373,15 @@
         <v>315</v>
       </c>
       <c r="G133" t="n">
-        <v>-444480.47760801</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4403,15 @@
         <v>35248.2825</v>
       </c>
       <c r="G134" t="n">
-        <v>-444480.47760801</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4433,15 @@
         <v>6592.6354</v>
       </c>
       <c r="G135" t="n">
-        <v>-451073.11300801</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4463,15 @@
         <v>19317.6077</v>
       </c>
       <c r="G136" t="n">
-        <v>-431755.50530801</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4493,15 @@
         <v>160.4551</v>
       </c>
       <c r="G137" t="n">
-        <v>-431755.50530801</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4523,15 @@
         <v>524.43374294</v>
       </c>
       <c r="G138" t="n">
-        <v>-431231.07156507</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4553,15 @@
         <v>343.5025</v>
       </c>
       <c r="G139" t="n">
-        <v>-431574.57406507</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4583,15 @@
         <v>10000</v>
       </c>
       <c r="G140" t="n">
-        <v>-421574.57406507</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4613,15 @@
         <v>23653.3979954</v>
       </c>
       <c r="G141" t="n">
-        <v>-421574.57406507</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4643,15 @@
         <v>472.2708</v>
       </c>
       <c r="G142" t="n">
-        <v>-421574.57406507</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4673,15 @@
         <v>1367.2891</v>
       </c>
       <c r="G143" t="n">
-        <v>-422941.86316507</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4703,15 @@
         <v>134</v>
       </c>
       <c r="G144" t="n">
-        <v>-422941.86316507</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4733,15 @@
         <v>109</v>
       </c>
       <c r="G145" t="n">
-        <v>-422941.86316507</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4763,15 @@
         <v>19212.2867</v>
       </c>
       <c r="G146" t="n">
-        <v>-403729.57646507</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4793,15 @@
         <v>53715.1257</v>
       </c>
       <c r="G147" t="n">
-        <v>-350014.45076507</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4823,15 @@
         <v>222</v>
       </c>
       <c r="G148" t="n">
-        <v>-349792.45076507</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4853,15 @@
         <v>7573.0315</v>
       </c>
       <c r="G149" t="n">
-        <v>-357365.48226507</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4883,15 @@
         <v>3333</v>
       </c>
       <c r="G150" t="n">
-        <v>-360698.48226507</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4913,15 @@
         <v>15458.3388</v>
       </c>
       <c r="G151" t="n">
-        <v>-376156.82106507</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4943,15 @@
         <v>101.6211</v>
       </c>
       <c r="G152" t="n">
-        <v>-376055.1999650701</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +4973,15 @@
         <v>11202.2821</v>
       </c>
       <c r="G153" t="n">
-        <v>-387257.4820650701</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5003,15 @@
         <v>3455.7916</v>
       </c>
       <c r="G154" t="n">
-        <v>-390713.2736650701</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5033,15 @@
         <v>10054.8122</v>
       </c>
       <c r="G155" t="n">
-        <v>-380658.4614650701</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5063,15 @@
         <v>85308.1648</v>
       </c>
       <c r="G156" t="n">
-        <v>-465966.6262650701</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5093,15 @@
         <v>9205.933999999999</v>
       </c>
       <c r="G157" t="n">
-        <v>-465966.6262650701</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5123,15 @@
         <v>59367.8691</v>
       </c>
       <c r="G158" t="n">
-        <v>-406598.75716507</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5153,15 @@
         <v>2149.203</v>
       </c>
       <c r="G159" t="n">
-        <v>-404449.5541650701</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5183,15 @@
         <v>158.3706</v>
       </c>
       <c r="G160" t="n">
-        <v>-404607.9247650701</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5213,15 @@
         <v>5524.6573</v>
       </c>
       <c r="G161" t="n">
-        <v>-399083.2674650701</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5243,15 @@
         <v>4468.8102</v>
       </c>
       <c r="G162" t="n">
-        <v>-403552.0776650701</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5273,15 @@
         <v>10103.7829</v>
       </c>
       <c r="G163" t="n">
-        <v>-403552.0776650701</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5303,15 @@
         <v>20601.02905797</v>
       </c>
       <c r="G164" t="n">
-        <v>-382951.0486071001</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5333,15 @@
         <v>17874.9317</v>
       </c>
       <c r="G165" t="n">
-        <v>-400825.9803071001</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5363,15 @@
         <v>1853.27788604</v>
       </c>
       <c r="G166" t="n">
-        <v>-398972.7024210601</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5393,15 @@
         <v>4498.5065</v>
       </c>
       <c r="G167" t="n">
-        <v>-398972.7024210601</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5423,15 @@
         <v>6735.7781</v>
       </c>
       <c r="G168" t="n">
-        <v>-398972.7024210601</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5453,15 @@
         <v>5772.2051</v>
       </c>
       <c r="G169" t="n">
-        <v>-404744.9075210601</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5483,15 @@
         <v>19912.9184</v>
       </c>
       <c r="G170" t="n">
-        <v>-384831.9891210601</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5513,15 @@
         <v>55018.72504203</v>
       </c>
       <c r="G171" t="n">
-        <v>-329813.2640790301</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5543,15 @@
         <v>732.9675</v>
       </c>
       <c r="G172" t="n">
-        <v>-330546.2315790302</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5573,15 @@
         <v>11</v>
       </c>
       <c r="G173" t="n">
-        <v>-330557.2315790302</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5603,15 @@
         <v>1842.2778</v>
       </c>
       <c r="G174" t="n">
-        <v>-332399.5093790301</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5633,15 @@
         <v>972.9675</v>
       </c>
       <c r="G175" t="n">
-        <v>-331426.5418790301</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5663,15 @@
         <v>748.7671</v>
       </c>
       <c r="G176" t="n">
-        <v>-332175.3089790301</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +5693,15 @@
         <v>748.1219</v>
       </c>
       <c r="G177" t="n">
-        <v>-332175.3089790301</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +5723,15 @@
         <v>1231.5456</v>
       </c>
       <c r="G178" t="n">
-        <v>-333406.8545790301</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +5753,15 @@
         <v>2204.8301</v>
       </c>
       <c r="G179" t="n">
-        <v>-335611.6846790301</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +5783,15 @@
         <v>3100.1733</v>
       </c>
       <c r="G180" t="n">
-        <v>-335611.6846790301</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +5813,15 @@
         <v>659.5367</v>
       </c>
       <c r="G181" t="n">
-        <v>-336271.2213790301</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +5843,15 @@
         <v>964.6585</v>
       </c>
       <c r="G182" t="n">
-        <v>-337235.8798790302</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +5873,15 @@
         <v>14864.3499</v>
       </c>
       <c r="G183" t="n">
-        <v>-352100.2297790301</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +5903,15 @@
         <v>154.8553</v>
       </c>
       <c r="G184" t="n">
-        <v>-351945.3744790301</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +5933,15 @@
         <v>3603.1236</v>
       </c>
       <c r="G185" t="n">
-        <v>-355548.4980790301</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +5963,15 @@
         <v>8173.778</v>
       </c>
       <c r="G186" t="n">
-        <v>-363722.2760790301</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +5993,15 @@
         <v>22327.8385</v>
       </c>
       <c r="G187" t="n">
-        <v>-386050.1145790301</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6023,15 @@
         <v>3245.4788</v>
       </c>
       <c r="G188" t="n">
-        <v>-389295.5933790301</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6053,15 @@
         <v>28237.2026</v>
       </c>
       <c r="G189" t="n">
-        <v>-417532.7959790301</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6083,15 @@
         <v>27082.729</v>
       </c>
       <c r="G190" t="n">
-        <v>-444615.5249790301</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6113,15 @@
         <v>21800</v>
       </c>
       <c r="G191" t="n">
-        <v>-466415.5249790301</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,18 +6143,15 @@
         <v>600.6704</v>
       </c>
       <c r="G192" t="n">
-        <v>-465814.8545790301</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6751,18 +6173,15 @@
         <v>51588.8034</v>
       </c>
       <c r="G193" t="n">
-        <v>-414226.0511790302</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6784,18 +6203,15 @@
         <v>9196.2107</v>
       </c>
       <c r="G194" t="n">
-        <v>-405029.8404790302</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6817,18 +6233,15 @@
         <v>8908.611000000001</v>
       </c>
       <c r="G195" t="n">
-        <v>-413938.4514790301</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6850,18 +6263,15 @@
         <v>753.091</v>
       </c>
       <c r="G196" t="n">
-        <v>-413185.3604790301</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6883,18 +6293,15 @@
         <v>9846.3259</v>
       </c>
       <c r="G197" t="n">
-        <v>-403339.0345790301</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6916,18 +6323,15 @@
         <v>197931.4205</v>
       </c>
       <c r="G198" t="n">
-        <v>-205407.6140790301</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6949,18 +6353,15 @@
         <v>101.6211</v>
       </c>
       <c r="G199" t="n">
-        <v>-205509.2351790301</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6982,18 +6383,15 @@
         <v>5004</v>
       </c>
       <c r="G200" t="n">
-        <v>-210513.2351790301</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7015,18 +6413,15 @@
         <v>11</v>
       </c>
       <c r="G201" t="n">
-        <v>-210502.2351790301</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7048,18 +6443,15 @@
         <v>929.621</v>
       </c>
       <c r="G202" t="n">
-        <v>-209572.6141790301</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7081,18 +6473,15 @@
         <v>783.9999</v>
       </c>
       <c r="G203" t="n">
-        <v>-209572.6141790301</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7114,18 +6503,15 @@
         <v>880.4998000000001</v>
       </c>
       <c r="G204" t="n">
-        <v>-208692.1143790301</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7147,18 +6533,15 @@
         <v>1696.5089</v>
       </c>
       <c r="G205" t="n">
-        <v>-208692.1143790301</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7180,18 +6563,15 @@
         <v>11989.7539</v>
       </c>
       <c r="G206" t="n">
-        <v>-208692.1143790301</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7213,18 +6593,15 @@
         <v>5532.2374</v>
       </c>
       <c r="G207" t="n">
-        <v>-203159.8769790301</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7246,18 +6623,15 @@
         <v>3568.3091</v>
       </c>
       <c r="G208" t="n">
-        <v>-199591.5678790301</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7279,18 +6653,15 @@
         <v>2504.447</v>
       </c>
       <c r="G209" t="n">
-        <v>-202096.0148790301</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7312,18 +6683,15 @@
         <v>102504.447</v>
       </c>
       <c r="G210" t="n">
-        <v>-99591.56787903006</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7345,18 +6713,15 @@
         <v>12002.11655931</v>
       </c>
       <c r="G211" t="n">
-        <v>-87589.45131972006</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7378,18 +6743,15 @@
         <v>888</v>
       </c>
       <c r="G212" t="n">
-        <v>-88477.45131972006</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7411,18 +6773,15 @@
         <v>45</v>
       </c>
       <c r="G213" t="n">
-        <v>-88477.45131972006</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7444,18 +6803,15 @@
         <v>2050.425</v>
       </c>
       <c r="G214" t="n">
-        <v>-90527.87631972006</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7477,18 +6833,15 @@
         <v>100</v>
       </c>
       <c r="G215" t="n">
-        <v>-90527.87631972006</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7510,18 +6863,15 @@
         <v>100</v>
       </c>
       <c r="G216" t="n">
-        <v>-90627.87631972006</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7543,18 +6893,15 @@
         <v>501.3294</v>
       </c>
       <c r="G217" t="n">
-        <v>-91129.20571972006</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7576,18 +6923,15 @@
         <v>1618.6706</v>
       </c>
       <c r="G218" t="n">
-        <v>-92747.87631972006</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7609,18 +6953,15 @@
         <v>167.122</v>
       </c>
       <c r="G219" t="n">
-        <v>-92914.99831972006</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7642,18 +6983,15 @@
         <v>160.5498</v>
       </c>
       <c r="G220" t="n">
-        <v>-92754.44851972007</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7675,18 +7013,15 @@
         <v>6263.9932</v>
       </c>
       <c r="G221" t="n">
-        <v>-86490.45531972007</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7708,18 +7043,15 @@
         <v>34935.9269</v>
       </c>
       <c r="G222" t="n">
-        <v>-51554.52841972007</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7741,18 +7073,15 @@
         <v>94487.3233</v>
       </c>
       <c r="G223" t="n">
-        <v>42932.79488027993</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7774,18 +7103,15 @@
         <v>1818.8734</v>
       </c>
       <c r="G224" t="n">
-        <v>44751.66828027993</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7807,18 +7133,15 @@
         <v>46.6529</v>
       </c>
       <c r="G225" t="n">
-        <v>44798.32118027993</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7840,18 +7163,15 @@
         <v>22258.023</v>
       </c>
       <c r="G226" t="n">
-        <v>22540.29818027993</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7873,18 +7193,15 @@
         <v>9600</v>
       </c>
       <c r="G227" t="n">
-        <v>22540.29818027993</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -7906,18 +7223,15 @@
         <v>2818.0013</v>
       </c>
       <c r="G228" t="n">
-        <v>22540.29818027993</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -7939,18 +7253,15 @@
         <v>9100</v>
       </c>
       <c r="G229" t="n">
-        <v>13440.29818027993</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -7972,18 +7283,15 @@
         <v>571.895</v>
       </c>
       <c r="G230" t="n">
-        <v>13440.29818027993</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8005,18 +7313,15 @@
         <v>1100</v>
       </c>
       <c r="G231" t="n">
-        <v>12340.29818027993</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8038,18 +7343,15 @@
         <v>600.6704</v>
       </c>
       <c r="G232" t="n">
-        <v>12340.29818027993</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8071,18 +7373,15 @@
         <v>33</v>
       </c>
       <c r="G233" t="n">
-        <v>12373.29818027993</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8104,18 +7403,15 @@
         <v>70643.928</v>
       </c>
       <c r="G234" t="n">
-        <v>-58270.62981972007</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8137,18 +7433,15 @@
         <v>55000</v>
       </c>
       <c r="G235" t="n">
-        <v>-113270.6298197201</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8170,18 +7463,15 @@
         <v>70000</v>
       </c>
       <c r="G236" t="n">
-        <v>-183270.6298197201</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8203,18 +7493,15 @@
         <v>218909.8147</v>
       </c>
       <c r="G237" t="n">
-        <v>-402180.44451972</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8236,18 +7523,15 @@
         <v>327.4438</v>
       </c>
       <c r="G238" t="n">
-        <v>-401853.00071972</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8269,18 +7553,15 @@
         <v>62376.0466</v>
       </c>
       <c r="G239" t="n">
-        <v>-464229.04731972</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8302,18 +7583,15 @@
         <v>6515.7166</v>
       </c>
       <c r="G240" t="n">
-        <v>-470744.76391972</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8335,18 +7613,15 @@
         <v>193.8036</v>
       </c>
       <c r="G241" t="n">
-        <v>-470550.96031972</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8368,18 +7643,15 @@
         <v>39360.9445</v>
       </c>
       <c r="G242" t="n">
-        <v>-431190.0158197201</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8401,18 +7673,15 @@
         <v>8633.179</v>
       </c>
       <c r="G243" t="n">
-        <v>-422556.83681972</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8434,18 +7703,15 @@
         <v>5970.2682</v>
       </c>
       <c r="G244" t="n">
-        <v>-416586.5686197201</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8467,18 +7733,15 @@
         <v>1495.9769</v>
       </c>
       <c r="G245" t="n">
-        <v>-418082.5455197201</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8500,18 +7763,15 @@
         <v>124.1822</v>
       </c>
       <c r="G246" t="n">
-        <v>-418206.72771972</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8533,18 +7793,15 @@
         <v>5084.5339</v>
       </c>
       <c r="G247" t="n">
-        <v>-413122.1938197201</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8566,18 +7823,19 @@
         <v>11</v>
       </c>
       <c r="G248" t="n">
-        <v>-413111.1938197201</v>
+        <v>1</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
+        <v>47.1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>47.1</v>
+      </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8599,18 +7857,21 @@
         <v>160.4886</v>
       </c>
       <c r="G249" t="n">
-        <v>-413111.1938197201</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
+      <c r="I249" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8632,18 +7893,23 @@
         <v>3352.7478</v>
       </c>
       <c r="G250" t="n">
-        <v>-409758.4460197201</v>
+        <v>1</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+        <v>47.3</v>
+      </c>
+      <c r="I250" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8665,18 +7931,15 @@
         <v>4508.4856</v>
       </c>
       <c r="G251" t="n">
-        <v>-405249.96041972</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8698,18 +7961,15 @@
         <v>4519.4856</v>
       </c>
       <c r="G252" t="n">
-        <v>-400730.47481972</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8731,18 +7991,15 @@
         <v>6969.188</v>
       </c>
       <c r="G253" t="n">
-        <v>-407699.66281972</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -8764,18 +8021,15 @@
         <v>1827.3165</v>
       </c>
       <c r="G254" t="n">
-        <v>-409526.9793197201</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -8797,18 +8051,15 @@
         <v>61.0104</v>
       </c>
       <c r="G255" t="n">
-        <v>-409587.9897197201</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -8830,18 +8081,15 @@
         <v>12681.3614</v>
       </c>
       <c r="G256" t="n">
-        <v>-422269.3511197201</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -8863,18 +8111,15 @@
         <v>1928.2866</v>
       </c>
       <c r="G257" t="n">
-        <v>-424197.6377197201</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -8896,18 +8141,15 @@
         <v>44</v>
       </c>
       <c r="G258" t="n">
-        <v>-424241.6377197201</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -8929,18 +8171,15 @@
         <v>99</v>
       </c>
       <c r="G259" t="n">
-        <v>-424340.6377197201</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -8962,18 +8201,15 @@
         <v>235.1872</v>
       </c>
       <c r="G260" t="n">
-        <v>-424575.8249197201</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -8995,18 +8231,15 @@
         <v>435.8209</v>
       </c>
       <c r="G261" t="n">
-        <v>-425011.6458197201</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9028,18 +8261,15 @@
         <v>79.6418</v>
       </c>
       <c r="G262" t="n">
-        <v>-425091.28761972</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9061,18 +8291,15 @@
         <v>44998.2003</v>
       </c>
       <c r="G263" t="n">
-        <v>-470089.48791972</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9094,18 +8321,15 @@
         <v>2594.0552</v>
       </c>
       <c r="G264" t="n">
-        <v>-467495.43271972</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9127,18 +8351,15 @@
         <v>720.1162</v>
       </c>
       <c r="G265" t="n">
-        <v>-468215.54891972</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9160,18 +8381,21 @@
         <v>66</v>
       </c>
       <c r="G266" t="n">
-        <v>-468281.54891972</v>
+        <v>1</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>46.77</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9193,18 +8417,21 @@
         <v>15000</v>
       </c>
       <c r="G267" t="n">
-        <v>-468281.54891972</v>
+        <v>1</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>46.7</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9226,18 +8453,21 @@
         <v>6742.6387</v>
       </c>
       <c r="G268" t="n">
-        <v>-461538.91021972</v>
+        <v>1</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>46.7</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9259,18 +8489,21 @@
         <v>4093.753</v>
       </c>
       <c r="G269" t="n">
-        <v>-465632.66321972</v>
+        <v>1</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>46.94</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9292,18 +8525,19 @@
         <v>118.3582</v>
       </c>
       <c r="G270" t="n">
-        <v>-465514.30501972</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9325,18 +8559,19 @@
         <v>3787.8888</v>
       </c>
       <c r="G271" t="n">
-        <v>-465514.30501972</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -9358,18 +8593,19 @@
         <v>66121.93889999999</v>
       </c>
       <c r="G272" t="n">
-        <v>-531636.2439197199</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="J272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -9391,18 +8627,21 @@
         <v>20382.7925</v>
       </c>
       <c r="G273" t="n">
-        <v>-552019.0364197199</v>
+        <v>1</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>46.71</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="J273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -9424,18 +8663,21 @@
         <v>868.8561</v>
       </c>
       <c r="G274" t="n">
-        <v>-552019.0364197199</v>
+        <v>1</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>46.7</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+      <c r="J274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -9457,18 +8699,21 @@
         <v>697.1906</v>
       </c>
       <c r="G275" t="n">
-        <v>-552019.0364197199</v>
+        <v>1</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>46.7</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="J275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -9490,18 +8735,19 @@
         <v>6147.7012</v>
       </c>
       <c r="G276" t="n">
-        <v>-558166.7376197199</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -9523,18 +8769,19 @@
         <v>42606.1147</v>
       </c>
       <c r="G277" t="n">
-        <v>-515560.62291972</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+      <c r="J277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -9556,18 +8803,19 @@
         <v>14600</v>
       </c>
       <c r="G278" t="n">
-        <v>-530160.6229197199</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+      <c r="J278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -9589,18 +8837,19 @@
         <v>257249.0776</v>
       </c>
       <c r="G279" t="n">
-        <v>-530160.6229197199</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="J279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -9622,18 +8871,19 @@
         <v>3277</v>
       </c>
       <c r="G280" t="n">
-        <v>-533437.6229197199</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+      <c r="J280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -9655,18 +8905,19 @@
         <v>8894.838599999999</v>
       </c>
       <c r="G281" t="n">
-        <v>-542332.4615197199</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+      <c r="J281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -9688,18 +8939,21 @@
         <v>528</v>
       </c>
       <c r="G282" t="n">
-        <v>-542860.4615197199</v>
+        <v>1</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>46.15</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+      <c r="J282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -9721,18 +8975,21 @@
         <v>13365.3147</v>
       </c>
       <c r="G283" t="n">
-        <v>-529495.1468197199</v>
+        <v>1</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>45.8</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+      <c r="J283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -9754,18 +9011,19 @@
         <v>698.4225</v>
       </c>
       <c r="G284" t="n">
-        <v>-530193.5693197199</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
+      <c r="J284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -9787,18 +9045,21 @@
         <v>5599.5111</v>
       </c>
       <c r="G285" t="n">
-        <v>-530193.5693197199</v>
+        <v>1</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
+      <c r="J285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -9820,18 +9081,21 @@
         <v>216.1761</v>
       </c>
       <c r="G286" t="n">
-        <v>-529977.3932197199</v>
+        <v>1</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
+      <c r="J286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -9853,18 +9117,21 @@
         <v>10000</v>
       </c>
       <c r="G287" t="n">
-        <v>-539977.3932197199</v>
+        <v>1</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>46.19</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
+      <c r="J287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -9886,18 +9153,21 @@
         <v>9800</v>
       </c>
       <c r="G288" t="n">
-        <v>-539977.3932197199</v>
+        <v>1</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
+      <c r="J288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -9919,18 +9189,21 @@
         <v>16927.9164</v>
       </c>
       <c r="G289" t="n">
-        <v>-539977.3932197199</v>
+        <v>1</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
+      <c r="J289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
+      <c r="L289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -9952,22 +9225,21 @@
         <v>16.3618</v>
       </c>
       <c r="G290" t="n">
-        <v>-539977.3932197199</v>
+        <v>1</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
-      </c>
-      <c r="I290" t="n">
         <v>46</v>
       </c>
-      <c r="J290" t="n">
-        <v>46</v>
-      </c>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -9989,26 +9261,21 @@
         <v>3872.1397</v>
       </c>
       <c r="G291" t="n">
-        <v>-536105.2535197198</v>
+        <v>1</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I291" t="n">
         <v>46</v>
       </c>
-      <c r="J291" t="n">
-        <v>46</v>
-      </c>
-      <c r="K291" t="inlineStr">
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
+      <c r="L291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10030,26 +9297,21 @@
         <v>18000</v>
       </c>
       <c r="G292" t="n">
-        <v>-536105.2535197198</v>
+        <v>1</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="n">
         <v>46.37</v>
       </c>
-      <c r="J292" t="n">
-        <v>46</v>
-      </c>
-      <c r="K292" t="inlineStr">
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10071,22 +9333,21 @@
         <v>10000</v>
       </c>
       <c r="G293" t="n">
-        <v>-546105.2535197198</v>
+        <v>1</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
         <v>46.37</v>
       </c>
-      <c r="J293" t="n">
-        <v>46.37</v>
-      </c>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K293" t="n">
+        <v>1</v>
+      </c>
+      <c r="L293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10108,26 +9369,21 @@
         <v>10000</v>
       </c>
       <c r="G294" t="n">
-        <v>-556105.2535197198</v>
+        <v>1</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
-      </c>
-      <c r="I294" t="n">
         <v>46.35</v>
       </c>
-      <c r="J294" t="n">
-        <v>46.37</v>
-      </c>
-      <c r="K294" t="inlineStr">
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>1</v>
+      </c>
+      <c r="L294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -10149,26 +9405,21 @@
         <v>5500</v>
       </c>
       <c r="G295" t="n">
-        <v>-550605.2535197198</v>
+        <v>1</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="n">
         <v>46.1</v>
       </c>
-      <c r="J295" t="n">
-        <v>46.37</v>
-      </c>
-      <c r="K295" t="inlineStr">
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>1</v>
+      </c>
+      <c r="L295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -10190,26 +9441,19 @@
         <v>2122.074</v>
       </c>
       <c r="G296" t="n">
-        <v>-548483.1795197198</v>
-      </c>
-      <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="n">
-        <v>46.5</v>
-      </c>
-      <c r="J296" t="n">
-        <v>46.37</v>
-      </c>
-      <c r="K296" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H296" t="inlineStr"/>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>1</v>
+      </c>
+      <c r="L296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -10231,26 +9475,19 @@
         <v>413.8171</v>
       </c>
       <c r="G297" t="n">
-        <v>-548483.1795197198</v>
-      </c>
-      <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>46.56</v>
-      </c>
-      <c r="J297" t="n">
-        <v>46.37</v>
-      </c>
-      <c r="K297" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H297" t="inlineStr"/>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>1</v>
+      </c>
+      <c r="L297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -10272,26 +9509,19 @@
         <v>11651.5122</v>
       </c>
       <c r="G298" t="n">
-        <v>-548483.1795197198</v>
-      </c>
-      <c r="H298" t="n">
-        <v>1</v>
-      </c>
-      <c r="I298" t="n">
-        <v>46.56</v>
-      </c>
-      <c r="J298" t="n">
-        <v>46.37</v>
-      </c>
-      <c r="K298" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H298" t="inlineStr"/>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>1</v>
+      </c>
+      <c r="L298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -10313,26 +9543,19 @@
         <v>66478.7209</v>
       </c>
       <c r="G299" t="n">
-        <v>-548483.1795197198</v>
-      </c>
-      <c r="H299" t="n">
-        <v>1</v>
-      </c>
-      <c r="I299" t="n">
-        <v>46.56</v>
-      </c>
-      <c r="J299" t="n">
-        <v>46.37</v>
-      </c>
-      <c r="K299" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H299" t="inlineStr"/>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>1</v>
+      </c>
+      <c r="L299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -10354,26 +9577,19 @@
         <v>207.6369</v>
       </c>
       <c r="G300" t="n">
-        <v>-548275.5426197198</v>
-      </c>
-      <c r="H300" t="n">
-        <v>1</v>
-      </c>
-      <c r="I300" t="n">
-        <v>46.56</v>
-      </c>
-      <c r="J300" t="n">
-        <v>46.37</v>
-      </c>
-      <c r="K300" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H300" t="inlineStr"/>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>1</v>
+      </c>
+      <c r="L300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -10395,26 +9611,19 @@
         <v>69799.48850989999</v>
       </c>
       <c r="G301" t="n">
-        <v>-478476.0541098198</v>
-      </c>
-      <c r="H301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I301" t="n">
-        <v>47.59</v>
-      </c>
-      <c r="J301" t="n">
-        <v>46.37</v>
-      </c>
-      <c r="K301" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H301" t="inlineStr"/>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>1</v>
+      </c>
+      <c r="L301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -10436,24 +9645,19 @@
         <v>1110</v>
       </c>
       <c r="G302" t="n">
-        <v>-479586.0541098198</v>
-      </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>46.37</v>
-      </c>
-      <c r="K302" t="inlineStr">
+      <c r="J302" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>1</v>
+      </c>
+      <c r="L302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -10475,24 +9679,19 @@
         <v>1182.9223</v>
       </c>
       <c r="G303" t="n">
-        <v>-480768.9764098197</v>
-      </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>46.37</v>
-      </c>
-      <c r="K303" t="inlineStr">
+      <c r="J303" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>1</v>
+      </c>
+      <c r="L303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -10514,24 +9713,19 @@
         <v>1110</v>
       </c>
       <c r="G304" t="n">
-        <v>-481878.9764098197</v>
-      </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>46.37</v>
-      </c>
-      <c r="K304" t="inlineStr">
+      <c r="J304" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>1</v>
+      </c>
+      <c r="L304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -10553,24 +9747,19 @@
         <v>3287.5795</v>
       </c>
       <c r="G305" t="n">
-        <v>-478591.3969098197</v>
-      </c>
-      <c r="H305" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>46.37</v>
-      </c>
-      <c r="K305" t="inlineStr">
+      <c r="J305" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>1</v>
+      </c>
+      <c r="L305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -10592,24 +9781,19 @@
         <v>1100</v>
       </c>
       <c r="G306" t="n">
-        <v>-479691.3969098197</v>
-      </c>
-      <c r="H306" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>46.37</v>
-      </c>
-      <c r="K306" t="inlineStr">
+      <c r="J306" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>1</v>
+      </c>
+      <c r="L306" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
